--- a/Results/host-guest-dataset_clean.xlsx
+++ b/Results/host-guest-dataset_clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/misspotato/Documents/GitHub/Host-Guest System gbnsr6/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/misspotato/Documents/GitHub/Binding-Free-Energy-Prediction-Host-Guest-System/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E68A5F-45B0-EF4D-996F-370C2997D63E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFB308-B6D8-AC40-9D62-92921F51639B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-18380" windowWidth="31140" windowHeight="16740" activeTab="1" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
+    <workbookView xWindow="700" yWindow="-18460" windowWidth="34080" windowHeight="16740" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="24" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="93">
   <si>
     <t>dataset group name</t>
   </si>
@@ -298,24 +298,6 @@
     <t>With istrng=0</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
     <t>SAMPL5</t>
   </si>
   <si>
@@ -323,6 +305,9 @@
   </si>
   <si>
     <t>OAME</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
@@ -7724,7 +7709,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="13" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="24" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0">
@@ -8507,10 +8492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD74DF-FB71-A641-B99D-0471020535CD}">
-  <dimension ref="A1:AS63"/>
+  <dimension ref="A1:AS68"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AE1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8560,7 +8545,10 @@
     <col min="43" max="43" width="20" style="4" customWidth="1"/>
     <col min="44" max="44" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18.83203125" style="4" customWidth="1"/>
-    <col min="46" max="16384" width="10.83203125" style="4"/>
+    <col min="46" max="47" width="10.83203125" style="4"/>
+    <col min="48" max="48" width="17.83203125" style="4" customWidth="1"/>
+    <col min="49" max="49" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -13363,18 +13351,18 @@
         <v>5.9691999999999998</v>
       </c>
       <c r="AN34" s="6">
-        <f t="shared" ref="AN34:AN63" si="5">(Y34+U34)-((AD34+K34)+(AI34+P34))</f>
+        <f t="shared" ref="AN34:AN68" si="5">(Y34+U34)-((AD34+K34)+(AI34+P34))</f>
         <v>-8.0108999999999924</v>
       </c>
       <c r="AO34" s="4">
-        <f t="shared" ref="AO34:AO63" si="6">T34-(O34+J34)</f>
+        <f t="shared" ref="AO34:AO68" si="6">T34-(O34+J34)</f>
         <v>-8.0243000000000393</v>
       </c>
       <c r="AP34" s="6">
         <v>-1.96</v>
       </c>
       <c r="AQ34" s="4">
-        <f t="shared" ref="AQ34:AQ63" si="7">AN34-AP34</f>
+        <f t="shared" ref="AQ34:AQ68" si="7">AN34-AP34</f>
         <v>-6.0508999999999924</v>
       </c>
       <c r="AR34" s="4">
@@ -16231,13 +16219,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F55" s="4">
         <v>-5.04</v>
@@ -16370,13 +16361,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F56" s="4">
         <v>-4.25</v>
@@ -16509,13 +16503,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F57" s="4">
         <v>-5.0599999999999996</v>
@@ -16648,13 +16645,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F58" s="4">
         <v>-9.3699999999999992</v>
@@ -16787,13 +16787,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="F59" s="4">
         <v>-4.5</v>
@@ -16926,13 +16929,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="F60" s="4">
         <v>-5.33</v>
@@ -17065,13 +17071,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F61" s="4">
         <v>-5.24</v>
@@ -17204,13 +17213,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F62" s="4">
         <v>-5.04</v>
@@ -17343,13 +17355,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="F63" s="4">
         <v>-4.5199999999999996</v>
@@ -17476,6 +17491,21 @@
         <f t="shared" si="9"/>
         <v>4.5672000000000033</v>
       </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AN64" s="6"/>
+    </row>
+    <row r="65" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN65" s="6"/>
+    </row>
+    <row r="66" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN66" s="6"/>
+    </row>
+    <row r="67" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN67" s="6"/>
+    </row>
+    <row r="68" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN68" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17486,8 +17516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA4B728-D30D-F64A-A693-296E63233403}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results/host-guest-dataset_clean.xlsx
+++ b/Results/host-guest-dataset_clean.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/misspotato/Documents/GitHub/Binding-Free-Energy-Prediction-Host-Guest-System/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFB308-B6D8-AC40-9D62-92921F51639B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB84405-D2A8-FA45-94F4-CC043FD8DCC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="-18460" windowWidth="34080" windowHeight="16740" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
+    <workbookView xWindow="-1860" yWindow="-21100" windowWidth="35260" windowHeight="20280" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="5" r:id="rId2"/>
+    <sheet name="MISC" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId3"/>
+    <pivotCache cacheId="29" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="131">
   <si>
     <t>dataset group name</t>
   </si>
@@ -309,12 +310,126 @@
   <si>
     <t>sample</t>
   </si>
+  <si>
+    <t>CB8</t>
+  </si>
+  <si>
+    <t>guest-0</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>OA-G0</t>
+  </si>
+  <si>
+    <t>OA-G1</t>
+  </si>
+  <si>
+    <t>OA-G2</t>
+  </si>
+  <si>
+    <t>OA-G3</t>
+  </si>
+  <si>
+    <t>OA-G4</t>
+  </si>
+  <si>
+    <t>OA-G5</t>
+  </si>
+  <si>
+    <t>OA-G6</t>
+  </si>
+  <si>
+    <t>OA-G7</t>
+  </si>
+  <si>
+    <t>TEMOA-G0</t>
+  </si>
+  <si>
+    <t>TEMOA-G1</t>
+  </si>
+  <si>
+    <t>TEMOA-G2</t>
+  </si>
+  <si>
+    <t>TEMOA-G3</t>
+  </si>
+  <si>
+    <t>TEMOA-G4</t>
+  </si>
+  <si>
+    <t>TEMOA-G5</t>
+  </si>
+  <si>
+    <t>TEMOA-G6</t>
+  </si>
+  <si>
+    <t>TEMOA-G7</t>
+  </si>
+  <si>
+    <t>CB8-G0</t>
+  </si>
+  <si>
+    <t>CB8-G1</t>
+  </si>
+  <si>
+    <t>CB8-G2</t>
+  </si>
+  <si>
+    <t>CB8-G3</t>
+  </si>
+  <si>
+    <t>CB8-G4</t>
+  </si>
+  <si>
+    <t>CB8-G5</t>
+  </si>
+  <si>
+    <t>CB8-G6</t>
+  </si>
+  <si>
+    <t>CB8-G7</t>
+  </si>
+  <si>
+    <t>CB8-G8</t>
+  </si>
+  <si>
+    <t>CB8-G9</t>
+  </si>
+  <si>
+    <t>CB8-G10</t>
+  </si>
+  <si>
+    <t>CB8-G11</t>
+  </si>
+  <si>
+    <t>CB8-G12a</t>
+  </si>
+  <si>
+    <t>CB8-G12b</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>TEMOA</t>
+  </si>
+  <si>
+    <t>guest-12a</t>
+  </si>
+  <si>
+    <t>guest-12b</t>
+  </si>
+  <si>
+    <t>SAMPL6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +480,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -556,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,6 +700,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -594,6 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -7709,7 +7833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="24" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="29" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0">
@@ -8492,10 +8616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD74DF-FB71-A641-B99D-0471020535CD}">
-  <dimension ref="A1:AS68"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8503,12 +8627,12 @@
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="4" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" style="4" customWidth="1"/>
@@ -8807,26 +8931,26 @@
         <v>5.1691000000000003</v>
       </c>
       <c r="AN2" s="6">
-        <f t="shared" ref="AN2:AN33" si="0">(Y2+U2)-((AD2+K2)+(AI2+P2))</f>
+        <f>(Y2+U2)-((AD2+K2)+(AI2+P2))</f>
         <v>-1.995000000000033</v>
       </c>
       <c r="AO2" s="4">
-        <f t="shared" ref="AO2:AO33" si="1">T2-(O2+J2)</f>
+        <f>T2-(O2+J2)</f>
         <v>-0.8407999999999447</v>
       </c>
       <c r="AP2" s="6">
         <v>-2.17</v>
       </c>
       <c r="AQ2" s="4">
-        <f t="shared" ref="AQ2:AQ33" si="2">AN2-AP2</f>
+        <f>AN2-AP2</f>
         <v>0.17499999999996696</v>
       </c>
       <c r="AR2" s="4">
-        <f t="shared" ref="AR2:AR33" si="3">AQ2^2</f>
+        <f>AQ2^2</f>
         <v>3.0624999999988436E-2</v>
       </c>
       <c r="AS2" s="4">
-        <f t="shared" ref="AS2:AS33" si="4">AO2-AP2</f>
+        <f>AO2-AP2</f>
         <v>1.3292000000000552</v>
       </c>
     </row>
@@ -8949,26 +9073,26 @@
         <v>5.0726000000000004</v>
       </c>
       <c r="AN3" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y3+U3)-((AD3+K3)+(AI3+P3))</f>
         <v>-11.262399999999985</v>
       </c>
       <c r="AO3" s="4">
-        <f t="shared" si="1"/>
+        <f>T3-(O3+J3)</f>
         <v>-8.4809000000001333</v>
       </c>
       <c r="AP3" s="6">
         <v>-4.1900000000000004</v>
       </c>
       <c r="AQ3" s="4">
-        <f t="shared" si="2"/>
+        <f>AN3-AP3</f>
         <v>-7.0723999999999849</v>
       </c>
       <c r="AR3" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ3^2</f>
         <v>50.018841759999788</v>
       </c>
       <c r="AS3" s="4">
-        <f t="shared" si="4"/>
+        <f>AO3-AP3</f>
         <v>-4.2909000000001329</v>
       </c>
     </row>
@@ -9091,26 +9215,26 @@
         <v>5.1352000000000002</v>
       </c>
       <c r="AN4" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y4+U4)-((AD4+K4)+(AI4+P4))</f>
         <v>-15.407399999999996</v>
       </c>
       <c r="AO4" s="4">
-        <f t="shared" si="1"/>
+        <f>T4-(O4+J4)</f>
         <v>-13.823400000000106</v>
       </c>
       <c r="AP4" s="6">
         <v>-5.46</v>
       </c>
       <c r="AQ4" s="4">
-        <f t="shared" si="2"/>
+        <f>AN4-AP4</f>
         <v>-9.9473999999999947</v>
       </c>
       <c r="AR4" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ4^2</f>
         <v>98.950766759999894</v>
       </c>
       <c r="AS4" s="4">
-        <f t="shared" si="4"/>
+        <f>AO4-AP4</f>
         <v>-8.3634000000001052</v>
       </c>
     </row>
@@ -9233,26 +9357,26 @@
         <v>5.0849000000000002</v>
       </c>
       <c r="AN5" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y5+U5)-((AD5+K5)+(AI5+P5))</f>
         <v>-10.558600000000013</v>
       </c>
       <c r="AO5" s="4">
-        <f t="shared" si="1"/>
+        <f>T5-(O5+J5)</f>
         <v>-11.331900000000019</v>
       </c>
       <c r="AP5" s="6">
         <v>-2.74</v>
       </c>
       <c r="AQ5" s="4">
-        <f t="shared" si="2"/>
+        <f>AN5-AP5</f>
         <v>-7.8186000000000124</v>
       </c>
       <c r="AR5" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ5^2</f>
         <v>61.130505960000193</v>
       </c>
       <c r="AS5" s="4">
-        <f t="shared" si="4"/>
+        <f>AO5-AP5</f>
         <v>-8.5919000000000185</v>
       </c>
     </row>
@@ -9375,26 +9499,26 @@
         <v>5.0880999999999998</v>
       </c>
       <c r="AN6" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y6+U6)-((AD6+K6)+(AI6+P6))</f>
         <v>-14.551699999999983</v>
       </c>
       <c r="AO6" s="4">
-        <f t="shared" si="1"/>
+        <f>T6-(O6+J6)</f>
         <v>-14.048500000000104</v>
       </c>
       <c r="AP6" s="6">
         <v>-2.99</v>
       </c>
       <c r="AQ6" s="4">
-        <f t="shared" si="2"/>
+        <f>AN6-AP6</f>
         <v>-11.561699999999982</v>
       </c>
       <c r="AR6" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ6^2</f>
         <v>133.67290688999958</v>
       </c>
       <c r="AS6" s="4">
-        <f t="shared" si="4"/>
+        <f>AO6-AP6</f>
         <v>-11.058500000000103</v>
       </c>
     </row>
@@ -9517,26 +9641,26 @@
         <v>5.1791999999999998</v>
       </c>
       <c r="AN7" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y7+U7)-((AD7+K7)+(AI7+P7))</f>
         <v>-5.8525999999999954</v>
       </c>
       <c r="AO7" s="4">
-        <f t="shared" si="1"/>
+        <f>T7-(O7+J7)</f>
         <v>-7.6596000000000686</v>
       </c>
       <c r="AP7" s="6">
         <v>-2.5299999999999998</v>
       </c>
       <c r="AQ7" s="4">
-        <f t="shared" si="2"/>
+        <f>AN7-AP7</f>
         <v>-3.3225999999999956</v>
       </c>
       <c r="AR7" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ7^2</f>
         <v>11.03967075999997</v>
       </c>
       <c r="AS7" s="4">
-        <f t="shared" si="4"/>
+        <f>AO7-AP7</f>
         <v>-5.1296000000000692</v>
       </c>
     </row>
@@ -9659,26 +9783,26 @@
         <v>5.0312000000000001</v>
       </c>
       <c r="AN8" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y8+U8)-((AD8+K8)+(AI8+P8))</f>
         <v>-11.86330000000001</v>
       </c>
       <c r="AO8" s="4">
-        <f t="shared" si="1"/>
+        <f>T8-(O8+J8)</f>
         <v>-11.024099999999976</v>
       </c>
       <c r="AP8" s="6">
         <v>-3.4</v>
       </c>
       <c r="AQ8" s="4">
-        <f t="shared" si="2"/>
+        <f>AN8-AP8</f>
         <v>-8.4633000000000091</v>
       </c>
       <c r="AR8" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ8^2</f>
         <v>71.627446890000158</v>
       </c>
       <c r="AS8" s="4">
-        <f t="shared" si="4"/>
+        <f>AO8-AP8</f>
         <v>-7.6240999999999755</v>
       </c>
     </row>
@@ -9801,26 +9925,26 @@
         <v>5.1211000000000002</v>
       </c>
       <c r="AN9" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y9+U9)-((AD9+K9)+(AI9+P9))</f>
         <v>-15.818100000000015</v>
       </c>
       <c r="AO9" s="4">
-        <f t="shared" si="1"/>
+        <f>T9-(O9+J9)</f>
         <v>-14.552499999999895</v>
       </c>
       <c r="AP9" s="6">
         <v>-4.8899999999999997</v>
       </c>
       <c r="AQ9" s="4">
-        <f t="shared" si="2"/>
+        <f>AN9-AP9</f>
         <v>-10.928100000000015</v>
       </c>
       <c r="AR9" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ9^2</f>
         <v>119.42336961000032</v>
       </c>
       <c r="AS9" s="4">
-        <f t="shared" si="4"/>
+        <f>AO9-AP9</f>
         <v>-9.6624999999998948</v>
       </c>
     </row>
@@ -9943,26 +10067,26 @@
         <v>5.2165999999999997</v>
       </c>
       <c r="AN10" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y10+U10)-((AD10+K10)+(AI10+P10))</f>
         <v>-2.7850999999999999</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" si="1"/>
+        <f>T10-(O10+J10)</f>
         <v>-1.3498999999999342</v>
       </c>
       <c r="AP10" s="6">
         <v>-2.57</v>
       </c>
       <c r="AQ10" s="4">
-        <f t="shared" si="2"/>
+        <f>AN10-AP10</f>
         <v>-0.21510000000000007</v>
       </c>
       <c r="AR10" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ10^2</f>
         <v>4.6268010000000033E-2</v>
       </c>
       <c r="AS10" s="4">
-        <f t="shared" si="4"/>
+        <f>AO10-AP10</f>
         <v>1.2201000000000657</v>
       </c>
     </row>
@@ -10085,26 +10209,26 @@
         <v>5.0477999999999996</v>
       </c>
       <c r="AN11" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y11+U11)-((AD11+K11)+(AI11+P11))</f>
         <v>-4.0921999999999912</v>
       </c>
       <c r="AO11" s="4">
-        <f t="shared" si="1"/>
+        <f>T11-(O11+J11)</f>
         <v>-1.9280999999999722</v>
       </c>
       <c r="AP11" s="6">
         <v>-2.68</v>
       </c>
       <c r="AQ11" s="4">
-        <f t="shared" si="2"/>
+        <f>AN11-AP11</f>
         <v>-1.412199999999991</v>
       </c>
       <c r="AR11" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ11^2</f>
         <v>1.9943088399999747</v>
       </c>
       <c r="AS11" s="4">
-        <f t="shared" si="4"/>
+        <f>AO11-AP11</f>
         <v>0.75190000000002799</v>
       </c>
     </row>
@@ -10227,26 +10351,26 @@
         <v>5.1074000000000002</v>
       </c>
       <c r="AN12" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y12+U12)-((AD12+K12)+(AI12+P12))</f>
         <v>-6.8614999999999782</v>
       </c>
       <c r="AO12" s="4">
-        <f t="shared" si="1"/>
+        <f>T12-(O12+J12)</f>
         <v>-5.0641999999999143</v>
       </c>
       <c r="AP12" s="6">
         <v>-3.28</v>
       </c>
       <c r="AQ12" s="4">
-        <f t="shared" si="2"/>
+        <f>AN12-AP12</f>
         <v>-3.5814999999999784</v>
       </c>
       <c r="AR12" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ12^2</f>
         <v>12.827142249999845</v>
       </c>
       <c r="AS12" s="4">
-        <f t="shared" si="4"/>
+        <f>AO12-AP12</f>
         <v>-1.7841999999999145</v>
       </c>
     </row>
@@ -10369,26 +10493,26 @@
         <v>4.9828000000000001</v>
       </c>
       <c r="AN13" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y13+U13)-((AD13+K13)+(AI13+P13))</f>
         <v>-13.490899999999982</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="1"/>
+        <f>T13-(O13+J13)</f>
         <v>-11.937400000000025</v>
       </c>
       <c r="AP13" s="6">
         <v>-4.2</v>
       </c>
       <c r="AQ13" s="4">
-        <f t="shared" si="2"/>
+        <f>AN13-AP13</f>
         <v>-9.2908999999999828</v>
       </c>
       <c r="AR13" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ13^2</f>
         <v>86.320822809999683</v>
       </c>
       <c r="AS13" s="4">
-        <f t="shared" si="4"/>
+        <f>AO13-AP13</f>
         <v>-7.7374000000000249</v>
       </c>
     </row>
@@ -10511,26 +10635,26 @@
         <v>5.0833000000000004</v>
       </c>
       <c r="AN14" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y14+U14)-((AD14+K14)+(AI14+P14))</f>
         <v>-11.969399999999979</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="1"/>
+        <f>T14-(O14+J14)</f>
         <v>-9.0878000000000156</v>
       </c>
       <c r="AP14" s="6">
         <v>-4.28</v>
       </c>
       <c r="AQ14" s="4">
-        <f t="shared" si="2"/>
+        <f>AN14-AP14</f>
         <v>-7.6893999999999787</v>
       </c>
       <c r="AR14" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ14^2</f>
         <v>59.126872359999673</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="4"/>
+        <f>AO14-AP14</f>
         <v>-4.8078000000000154</v>
       </c>
     </row>
@@ -10653,26 +10777,26 @@
         <v>5.1109</v>
       </c>
       <c r="AN15" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y15+U15)-((AD15+K15)+(AI15+P15))</f>
         <v>-15.066500000000019</v>
       </c>
       <c r="AO15" s="4">
-        <f t="shared" si="1"/>
+        <f>T15-(O15+J15)</f>
         <v>-13.397100000000023</v>
       </c>
       <c r="AP15" s="6">
         <v>-4.66</v>
       </c>
       <c r="AQ15" s="4">
-        <f t="shared" si="2"/>
+        <f>AN15-AP15</f>
         <v>-10.406500000000019</v>
       </c>
       <c r="AR15" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ15^2</f>
         <v>108.2952422500004</v>
       </c>
       <c r="AS15" s="4">
-        <f t="shared" si="4"/>
+        <f>AO15-AP15</f>
         <v>-8.737100000000023</v>
       </c>
     </row>
@@ -10795,26 +10919,26 @@
         <v>5.0945</v>
       </c>
       <c r="AN16" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y16+U16)-((AD16+K16)+(AI16+P16))</f>
         <v>-13.312900000000013</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="1"/>
+        <f>T16-(O16+J16)</f>
         <v>-9.6586000000000922</v>
       </c>
       <c r="AP16" s="6">
         <v>-4.74</v>
       </c>
       <c r="AQ16" s="4">
-        <f t="shared" si="2"/>
+        <f>AN16-AP16</f>
         <v>-8.5729000000000131</v>
       </c>
       <c r="AR16" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ16^2</f>
         <v>73.494614410000224</v>
       </c>
       <c r="AS16" s="4">
-        <f t="shared" si="4"/>
+        <f>AO16-AP16</f>
         <v>-4.918600000000092</v>
       </c>
     </row>
@@ -10937,26 +11061,26 @@
         <v>5.0720000000000001</v>
       </c>
       <c r="AN17" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y17+U17)-((AD17+K17)+(AI17+P17))</f>
         <v>-8.1576000000000022</v>
       </c>
       <c r="AO17" s="4">
-        <f t="shared" si="1"/>
+        <f>T17-(O17+J17)</f>
         <v>-9.3663999999999987</v>
       </c>
       <c r="AP17" s="6">
         <v>-2.75</v>
       </c>
       <c r="AQ17" s="4">
-        <f t="shared" si="2"/>
+        <f>AN17-AP17</f>
         <v>-5.4076000000000022</v>
       </c>
       <c r="AR17" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ17^2</f>
         <v>29.242137760000023</v>
       </c>
       <c r="AS17" s="4">
-        <f t="shared" si="4"/>
+        <f>AO17-AP17</f>
         <v>-6.6163999999999987</v>
       </c>
     </row>
@@ -11079,26 +11203,26 @@
         <v>5.0761000000000003</v>
       </c>
       <c r="AN18" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y18+U18)-((AD18+K18)+(AI18+P18))</f>
         <v>-11.483900000000006</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="1"/>
+        <f>T18-(O18+J18)</f>
         <v>-11.82409999999993</v>
       </c>
       <c r="AP18" s="6">
         <v>-0.93</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="2"/>
+        <f>AN18-AP18</f>
         <v>-10.553900000000006</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ18^2</f>
         <v>111.38480521000012</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="4"/>
+        <f>AO18-AP18</f>
         <v>-10.894099999999931</v>
       </c>
     </row>
@@ -11221,26 +11345,26 @@
         <v>5.0350999999999999</v>
       </c>
       <c r="AN19" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y19+U19)-((AD19+K19)+(AI19+P19))</f>
         <v>-8.443300000000022</v>
       </c>
       <c r="AO19" s="4">
-        <f t="shared" si="1"/>
+        <f>T19-(O19+J19)</f>
         <v>-7.6430000000000291</v>
       </c>
       <c r="AP19" s="6">
         <v>-2.75</v>
       </c>
       <c r="AQ19" s="4">
-        <f t="shared" si="2"/>
+        <f>AN19-AP19</f>
         <v>-5.693300000000022</v>
       </c>
       <c r="AR19" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ19^2</f>
         <v>32.413664890000248</v>
       </c>
       <c r="AS19" s="4">
-        <f t="shared" si="4"/>
+        <f>AO19-AP19</f>
         <v>-4.8930000000000291</v>
       </c>
     </row>
@@ -11363,26 +11487,26 @@
         <v>5.1493000000000002</v>
       </c>
       <c r="AN20" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y20+U20)-((AD20+K20)+(AI20+P20))</f>
         <v>-6.858900000000034</v>
       </c>
       <c r="AO20" s="4">
-        <f t="shared" si="1"/>
+        <f>T20-(O20+J20)</f>
         <v>-6.4922000000000253</v>
       </c>
       <c r="AP20" s="6">
         <v>-4.12</v>
       </c>
       <c r="AQ20" s="4">
-        <f t="shared" si="2"/>
+        <f>AN20-AP20</f>
         <v>-2.7389000000000339</v>
       </c>
       <c r="AR20" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ20^2</f>
         <v>7.5015732100001857</v>
       </c>
       <c r="AS20" s="4">
-        <f t="shared" si="4"/>
+        <f>AO20-AP20</f>
         <v>-2.3722000000000252</v>
       </c>
     </row>
@@ -11505,26 +11629,26 @@
         <v>5.0885999999999996</v>
       </c>
       <c r="AN21" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y21+U21)-((AD21+K21)+(AI21+P21))</f>
         <v>-8.0904000000000167</v>
       </c>
       <c r="AO21" s="4">
-        <f t="shared" si="1"/>
+        <f>T21-(O21+J21)</f>
         <v>-8.1770000000000209</v>
       </c>
       <c r="AP21" s="6">
         <v>-3.36</v>
       </c>
       <c r="AQ21" s="4">
-        <f t="shared" si="2"/>
+        <f>AN21-AP21</f>
         <v>-4.7304000000000173</v>
       </c>
       <c r="AR21" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ21^2</f>
         <v>22.376684160000163</v>
       </c>
       <c r="AS21" s="4">
-        <f t="shared" si="4"/>
+        <f>AO21-AP21</f>
         <v>-4.8170000000000215</v>
       </c>
     </row>
@@ -11647,26 +11771,26 @@
         <v>5.0010000000000003</v>
       </c>
       <c r="AN22" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y22+U22)-((AD22+K22)+(AI22+P22))</f>
         <v>-14.715100000000007</v>
       </c>
       <c r="AO22" s="4">
-        <f t="shared" si="1"/>
+        <f>T22-(O22+J22)</f>
         <v>-12.937800000000038</v>
       </c>
       <c r="AP22" s="6">
         <v>-4.1900000000000004</v>
       </c>
       <c r="AQ22" s="4">
-        <f t="shared" si="2"/>
+        <f>AN22-AP22</f>
         <v>-10.525100000000005</v>
       </c>
       <c r="AR22" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ22^2</f>
         <v>110.77773001000011</v>
       </c>
       <c r="AS22" s="4">
-        <f t="shared" si="4"/>
+        <f>AO22-AP22</f>
         <v>-8.7478000000000371</v>
       </c>
     </row>
@@ -11789,26 +11913,26 @@
         <v>5.0411999999999999</v>
       </c>
       <c r="AN23" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y23+U23)-((AD23+K23)+(AI23+P23))</f>
         <v>-15.368400000000008</v>
       </c>
       <c r="AO23" s="4">
-        <f t="shared" si="1"/>
+        <f>T23-(O23+J23)</f>
         <v>-13.404199999999946</v>
       </c>
       <c r="AP23" s="6">
         <v>-4.4800000000000004</v>
       </c>
       <c r="AQ23" s="4">
-        <f t="shared" si="2"/>
+        <f>AN23-AP23</f>
         <v>-10.888400000000008</v>
       </c>
       <c r="AR23" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ23^2</f>
         <v>118.55725456000017</v>
       </c>
       <c r="AS23" s="4">
-        <f t="shared" si="4"/>
+        <f>AO23-AP23</f>
         <v>-8.9241999999999457</v>
       </c>
     </row>
@@ -11931,26 +12055,26 @@
         <v>5.9501999999999997</v>
       </c>
       <c r="AN24" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y24+U24)-((AD24+K24)+(AI24+P24))</f>
         <v>-5.9102000000000317</v>
       </c>
       <c r="AO24" s="4">
-        <f t="shared" si="1"/>
+        <f>T24-(O24+J24)</f>
         <v>-4.3869000000000824</v>
       </c>
       <c r="AP24" s="6">
         <v>0.6</v>
       </c>
       <c r="AQ24" s="4">
-        <f t="shared" si="2"/>
+        <f>AN24-AP24</f>
         <v>-6.5102000000000313</v>
       </c>
       <c r="AR24" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ24^2</f>
         <v>42.382704040000405</v>
       </c>
       <c r="AS24" s="4">
-        <f t="shared" si="4"/>
+        <f>AO24-AP24</f>
         <v>-4.986900000000082</v>
       </c>
     </row>
@@ -12073,26 +12197,26 @@
         <v>5.9038000000000004</v>
       </c>
       <c r="AN25" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y25+U25)-((AD25+K25)+(AI25+P25))</f>
         <v>-10.786999999999978</v>
       </c>
       <c r="AO25" s="4">
-        <f t="shared" si="1"/>
+        <f>T25-(O25+J25)</f>
         <v>-9.0574999999998909</v>
       </c>
       <c r="AP25" s="6">
         <v>-0.48</v>
       </c>
       <c r="AQ25" s="4">
-        <f t="shared" si="2"/>
+        <f>AN25-AP25</f>
         <v>-10.306999999999977</v>
       </c>
       <c r="AR25" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ25^2</f>
         <v>106.23424899999954</v>
       </c>
       <c r="AS25" s="4">
-        <f t="shared" si="4"/>
+        <f>AO25-AP25</f>
         <v>-8.5774999999998904</v>
       </c>
     </row>
@@ -12215,26 +12339,26 @@
         <v>5.8501000000000003</v>
       </c>
       <c r="AN26" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y26+U26)-((AD26+K26)+(AI26+P26))</f>
         <v>-9.8182999999999936</v>
       </c>
       <c r="AO26" s="4">
-        <f t="shared" si="1"/>
+        <f>T26-(O26+J26)</f>
         <v>-9.8949999999999818</v>
       </c>
       <c r="AP26" s="6">
         <v>-1.0900000000000001</v>
       </c>
       <c r="AQ26" s="4">
-        <f t="shared" si="2"/>
+        <f>AN26-AP26</f>
         <v>-8.7282999999999937</v>
       </c>
       <c r="AR26" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ26^2</f>
         <v>76.183220889999888</v>
       </c>
       <c r="AS26" s="4">
-        <f t="shared" si="4"/>
+        <f>AO26-AP26</f>
         <v>-8.804999999999982</v>
       </c>
     </row>
@@ -12357,26 +12481,26 @@
         <v>5.8967999999999998</v>
       </c>
       <c r="AN27" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y27+U27)-((AD27+K27)+(AI27+P27))</f>
         <v>-14.925299999999993</v>
       </c>
       <c r="AO27" s="4">
-        <f t="shared" si="1"/>
+        <f>T27-(O27+J27)</f>
         <v>-14.030700000000024</v>
       </c>
       <c r="AP27" s="6">
         <v>-2.17</v>
       </c>
       <c r="AQ27" s="4">
-        <f t="shared" si="2"/>
+        <f>AN27-AP27</f>
         <v>-12.755299999999993</v>
       </c>
       <c r="AR27" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ27^2</f>
         <v>162.69767808999981</v>
       </c>
       <c r="AS27" s="4">
-        <f t="shared" si="4"/>
+        <f>AO27-AP27</f>
         <v>-11.860700000000024</v>
       </c>
     </row>
@@ -12499,26 +12623,26 @@
         <v>5.9642999999999997</v>
       </c>
       <c r="AN28" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y28+U28)-((AD28+K28)+(AI28+P28))</f>
         <v>-13.955399999999997</v>
       </c>
       <c r="AO28" s="4">
-        <f t="shared" si="1"/>
+        <f>T28-(O28+J28)</f>
         <v>-13.839200000000005</v>
       </c>
       <c r="AP28" s="6">
         <v>-2.96</v>
       </c>
       <c r="AQ28" s="4">
-        <f t="shared" si="2"/>
+        <f>AN28-AP28</f>
         <v>-10.995399999999997</v>
       </c>
       <c r="AR28" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ28^2</f>
         <v>120.89882115999993</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" si="4"/>
+        <f>AO28-AP28</f>
         <v>-10.879200000000004</v>
       </c>
     </row>
@@ -12641,26 +12765,26 @@
         <v>5.9349999999999996</v>
       </c>
       <c r="AN29" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y29+U29)-((AD29+K29)+(AI29+P29))</f>
         <v>-5.0058999999999685</v>
       </c>
       <c r="AO29" s="4">
-        <f t="shared" si="1"/>
+        <f>T29-(O29+J29)</f>
         <v>-5.6736999999999398</v>
       </c>
       <c r="AP29" s="6">
         <v>1.89</v>
       </c>
       <c r="AQ29" s="4">
-        <f t="shared" si="2"/>
+        <f>AN29-AP29</f>
         <v>-6.8958999999999682</v>
       </c>
       <c r="AR29" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ29^2</f>
         <v>47.55343680999956</v>
       </c>
       <c r="AS29" s="4">
-        <f t="shared" si="4"/>
+        <f>AO29-AP29</f>
         <v>-7.5636999999999395</v>
       </c>
     </row>
@@ -12783,26 +12907,26 @@
         <v>5.8433000000000002</v>
       </c>
       <c r="AN30" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y30+U30)-((AD30+K30)+(AI30+P30))</f>
         <v>-11.146199999999993</v>
       </c>
       <c r="AO30" s="4">
-        <f t="shared" si="1"/>
+        <f>T30-(O30+J30)</f>
         <v>-11.035399999999981</v>
       </c>
       <c r="AP30" s="6">
         <v>0.42</v>
       </c>
       <c r="AQ30" s="4">
-        <f t="shared" si="2"/>
+        <f>AN30-AP30</f>
         <v>-11.566199999999993</v>
       </c>
       <c r="AR30" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ30^2</f>
         <v>133.77698243999984</v>
       </c>
       <c r="AS30" s="4">
-        <f t="shared" si="4"/>
+        <f>AO30-AP30</f>
         <v>-11.455399999999981</v>
       </c>
     </row>
@@ -12925,26 +13049,26 @@
         <v>5.8573000000000004</v>
       </c>
       <c r="AN31" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y31+U31)-((AD31+K31)+(AI31+P31))</f>
         <v>-6.3048999999999751</v>
       </c>
       <c r="AO31" s="4">
-        <f t="shared" si="1"/>
+        <f>T31-(O31+J31)</f>
         <v>-6.9106999999999061</v>
       </c>
       <c r="AP31" s="6">
         <v>-2.5099999999999998</v>
       </c>
       <c r="AQ31" s="4">
-        <f t="shared" si="2"/>
+        <f>AN31-AP31</f>
         <v>-3.7948999999999753</v>
       </c>
       <c r="AR31" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ31^2</f>
         <v>14.401266009999812</v>
       </c>
       <c r="AS31" s="4">
-        <f t="shared" si="4"/>
+        <f>AO31-AP31</f>
         <v>-4.4006999999999064</v>
       </c>
     </row>
@@ -13067,26 +13191,26 @@
         <v>5.9405000000000001</v>
       </c>
       <c r="AN32" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y32+U32)-((AD32+K32)+(AI32+P32))</f>
         <v>-8.4523000000000366</v>
       </c>
       <c r="AO32" s="4">
-        <f t="shared" si="1"/>
+        <f>T32-(O32+J32)</f>
         <v>-10.615699999999947</v>
       </c>
       <c r="AP32" s="6">
         <v>-1.79</v>
       </c>
       <c r="AQ32" s="4">
-        <f t="shared" si="2"/>
+        <f>AN32-AP32</f>
         <v>-6.6623000000000365</v>
       </c>
       <c r="AR32" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ32^2</f>
         <v>44.386241290000484</v>
       </c>
       <c r="AS32" s="4">
-        <f t="shared" si="4"/>
+        <f>AO32-AP32</f>
         <v>-8.8256999999999479</v>
       </c>
     </row>
@@ -13209,26 +13333,26 @@
         <v>5.9297000000000004</v>
       </c>
       <c r="AN33" s="6">
-        <f t="shared" si="0"/>
+        <f>(Y33+U33)-((AD33+K33)+(AI33+P33))</f>
         <v>-11.783499999999975</v>
       </c>
       <c r="AO33" s="4">
-        <f t="shared" si="1"/>
+        <f>T33-(O33+J33)</f>
         <v>-11.717699999999923</v>
       </c>
       <c r="AP33" s="6">
         <v>-2.89</v>
       </c>
       <c r="AQ33" s="4">
-        <f t="shared" si="2"/>
+        <f>AN33-AP33</f>
         <v>-8.8934999999999746</v>
       </c>
       <c r="AR33" s="4">
-        <f t="shared" si="3"/>
+        <f>AQ33^2</f>
         <v>79.094342249999542</v>
       </c>
       <c r="AS33" s="4">
-        <f t="shared" si="4"/>
+        <f>AO33-AP33</f>
         <v>-8.8276999999999219</v>
       </c>
     </row>
@@ -13351,26 +13475,26 @@
         <v>5.9691999999999998</v>
       </c>
       <c r="AN34" s="6">
-        <f t="shared" ref="AN34:AN68" si="5">(Y34+U34)-((AD34+K34)+(AI34+P34))</f>
+        <f>(Y34+U34)-((AD34+K34)+(AI34+P34))</f>
         <v>-8.0108999999999924</v>
       </c>
       <c r="AO34" s="4">
-        <f t="shared" ref="AO34:AO68" si="6">T34-(O34+J34)</f>
+        <f>T34-(O34+J34)</f>
         <v>-8.0243000000000393</v>
       </c>
       <c r="AP34" s="6">
         <v>-1.96</v>
       </c>
       <c r="AQ34" s="4">
-        <f t="shared" ref="AQ34:AQ68" si="7">AN34-AP34</f>
+        <f>AN34-AP34</f>
         <v>-6.0508999999999924</v>
       </c>
       <c r="AR34" s="4">
-        <f t="shared" ref="AR34:AR63" si="8">AQ34^2</f>
+        <f>AQ34^2</f>
         <v>36.613390809999906</v>
       </c>
       <c r="AS34" s="4">
-        <f t="shared" ref="AS34:AS63" si="9">AO34-AP34</f>
+        <f>AO34-AP34</f>
         <v>-6.0643000000000393</v>
       </c>
     </row>
@@ -13493,26 +13617,26 @@
         <v>5.8060999999999998</v>
       </c>
       <c r="AN35" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y35+U35)-((AD35+K35)+(AI35+P35))</f>
         <v>-16.223900000000015</v>
       </c>
       <c r="AO35" s="4">
-        <f t="shared" si="6"/>
+        <f>T35-(O35+J35)</f>
         <v>-13.621700000000033</v>
       </c>
       <c r="AP35" s="6">
         <v>-2.82</v>
       </c>
       <c r="AQ35" s="4">
-        <f t="shared" si="7"/>
+        <f>AN35-AP35</f>
         <v>-13.403900000000014</v>
       </c>
       <c r="AR35" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ35^2</f>
         <v>179.66453521000039</v>
       </c>
       <c r="AS35" s="4">
-        <f t="shared" si="9"/>
+        <f>AO35-AP35</f>
         <v>-10.801700000000032</v>
       </c>
     </row>
@@ -13635,26 +13759,26 @@
         <v>5.9852999999999996</v>
       </c>
       <c r="AN36" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y36+U36)-((AD36+K36)+(AI36+P36))</f>
         <v>-6.2876000000000261</v>
       </c>
       <c r="AO36" s="4">
-        <f t="shared" si="6"/>
+        <f>T36-(O36+J36)</f>
         <v>-4.9225000000000136</v>
       </c>
       <c r="AP36" s="6">
         <v>0.47</v>
       </c>
       <c r="AQ36" s="4">
-        <f t="shared" si="7"/>
+        <f>AN36-AP36</f>
         <v>-6.7576000000000258</v>
       </c>
       <c r="AR36" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ36^2</f>
         <v>45.665157760000348</v>
       </c>
       <c r="AS36" s="4">
-        <f t="shared" si="9"/>
+        <f>AO36-AP36</f>
         <v>-5.3925000000000134</v>
       </c>
     </row>
@@ -13777,26 +13901,26 @@
         <v>5.9335000000000004</v>
       </c>
       <c r="AN37" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y37+U37)-((AD37+K37)+(AI37+P37))</f>
         <v>-4.8564999999999827</v>
       </c>
       <c r="AO37" s="4">
-        <f t="shared" si="6"/>
+        <f>T37-(O37+J37)</f>
         <v>-5.9461999999999762</v>
       </c>
       <c r="AP37" s="6">
         <v>0.88</v>
       </c>
       <c r="AQ37" s="4">
-        <f t="shared" si="7"/>
+        <f>AN37-AP37</f>
         <v>-5.7364999999999826</v>
       </c>
       <c r="AR37" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ37^2</f>
         <v>32.9074322499998</v>
       </c>
       <c r="AS37" s="4">
-        <f t="shared" si="9"/>
+        <f>AO37-AP37</f>
         <v>-6.8261999999999761</v>
       </c>
     </row>
@@ -13919,26 +14043,26 @@
         <v>5.9482999999999997</v>
       </c>
       <c r="AN38" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y38+U38)-((AD38+K38)+(AI38+P38))</f>
         <v>-13.800299999999993</v>
       </c>
       <c r="AO38" s="4">
-        <f t="shared" si="6"/>
+        <f>T38-(O38+J38)</f>
         <v>-12.992799999999988</v>
       </c>
       <c r="AP38" s="6">
         <v>-2.29</v>
       </c>
       <c r="AQ38" s="4">
-        <f t="shared" si="7"/>
+        <f>AN38-AP38</f>
         <v>-11.510299999999994</v>
       </c>
       <c r="AR38" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ38^2</f>
         <v>132.48700608999985</v>
       </c>
       <c r="AS38" s="4">
-        <f t="shared" si="9"/>
+        <f>AO38-AP38</f>
         <v>-10.702799999999989</v>
       </c>
     </row>
@@ -14061,26 +14185,26 @@
         <v>5.8827999999999996</v>
       </c>
       <c r="AN39" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y39+U39)-((AD39+K39)+(AI39+P39))</f>
         <v>-12.635399999999976</v>
       </c>
       <c r="AO39" s="4">
-        <f t="shared" si="6"/>
+        <f>T39-(O39+J39)</f>
         <v>-10.842399999999998</v>
       </c>
       <c r="AP39" s="6">
         <v>-2.27</v>
       </c>
       <c r="AQ39" s="4">
-        <f t="shared" si="7"/>
+        <f>AN39-AP39</f>
         <v>-10.365399999999976</v>
       </c>
       <c r="AR39" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ39^2</f>
         <v>107.44151715999951</v>
       </c>
       <c r="AS39" s="4">
-        <f t="shared" si="9"/>
+        <f>AO39-AP39</f>
         <v>-8.5723999999999982</v>
       </c>
     </row>
@@ -14203,26 +14327,26 @@
         <v>5.9619999999999997</v>
       </c>
       <c r="AN40" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y40+U40)-((AD40+K40)+(AI40+P40))</f>
         <v>-18.18210000000002</v>
       </c>
       <c r="AO40" s="4">
-        <f t="shared" si="6"/>
+        <f>T40-(O40+J40)</f>
         <v>-17.39260000000013</v>
       </c>
       <c r="AP40" s="6">
         <v>-3.92</v>
       </c>
       <c r="AQ40" s="4">
-        <f t="shared" si="7"/>
+        <f>AN40-AP40</f>
         <v>-14.26210000000002</v>
       </c>
       <c r="AR40" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ40^2</f>
         <v>203.40749641000056</v>
       </c>
       <c r="AS40" s="4">
-        <f t="shared" si="9"/>
+        <f>AO40-AP40</f>
         <v>-13.47260000000013</v>
       </c>
     </row>
@@ -14345,26 +14469,26 @@
         <v>5.9329000000000001</v>
       </c>
       <c r="AN41" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y41+U41)-((AD41+K41)+(AI41+P41))</f>
         <v>-6.9247000000000014</v>
       </c>
       <c r="AO41" s="4">
-        <f t="shared" si="6"/>
+        <f>T41-(O41+J41)</f>
         <v>-7.1435999999999922</v>
       </c>
       <c r="AP41" s="6">
         <v>1.31</v>
       </c>
       <c r="AQ41" s="4">
-        <f t="shared" si="7"/>
+        <f>AN41-AP41</f>
         <v>-8.2347000000000019</v>
       </c>
       <c r="AR41" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ41^2</f>
         <v>67.810284090000025</v>
       </c>
       <c r="AS41" s="4">
-        <f t="shared" si="9"/>
+        <f>AO41-AP41</f>
         <v>-8.4535999999999927</v>
       </c>
     </row>
@@ -14487,26 +14611,26 @@
         <v>5.8441000000000001</v>
       </c>
       <c r="AN42" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y42+U42)-((AD42+K42)+(AI42+P42))</f>
         <v>-10.939300000000003</v>
       </c>
       <c r="AO42" s="4">
-        <f t="shared" si="6"/>
+        <f>T42-(O42+J42)</f>
         <v>-10.276299999999992</v>
       </c>
       <c r="AP42" s="6">
         <v>-2.75</v>
       </c>
       <c r="AQ42" s="4">
-        <f t="shared" si="7"/>
+        <f>AN42-AP42</f>
         <v>-8.1893000000000029</v>
       </c>
       <c r="AR42" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ42^2</f>
         <v>67.064634490000046</v>
       </c>
       <c r="AS42" s="4">
-        <f t="shared" si="9"/>
+        <f>AO42-AP42</f>
         <v>-7.526299999999992</v>
       </c>
     </row>
@@ -14629,26 +14753,26 @@
         <v>5.9009</v>
       </c>
       <c r="AN43" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y43+U43)-((AD43+K43)+(AI43+P43))</f>
         <v>-8.7254000000000076</v>
       </c>
       <c r="AO43" s="4">
-        <f t="shared" si="6"/>
+        <f>T43-(O43+J43)</f>
         <v>-9.0150999999999613</v>
       </c>
       <c r="AP43" s="6">
         <v>-2.93</v>
       </c>
       <c r="AQ43" s="4">
-        <f t="shared" si="7"/>
+        <f>AN43-AP43</f>
         <v>-5.7954000000000079</v>
       </c>
       <c r="AR43" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ43^2</f>
         <v>33.586661160000091</v>
       </c>
       <c r="AS43" s="4">
-        <f t="shared" si="9"/>
+        <f>AO43-AP43</f>
         <v>-6.0850999999999615</v>
       </c>
     </row>
@@ -14771,26 +14895,26 @@
         <v>5.883</v>
       </c>
       <c r="AN44" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y44+U44)-((AD44+K44)+(AI44+P44))</f>
         <v>-14.957400000000007</v>
       </c>
       <c r="AO44" s="4">
-        <f t="shared" si="6"/>
+        <f>T44-(O44+J44)</f>
         <v>-13.537900000000036</v>
       </c>
       <c r="AP44" s="6">
         <v>-2.25</v>
       </c>
       <c r="AQ44" s="4">
-        <f t="shared" si="7"/>
+        <f>AN44-AP44</f>
         <v>-12.707400000000007</v>
       </c>
       <c r="AR44" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ44^2</f>
         <v>161.47801476000018</v>
       </c>
       <c r="AS44" s="4">
-        <f t="shared" si="9"/>
+        <f>AO44-AP44</f>
         <v>-11.287900000000036</v>
       </c>
     </row>
@@ -14913,26 +15037,26 @@
         <v>8.5547000000000004</v>
       </c>
       <c r="AN45" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y45+U45)-((AD45+K45)+(AI45+P45))</f>
         <v>-12.082199999999943</v>
       </c>
       <c r="AO45" s="4">
-        <f t="shared" si="6"/>
+        <f>T45-(O45+J45)</f>
         <v>-10.400399999999991</v>
       </c>
       <c r="AP45" s="6">
         <v>-9.9610000000000003</v>
       </c>
       <c r="AQ45" s="4">
-        <f t="shared" si="7"/>
+        <f>AN45-AP45</f>
         <v>-2.1211999999999431</v>
       </c>
       <c r="AR45" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ45^2</f>
         <v>4.4994894399997589</v>
       </c>
       <c r="AS45" s="4">
-        <f t="shared" si="9"/>
+        <f>AO45-AP45</f>
         <v>-0.43939999999999024</v>
       </c>
     </row>
@@ -15055,26 +15179,26 @@
         <v>8.5681999999999992</v>
       </c>
       <c r="AN46" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y46+U46)-((AD46+K46)+(AI46+P46))</f>
         <v>-14.964399999999955</v>
       </c>
       <c r="AO46" s="4">
-        <f t="shared" si="6"/>
+        <f>T46-(O46+J46)</f>
         <v>-12.048399999999901</v>
       </c>
       <c r="AP46" s="6">
         <v>-9.1</v>
       </c>
       <c r="AQ46" s="4">
-        <f t="shared" si="7"/>
+        <f>AN46-AP46</f>
         <v>-5.8643999999999554</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ46^2</f>
         <v>34.391187359999478</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" si="9"/>
+        <f>AO46-AP46</f>
         <v>-2.9483999999999018</v>
       </c>
     </row>
@@ -15197,26 +15321,26 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="AN47" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y47+U47)-((AD47+K47)+(AI47+P47))</f>
         <v>-9.9968000000000075</v>
       </c>
       <c r="AO47" s="4">
-        <f t="shared" si="6"/>
+        <f>T47-(O47+J47)</f>
         <v>-8.206000000000131</v>
       </c>
       <c r="AP47" s="6">
         <v>-7.6</v>
       </c>
       <c r="AQ47" s="4">
-        <f t="shared" si="7"/>
+        <f>AN47-AP47</f>
         <v>-2.3968000000000078</v>
       </c>
       <c r="AR47" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ47^2</f>
         <v>5.7446502400000377</v>
       </c>
       <c r="AS47" s="4">
-        <f t="shared" si="9"/>
+        <f>AO47-AP47</f>
         <v>-0.60600000000013132</v>
       </c>
     </row>
@@ -15339,26 +15463,26 @@
         <v>8.6836000000000002</v>
       </c>
       <c r="AN48" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y48+U48)-((AD48+K48)+(AI48+P48))</f>
         <v>-20.852200000000039</v>
       </c>
       <c r="AO48" s="4">
-        <f t="shared" si="6"/>
+        <f>T48-(O48+J48)</f>
         <v>-17.612799999999879</v>
       </c>
       <c r="AP48" s="6">
         <v>-6.62</v>
       </c>
       <c r="AQ48" s="4">
-        <f t="shared" si="7"/>
+        <f>AN48-AP48</f>
         <v>-14.232200000000038</v>
       </c>
       <c r="AR48" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ48^2</f>
         <v>202.55551684000108</v>
       </c>
       <c r="AS48" s="4">
-        <f t="shared" si="9"/>
+        <f>AO48-AP48</f>
         <v>-10.992799999999878</v>
       </c>
     </row>
@@ -15481,26 +15605,26 @@
         <v>8.4765999999999995</v>
       </c>
       <c r="AN49" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y49+U49)-((AD49+K49)+(AI49+P49))</f>
         <v>-13.271799999999985</v>
       </c>
       <c r="AO49" s="4">
-        <f t="shared" si="6"/>
+        <f>T49-(O49+J49)</f>
         <v>-11.71040000000005</v>
       </c>
       <c r="AP49" s="6">
         <v>-7.71</v>
       </c>
       <c r="AQ49" s="4">
-        <f t="shared" si="7"/>
+        <f>AN49-AP49</f>
         <v>-5.5617999999999848</v>
       </c>
       <c r="AR49" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ49^2</f>
         <v>30.933619239999832</v>
       </c>
       <c r="AS49" s="4">
-        <f t="shared" si="9"/>
+        <f>AO49-AP49</f>
         <v>-4.0004000000000497</v>
       </c>
     </row>
@@ -15623,26 +15747,26 @@
         <v>8.4456000000000007</v>
       </c>
       <c r="AN50" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y50+U50)-((AD50+K50)+(AI50+P50))</f>
         <v>-12.946899999999914</v>
       </c>
       <c r="AO50" s="4">
-        <f t="shared" si="6"/>
+        <f>T50-(O50+J50)</f>
         <v>-11.727399999999989</v>
       </c>
       <c r="AP50" s="6">
         <v>-5.67</v>
       </c>
       <c r="AQ50" s="4">
-        <f t="shared" si="7"/>
+        <f>AN50-AP50</f>
         <v>-7.2768999999999142</v>
       </c>
       <c r="AR50" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ50^2</f>
         <v>52.953273609998753</v>
       </c>
       <c r="AS50" s="4">
-        <f t="shared" si="9"/>
+        <f>AO50-AP50</f>
         <v>-6.0573999999999888</v>
       </c>
     </row>
@@ -15765,26 +15889,26 @@
         <v>8.5954999999999995</v>
       </c>
       <c r="AN51" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y51+U51)-((AD51+K51)+(AI51+P51))</f>
         <v>-9.4666999999999462</v>
       </c>
       <c r="AO51" s="4">
-        <f t="shared" si="6"/>
+        <f>T51-(O51+J51)</f>
         <v>-7.1363999999999805</v>
       </c>
       <c r="AP51" s="6">
         <v>-4.45</v>
       </c>
       <c r="AQ51" s="4">
-        <f t="shared" si="7"/>
+        <f>AN51-AP51</f>
         <v>-5.016699999999946</v>
       </c>
       <c r="AR51" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ51^2</f>
         <v>25.167278889999459</v>
       </c>
       <c r="AS51" s="4">
-        <f t="shared" si="9"/>
+        <f>AO51-AP51</f>
         <v>-2.6863999999999804</v>
       </c>
     </row>
@@ -15907,26 +16031,26 @@
         <v>8.5130999999999997</v>
       </c>
       <c r="AN52" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y52+U52)-((AD52+K52)+(AI52+P52))</f>
         <v>-16.228399999999965</v>
       </c>
       <c r="AO52" s="4">
-        <f t="shared" si="6"/>
+        <f>T52-(O52+J52)</f>
         <v>-15.700900000000047</v>
       </c>
       <c r="AP52" s="6">
         <v>-14.78</v>
       </c>
       <c r="AQ52" s="4">
-        <f t="shared" si="7"/>
+        <f>AN52-AP52</f>
         <v>-1.4483999999999657</v>
       </c>
       <c r="AR52" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ52^2</f>
         <v>2.0978625599999008</v>
       </c>
       <c r="AS52" s="4">
-        <f t="shared" si="9"/>
+        <f>AO52-AP52</f>
         <v>-0.92090000000004757</v>
       </c>
     </row>
@@ -16049,26 +16173,26 @@
         <v>8.4751999999999992</v>
       </c>
       <c r="AN53" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y53+U53)-((AD53+K53)+(AI53+P53))</f>
         <v>-17.908900000000017</v>
       </c>
       <c r="AO53" s="4">
-        <f t="shared" si="6"/>
+        <f>T53-(O53+J53)</f>
         <v>-15.748200000000111</v>
       </c>
       <c r="AP53" s="6">
         <v>-5.91</v>
       </c>
       <c r="AQ53" s="4">
-        <f t="shared" si="7"/>
+        <f>AN53-AP53</f>
         <v>-11.998900000000017</v>
       </c>
       <c r="AR53" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ53^2</f>
         <v>143.9736012100004</v>
       </c>
       <c r="AS53" s="4">
-        <f t="shared" si="9"/>
+        <f>AO53-AP53</f>
         <v>-9.8382000000001106</v>
       </c>
     </row>
@@ -16191,26 +16315,26 @@
         <v>8.5703999999999994</v>
       </c>
       <c r="AN54" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y54+U54)-((AD54+K54)+(AI54+P54))</f>
         <v>-19.87360000000001</v>
       </c>
       <c r="AO54" s="4">
-        <f t="shared" si="6"/>
+        <f>T54-(O54+J54)</f>
         <v>-17.373299999999972</v>
       </c>
       <c r="AP54" s="6">
         <v>-9.9600000000000009</v>
       </c>
       <c r="AQ54" s="4">
-        <f t="shared" si="7"/>
+        <f>AN54-AP54</f>
         <v>-9.9136000000000095</v>
       </c>
       <c r="AR54" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ54^2</f>
         <v>98.279464960000183</v>
       </c>
       <c r="AS54" s="4">
-        <f t="shared" si="9"/>
+        <f>AO54-AP54</f>
         <v>-7.4132999999999711</v>
       </c>
     </row>
@@ -16333,26 +16457,26 @@
         <v>8.3657000000000004</v>
       </c>
       <c r="AN55" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y55+U55)-((AD55+K55)+(AI55+P55))</f>
         <v>-10.017799999999966</v>
       </c>
       <c r="AO55" s="4">
-        <f t="shared" si="6"/>
+        <f>T55-(O55+J55)</f>
         <v>-9.1763000000000829</v>
       </c>
       <c r="AP55" s="4">
         <v>-7.69</v>
       </c>
       <c r="AQ55" s="4">
-        <f t="shared" si="7"/>
+        <f>AN55-AP55</f>
         <v>-2.3277999999999652</v>
       </c>
       <c r="AR55" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ55^2</f>
         <v>5.4186528399998384</v>
       </c>
       <c r="AS55" s="4">
-        <f t="shared" si="9"/>
+        <f>AO55-AP55</f>
         <v>-1.4863000000000826</v>
       </c>
     </row>
@@ -16475,26 +16599,26 @@
         <v>8.3838000000000008</v>
       </c>
       <c r="AN56" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y56+U56)-((AD56+K56)+(AI56+P56))</f>
         <v>-9.221599999999853</v>
       </c>
       <c r="AO56" s="4">
-        <f t="shared" si="6"/>
+        <f>T56-(O56+J56)</f>
         <v>-7.4032000000000835</v>
       </c>
       <c r="AP56" s="4">
         <v>-4.3899999999999997</v>
       </c>
       <c r="AQ56" s="4">
-        <f t="shared" si="7"/>
+        <f>AN56-AP56</f>
         <v>-4.8315999999998533</v>
       </c>
       <c r="AR56" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ56^2</f>
         <v>23.344358559998582</v>
       </c>
       <c r="AS56" s="4">
-        <f t="shared" si="9"/>
+        <f>AO56-AP56</f>
         <v>-3.0132000000000838</v>
       </c>
     </row>
@@ -16617,26 +16741,26 @@
         <v>8.3998000000000008</v>
       </c>
       <c r="AN57" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y57+U57)-((AD57+K57)+(AI57+P57))</f>
         <v>-21.213699999999903</v>
       </c>
       <c r="AO57" s="4">
-        <f t="shared" si="6"/>
+        <f>T57-(O57+J57)</f>
         <v>-17.778600000000097</v>
       </c>
       <c r="AP57" s="4">
         <v>-5.93</v>
       </c>
       <c r="AQ57" s="4">
-        <f t="shared" si="7"/>
+        <f>AN57-AP57</f>
         <v>-15.283699999999904</v>
       </c>
       <c r="AR57" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ57^2</f>
         <v>233.59148568999706</v>
       </c>
       <c r="AS57" s="4">
-        <f t="shared" si="9"/>
+        <f>AO57-AP57</f>
         <v>-11.848600000000097</v>
       </c>
     </row>
@@ -16759,26 +16883,26 @@
         <v>8.3952000000000009</v>
       </c>
       <c r="AN58" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y58+U58)-((AD58+K58)+(AI58+P58))</f>
         <v>-20.824500000000057</v>
       </c>
       <c r="AO58" s="4">
-        <f t="shared" si="6"/>
+        <f>T58-(O58+J58)</f>
         <v>-18.650399999999991</v>
       </c>
       <c r="AP58" s="4">
         <v>-14.8</v>
       </c>
       <c r="AQ58" s="4">
-        <f t="shared" si="7"/>
+        <f>AN58-AP58</f>
         <v>-6.0245000000000566</v>
       </c>
       <c r="AR58" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ58^2</f>
         <v>36.294600250000684</v>
       </c>
       <c r="AS58" s="4">
-        <f t="shared" si="9"/>
+        <f>AO58-AP58</f>
         <v>-3.8503999999999898</v>
       </c>
     </row>
@@ -16901,26 +17025,26 @@
         <v>8.3994999999999997</v>
       </c>
       <c r="AN59" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y59+U59)-((AD59+K59)+(AI59+P59))</f>
         <v>-18.569799999999987</v>
       </c>
       <c r="AO59" s="4">
-        <f t="shared" si="6"/>
+        <f>T59-(O59+J59)</f>
         <v>-15.46449999999993</v>
       </c>
       <c r="AP59" s="4">
         <v>-9.9</v>
       </c>
       <c r="AQ59" s="4">
-        <f t="shared" si="7"/>
+        <f>AN59-AP59</f>
         <v>-8.6697999999999862</v>
       </c>
       <c r="AR59" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ59^2</f>
         <v>75.165432039999757</v>
       </c>
       <c r="AS59" s="4">
-        <f t="shared" si="9"/>
+        <f>AO59-AP59</f>
         <v>-5.5644999999999296</v>
       </c>
     </row>
@@ -17043,26 +17167,26 @@
         <v>8.3998000000000008</v>
       </c>
       <c r="AN60" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y60+U60)-((AD60+K60)+(AI60+P60))</f>
         <v>-6.6464999999999463</v>
       </c>
       <c r="AO60" s="4">
-        <f t="shared" si="6"/>
+        <f>T60-(O60+J60)</f>
         <v>-5.9977999999999838</v>
       </c>
       <c r="AP60" s="4">
         <v>-5.67</v>
       </c>
       <c r="AQ60" s="4">
-        <f t="shared" si="7"/>
+        <f>AN60-AP60</f>
         <v>-0.97649999999994641</v>
       </c>
       <c r="AR60" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ60^2</f>
         <v>0.9535522499998953</v>
       </c>
       <c r="AS60" s="4">
-        <f t="shared" si="9"/>
+        <f>AO60-AP60</f>
         <v>-0.32779999999998388</v>
       </c>
     </row>
@@ -17185,26 +17309,26 @@
         <v>8.6559000000000008</v>
       </c>
       <c r="AN61" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y61+U61)-((AD61+K61)+(AI61+P61))</f>
         <v>-9.0234000000000378</v>
       </c>
       <c r="AO61" s="4">
-        <f t="shared" si="6"/>
+        <f>T61-(O61+J61)</f>
         <v>-7.5770999999999731</v>
       </c>
       <c r="AP61" s="4">
         <v>-9.9600000000000009</v>
       </c>
       <c r="AQ61" s="4">
-        <f t="shared" si="7"/>
+        <f>AN61-AP61</f>
         <v>0.93659999999996302</v>
       </c>
       <c r="AR61" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ61^2</f>
         <v>0.87721955999993073</v>
       </c>
       <c r="AS61" s="4">
-        <f t="shared" si="9"/>
+        <f>AO61-AP61</f>
         <v>2.3829000000000278</v>
       </c>
     </row>
@@ -17327,26 +17451,26 @@
         <v>8.6312999999999995</v>
       </c>
       <c r="AN62" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y62+U62)-((AD62+K62)+(AI62+P62))</f>
         <v>-2.3246000000000322</v>
       </c>
       <c r="AO62" s="4">
-        <f t="shared" si="6"/>
+        <f>T62-(O62+J62)</f>
         <v>-4.5299999999997453E-2</v>
       </c>
       <c r="AP62" s="4">
         <v>-7.56</v>
       </c>
       <c r="AQ62" s="4">
-        <f t="shared" si="7"/>
+        <f>AN62-AP62</f>
         <v>5.2353999999999674</v>
       </c>
       <c r="AR62" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ62^2</f>
         <v>27.409413159999659</v>
       </c>
       <c r="AS62" s="4">
-        <f t="shared" si="9"/>
+        <f>AO62-AP62</f>
         <v>7.5147000000000022</v>
       </c>
     </row>
@@ -17469,43 +17593,1480 @@
         <v>8.6821000000000002</v>
       </c>
       <c r="AN63" s="6">
-        <f t="shared" si="5"/>
+        <f>(Y63+U63)-((AD63+K63)+(AI63+P63))</f>
         <v>-7.2354000000000269</v>
       </c>
       <c r="AO63" s="4">
-        <f t="shared" si="6"/>
+        <f>T63-(O63+J63)</f>
         <v>-4.4827999999999975</v>
       </c>
       <c r="AP63" s="4">
         <v>-9.0500000000000007</v>
       </c>
       <c r="AQ63" s="4">
-        <f t="shared" si="7"/>
+        <f>AN63-AP63</f>
         <v>1.8145999999999738</v>
       </c>
       <c r="AR63" s="4">
-        <f t="shared" si="8"/>
+        <f>AQ63^2</f>
         <v>3.2927731599999048</v>
       </c>
       <c r="AS63" s="4">
-        <f t="shared" si="9"/>
+        <f>AO63-AP63</f>
         <v>4.5672000000000033</v>
       </c>
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="AN64" s="6"/>
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="20">
+        <v>-4.97</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" s="20">
+        <v>-5.3</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64" s="21">
+        <v>-68.554299999999998</v>
+      </c>
+      <c r="K64" s="21">
+        <v>8.0510999999999999</v>
+      </c>
+      <c r="L64" s="21">
+        <v>-0.2944</v>
+      </c>
+      <c r="M64" s="21">
+        <v>-77.853099999999998</v>
+      </c>
+      <c r="N64" s="21">
+        <v>1.5421</v>
+      </c>
+      <c r="O64" s="21">
+        <v>-899.07370000000003</v>
+      </c>
+      <c r="P64" s="21">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R64" s="21">
+        <v>-1403.8171</v>
+      </c>
+      <c r="S64" s="21">
+        <v>8.3316999999999997</v>
+      </c>
+      <c r="T64" s="21">
+        <v>-968.8175</v>
+      </c>
+      <c r="U64" s="21">
+        <v>-52.620600000000003</v>
+      </c>
+      <c r="V64" s="21">
+        <v>787.34310000000005</v>
+      </c>
+      <c r="W64" s="21">
+        <v>-1711.5733</v>
+      </c>
+      <c r="X64" s="21">
+        <v>8.0334000000000003</v>
+      </c>
+      <c r="Y64" s="21">
+        <v>-868.28689999999995</v>
+      </c>
+      <c r="Z64" s="21">
+        <v>64.058700000000002</v>
+      </c>
+      <c r="AA64" s="21">
+        <v>787.34310000000005</v>
+      </c>
+      <c r="AB64" s="21">
+        <v>-1727.7221</v>
+      </c>
+      <c r="AC64" s="21">
+        <v>8.0334000000000003</v>
+      </c>
+      <c r="AD64" s="21">
+        <v>-80.156400000000005</v>
+      </c>
+      <c r="AE64" s="21">
+        <v>-1.3396999999999999</v>
+      </c>
+      <c r="AF64" s="21">
+        <v>-0.2944</v>
+      </c>
+      <c r="AG64" s="21">
+        <v>-80.064300000000003</v>
+      </c>
+      <c r="AH64" s="21">
+        <v>1.5421</v>
+      </c>
+      <c r="AI64" s="21">
+        <v>-806.3356</v>
+      </c>
+      <c r="AJ64" s="21">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK64" s="21">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL64" s="21">
+        <v>-1415.4115999999999</v>
+      </c>
+      <c r="AM64" s="21">
+        <v>8.3316999999999997</v>
+      </c>
+      <c r="AN64" s="6">
+        <f>(Y64+U64)-((AD64+K64)+(AI64+P64))</f>
+        <v>-3.5323999999999387</v>
+      </c>
+      <c r="AO64" s="4">
+        <f>T64-(O64+J64)</f>
+        <v>-1.1894999999999527</v>
+      </c>
+      <c r="AP64" s="20">
+        <v>-5.3</v>
+      </c>
+      <c r="AQ64" s="4">
+        <f>AN64-AP64</f>
+        <v>1.7676000000000611</v>
+      </c>
+      <c r="AR64" s="4">
+        <f>AQ64^2</f>
+        <v>3.1244097600002161</v>
+      </c>
+      <c r="AS64" s="4">
+        <f>AO64-AP64</f>
+        <v>4.1105000000000471</v>
+      </c>
     </row>
-    <row r="65" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN65" s="6"/>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="20">
+        <v>-5.97</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" s="20">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" s="21">
+        <v>-97.793199999999999</v>
+      </c>
+      <c r="K65" s="21">
+        <v>-0.20019999999999999</v>
+      </c>
+      <c r="L65" s="21">
+        <v>-20.421800000000001</v>
+      </c>
+      <c r="M65" s="21">
+        <v>-78.786900000000003</v>
+      </c>
+      <c r="N65" s="21">
+        <v>1.6157999999999999</v>
+      </c>
+      <c r="O65" s="21">
+        <v>-941.16719999999998</v>
+      </c>
+      <c r="P65" s="21">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R65" s="21">
+        <v>-1336.4929</v>
+      </c>
+      <c r="S65" s="21">
+        <v>8.7114999999999991</v>
+      </c>
+      <c r="T65" s="21">
+        <v>-1046.2841000000001</v>
+      </c>
+      <c r="U65" s="21">
+        <v>-63.6693</v>
+      </c>
+      <c r="V65" s="21">
+        <v>643.95770000000005</v>
+      </c>
+      <c r="W65" s="21">
+        <v>-1634.9557</v>
+      </c>
+      <c r="X65" s="21">
+        <v>8.3832000000000004</v>
+      </c>
+      <c r="Y65" s="21">
+        <v>-863.19960000000003</v>
+      </c>
+      <c r="Z65" s="21">
+        <v>137.71600000000001</v>
+      </c>
+      <c r="AA65" s="21">
+        <v>643.95770000000005</v>
+      </c>
+      <c r="AB65" s="21">
+        <v>-1653.2565</v>
+      </c>
+      <c r="AC65" s="21">
+        <v>8.3832000000000004</v>
+      </c>
+      <c r="AD65" s="21">
+        <v>-71.981099999999998</v>
+      </c>
+      <c r="AE65" s="21">
+        <v>27.852599999999999</v>
+      </c>
+      <c r="AF65" s="21">
+        <v>-20.421800000000001</v>
+      </c>
+      <c r="AG65" s="21">
+        <v>-81.027699999999996</v>
+      </c>
+      <c r="AH65" s="21">
+        <v>1.6157999999999999</v>
+      </c>
+      <c r="AI65" s="21">
+        <v>-799.61500000000001</v>
+      </c>
+      <c r="AJ65" s="21">
+        <v>109.8633</v>
+      </c>
+      <c r="AK65" s="21">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL65" s="21">
+        <v>-1350.4146000000001</v>
+      </c>
+      <c r="AM65" s="21">
+        <v>8.7114999999999991</v>
+      </c>
+      <c r="AN65" s="6">
+        <f>(Y65+U65)-((AD65+K65)+(AI65+P65))</f>
+        <v>-9.4620000000001028</v>
+      </c>
+      <c r="AO65" s="4">
+        <f>T65-(O65+J65)</f>
+        <v>-7.3237000000001444</v>
+      </c>
+      <c r="AP65" s="20">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AQ65" s="4">
+        <f>AN65-AP65</f>
+        <v>-1.2620000000001035</v>
+      </c>
+      <c r="AR65" s="4">
+        <f>AQ65^2</f>
+        <v>1.5926440000002613</v>
+      </c>
+      <c r="AS65" s="4">
+        <f>AO65-AP65</f>
+        <v>0.87629999999985486</v>
+      </c>
     </row>
-    <row r="66" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN66" s="6"/>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="27">
+        <v>-8.18</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" s="27">
+        <v>-3.2</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J66" s="4">
+        <v>-33.807699999999997</v>
+      </c>
+      <c r="K66" s="4">
+        <v>3.9992000000000001</v>
+      </c>
+      <c r="L66" s="4">
+        <v>18.630700000000001</v>
+      </c>
+      <c r="M66" s="4">
+        <v>-58.2196</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1.7821</v>
+      </c>
+      <c r="O66" s="4">
+        <v>1499.0606</v>
+      </c>
+      <c r="P66" s="4">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R66" s="4">
+        <v>-184.46260000000001</v>
+      </c>
+      <c r="S66" s="4">
+        <v>6.2079000000000004</v>
+      </c>
+      <c r="T66" s="4">
+        <v>1446.6907000000001</v>
+      </c>
+      <c r="U66" s="4">
+        <v>-71.171599999999998</v>
+      </c>
+      <c r="V66" s="4">
+        <v>1673.5360000000001</v>
+      </c>
+      <c r="W66" s="4">
+        <v>-161.35509999999999</v>
+      </c>
+      <c r="X66" s="4">
+        <v>5.6814</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>-1314.1357</v>
+      </c>
+      <c r="Z66" s="4">
+        <v>-2834.4331000000002</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>1673.5360000000001</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>-158.91999999999999</v>
+      </c>
+      <c r="AC66" s="4">
+        <v>5.6814</v>
+      </c>
+      <c r="AD66" s="4">
+        <v>-40.371499999999997</v>
+      </c>
+      <c r="AE66" s="4">
+        <v>-1.3653999999999999</v>
+      </c>
+      <c r="AF66" s="4">
+        <v>18.630700000000001</v>
+      </c>
+      <c r="AG66" s="4">
+        <v>-59.418799999999997</v>
+      </c>
+      <c r="AH66" s="4">
+        <v>1.7821</v>
+      </c>
+      <c r="AI66" s="4">
+        <v>-1275.9704999999999</v>
+      </c>
+      <c r="AJ66" s="4">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK66" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL66" s="4">
+        <v>-176.0548</v>
+      </c>
+      <c r="AM66" s="4">
+        <v>6.2079000000000004</v>
+      </c>
+      <c r="AN66" s="6">
+        <f>(Y66+U66)-((AD66+K66)+(AI66+P66))</f>
+        <v>-23.958100000000059</v>
+      </c>
+      <c r="AO66" s="4">
+        <f>T66-(O66+J66)</f>
+        <v>-18.562199999999848</v>
+      </c>
+      <c r="AP66" s="27">
+        <v>-3.2</v>
+      </c>
+      <c r="AQ66" s="4">
+        <f>AN66-AP66</f>
+        <v>-20.758100000000059</v>
+      </c>
+      <c r="AR66" s="4">
+        <f>AQ66^2</f>
+        <v>430.89871561000245</v>
+      </c>
+      <c r="AS66" s="4">
+        <f>AO66-AP66</f>
+        <v>-15.362199999999849</v>
+      </c>
     </row>
-    <row r="67" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN67" s="6"/>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="20">
+        <v>-8.34</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" s="20">
+        <v>-5.7</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J67" s="21">
+        <v>-14.330399999999999</v>
+      </c>
+      <c r="K67" s="21">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="L67" s="21">
+        <v>44.1999</v>
+      </c>
+      <c r="M67" s="21">
+        <v>-60.835599999999999</v>
+      </c>
+      <c r="N67" s="21">
+        <v>1.5972999999999999</v>
+      </c>
+      <c r="O67" s="21">
+        <v>1499.0505000000001</v>
+      </c>
+      <c r="P67" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q67" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R67" s="21">
+        <v>-184.54329999999999</v>
+      </c>
+      <c r="S67" s="21">
+        <v>6.2785000000000002</v>
+      </c>
+      <c r="T67" s="21">
+        <v>1474.7234000000001</v>
+      </c>
+      <c r="U67" s="21">
+        <v>-73.872100000000003</v>
+      </c>
+      <c r="V67" s="21">
+        <v>1709.7378000000001</v>
+      </c>
+      <c r="W67" s="21">
+        <v>-166.91890000000001</v>
+      </c>
+      <c r="X67" s="21">
+        <v>5.7765000000000004</v>
+      </c>
+      <c r="Y67" s="21">
+        <v>-1301.8072</v>
+      </c>
+      <c r="Z67" s="21">
+        <v>-2852.8694999999998</v>
+      </c>
+      <c r="AA67" s="21">
+        <v>1709.7378000000001</v>
+      </c>
+      <c r="AB67" s="21">
+        <v>-164.452</v>
+      </c>
+      <c r="AC67" s="21">
+        <v>5.7765000000000004</v>
+      </c>
+      <c r="AD67" s="21">
+        <v>-37.0227</v>
+      </c>
+      <c r="AE67" s="21">
+        <v>-20.424199999999999</v>
+      </c>
+      <c r="AF67" s="21">
+        <v>44.1999</v>
+      </c>
+      <c r="AG67" s="21">
+        <v>-62.395699999999998</v>
+      </c>
+      <c r="AH67" s="21">
+        <v>1.5972999999999999</v>
+      </c>
+      <c r="AI67" s="21">
+        <v>-1275.1356000000001</v>
+      </c>
+      <c r="AJ67" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK67" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL67" s="21">
+        <v>-175.29060000000001</v>
+      </c>
+      <c r="AM67" s="21">
+        <v>6.2785000000000002</v>
+      </c>
+      <c r="AN67" s="6">
+        <f>(Y67+U67)-((AD67+K67)+(AI67+P67))</f>
+        <v>-15.222499999999854</v>
+      </c>
+      <c r="AO67" s="4">
+        <f>T67-(O67+J67)</f>
+        <v>-9.9966999999999189</v>
+      </c>
+      <c r="AP67" s="20">
+        <v>-5.7</v>
+      </c>
+      <c r="AQ67" s="4">
+        <f>AN67-AP67</f>
+        <v>-9.5224999999998552</v>
+      </c>
+      <c r="AR67" s="4">
+        <f>AQ67^2</f>
+        <v>90.678006249997239</v>
+      </c>
+      <c r="AS67" s="4">
+        <f>AO67-AP67</f>
+        <v>-4.2966999999999187</v>
+      </c>
     </row>
-    <row r="68" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN68" s="6"/>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="20">
+        <v>-10</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" s="20">
+        <v>-6.5</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="21">
+        <v>-17.488600000000002</v>
+      </c>
+      <c r="K68" s="21">
+        <v>1.5257000000000001</v>
+      </c>
+      <c r="L68" s="21">
+        <v>38.735900000000001</v>
+      </c>
+      <c r="M68" s="21">
+        <v>-59.436999999999998</v>
+      </c>
+      <c r="N68" s="21">
+        <v>1.6868000000000001</v>
+      </c>
+      <c r="O68" s="21">
+        <v>1499.0718999999999</v>
+      </c>
+      <c r="P68" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q68" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R68" s="21">
+        <v>-184.53120000000001</v>
+      </c>
+      <c r="S68" s="21">
+        <v>6.2877000000000001</v>
+      </c>
+      <c r="T68" s="21">
+        <v>1462.2670000000001</v>
+      </c>
+      <c r="U68" s="21">
+        <v>-75.163700000000006</v>
+      </c>
+      <c r="V68" s="21">
+        <v>1696.7623000000001</v>
+      </c>
+      <c r="W68" s="21">
+        <v>-165.1105</v>
+      </c>
+      <c r="X68" s="21">
+        <v>5.7789000000000001</v>
+      </c>
+      <c r="Y68" s="21">
+        <v>-1307.4794999999999</v>
+      </c>
+      <c r="Z68" s="21">
+        <v>-2847.9638</v>
+      </c>
+      <c r="AA68" s="21">
+        <v>1696.7623000000001</v>
+      </c>
+      <c r="AB68" s="21">
+        <v>-162.05690000000001</v>
+      </c>
+      <c r="AC68" s="21">
+        <v>5.7789000000000001</v>
+      </c>
+      <c r="AD68" s="21">
+        <v>-36.0657</v>
+      </c>
+      <c r="AE68" s="21">
+        <v>-15.5185</v>
+      </c>
+      <c r="AF68" s="21">
+        <v>38.735900000000001</v>
+      </c>
+      <c r="AG68" s="21">
+        <v>-60.969799999999999</v>
+      </c>
+      <c r="AH68" s="21">
+        <v>1.6868000000000001</v>
+      </c>
+      <c r="AI68" s="21">
+        <v>-1274.9697000000001</v>
+      </c>
+      <c r="AJ68" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK68" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL68" s="21">
+        <v>-175.13390000000001</v>
+      </c>
+      <c r="AM68" s="21">
+        <v>6.2877000000000001</v>
+      </c>
+      <c r="AN68" s="6">
+        <f>(Y68+U68)-((AD68+K68)+(AI68+P68))</f>
+        <v>-24.127099999999928</v>
+      </c>
+      <c r="AO68" s="4">
+        <f>T68-(O68+J68)</f>
+        <v>-19.316299999999956</v>
+      </c>
+      <c r="AP68" s="20">
+        <v>-6.5</v>
+      </c>
+      <c r="AQ68" s="4">
+        <f>AN68-AP68</f>
+        <v>-17.627099999999928</v>
+      </c>
+      <c r="AR68" s="4">
+        <f>AQ68^2</f>
+        <v>310.71465440999742</v>
+      </c>
+      <c r="AS68" s="4">
+        <f>AO68-AP68</f>
+        <v>-12.816299999999956</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="20">
+        <v>-13.5</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="20">
+        <v>-14.4</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J69" s="21">
+        <v>-8.2608999999999995</v>
+      </c>
+      <c r="K69" s="21">
+        <v>3.3647</v>
+      </c>
+      <c r="L69" s="21">
+        <v>45.405999999999999</v>
+      </c>
+      <c r="M69" s="21">
+        <v>-59.155200000000001</v>
+      </c>
+      <c r="N69" s="21">
+        <v>2.1236000000000002</v>
+      </c>
+      <c r="O69" s="21">
+        <v>1498.8121000000001</v>
+      </c>
+      <c r="P69" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q69" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R69" s="21">
+        <v>-184.71170000000001</v>
+      </c>
+      <c r="S69" s="21">
+        <v>6.2084000000000001</v>
+      </c>
+      <c r="T69" s="21">
+        <v>1470.6753000000001</v>
+      </c>
+      <c r="U69" s="21">
+        <v>-70.6721</v>
+      </c>
+      <c r="V69" s="21">
+        <v>1699.7389000000001</v>
+      </c>
+      <c r="W69" s="21">
+        <v>-164.07040000000001</v>
+      </c>
+      <c r="X69" s="21">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="Y69" s="21">
+        <v>-1310.0400999999999</v>
+      </c>
+      <c r="Z69" s="21">
+        <v>-2855.3382000000001</v>
+      </c>
+      <c r="AA69" s="21">
+        <v>1699.7389000000001</v>
+      </c>
+      <c r="AB69" s="21">
+        <v>-160.1198</v>
+      </c>
+      <c r="AC69" s="21">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="AD69" s="21">
+        <v>-36.012999999999998</v>
+      </c>
+      <c r="AE69" s="21">
+        <v>-22.892900000000001</v>
+      </c>
+      <c r="AF69" s="21">
+        <v>45.405999999999999</v>
+      </c>
+      <c r="AG69" s="21">
+        <v>-60.649700000000003</v>
+      </c>
+      <c r="AH69" s="21">
+        <v>2.1236000000000002</v>
+      </c>
+      <c r="AI69" s="21">
+        <v>-1275.1233999999999</v>
+      </c>
+      <c r="AJ69" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK69" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL69" s="21">
+        <v>-175.20830000000001</v>
+      </c>
+      <c r="AM69" s="21">
+        <v>6.2084000000000001</v>
+      </c>
+      <c r="AN69" s="6">
+        <f>(Y69+U69)-((AD69+K69)+(AI69+P69))</f>
+        <v>-23.934099999999944</v>
+      </c>
+      <c r="AO69" s="4">
+        <f>T69-(O69+J69)</f>
+        <v>-19.875900000000001</v>
+      </c>
+      <c r="AP69" s="20">
+        <v>-14.4</v>
+      </c>
+      <c r="AQ69" s="4">
+        <f>AN69-AP69</f>
+        <v>-9.5340999999999436</v>
+      </c>
+      <c r="AR69" s="4">
+        <f>AQ69^2</f>
+        <v>90.899062809998924</v>
+      </c>
+      <c r="AS69" s="4">
+        <f>AO69-AP69</f>
+        <v>-5.4759000000000011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="20">
+        <v>-8.68</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" s="20">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J70" s="21">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="K70" s="21">
+        <v>-0.69669999999999999</v>
+      </c>
+      <c r="L70" s="21">
+        <v>57.031799999999997</v>
+      </c>
+      <c r="M70" s="21">
+        <v>-57.902799999999999</v>
+      </c>
+      <c r="N70" s="21">
+        <v>1.6580999999999999</v>
+      </c>
+      <c r="O70" s="21">
+        <v>1499.1331</v>
+      </c>
+      <c r="P70" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q70" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R70" s="21">
+        <v>-184.40520000000001</v>
+      </c>
+      <c r="S70" s="21">
+        <v>6.2229999999999999</v>
+      </c>
+      <c r="T70" s="21">
+        <v>1487.8569</v>
+      </c>
+      <c r="U70" s="21">
+        <v>-65.736000000000004</v>
+      </c>
+      <c r="V70" s="21">
+        <v>1711.3958</v>
+      </c>
+      <c r="W70" s="21">
+        <v>-163.512</v>
+      </c>
+      <c r="X70" s="21">
+        <v>5.7092000000000001</v>
+      </c>
+      <c r="Y70" s="21">
+        <v>-1332.0733</v>
+      </c>
+      <c r="Z70" s="21">
+        <v>-2888.7892000000002</v>
+      </c>
+      <c r="AA70" s="21">
+        <v>1711.3958</v>
+      </c>
+      <c r="AB70" s="21">
+        <v>-160.38900000000001</v>
+      </c>
+      <c r="AC70" s="21">
+        <v>5.7092000000000001</v>
+      </c>
+      <c r="AD70" s="21">
+        <v>-50.6755</v>
+      </c>
+      <c r="AE70" s="21">
+        <v>-50.255000000000003</v>
+      </c>
+      <c r="AF70" s="21">
+        <v>57.031799999999997</v>
+      </c>
+      <c r="AG70" s="21">
+        <v>-59.110399999999998</v>
+      </c>
+      <c r="AH70" s="21">
+        <v>1.6580999999999999</v>
+      </c>
+      <c r="AI70" s="21">
+        <v>-1275.4752000000001</v>
+      </c>
+      <c r="AJ70" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK70" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL70" s="21">
+        <v>-175.5746</v>
+      </c>
+      <c r="AM70" s="21">
+        <v>6.2229999999999999</v>
+      </c>
+      <c r="AN70" s="6">
+        <f>(Y70+U70)-((AD70+K70)+(AI70+P70))</f>
+        <v>-21.955500000000029</v>
+      </c>
+      <c r="AO70" s="4">
+        <f>T70-(O70+J70)</f>
+        <v>-11.366600000000062</v>
+      </c>
+      <c r="AP70" s="20">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AQ70" s="4">
+        <f>AN70-AP70</f>
+        <v>-17.355500000000028</v>
+      </c>
+      <c r="AR70" s="4">
+        <f>AQ70^2</f>
+        <v>301.21338025000097</v>
+      </c>
+      <c r="AS70" s="4">
+        <f>AO70-AP70</f>
+        <v>-6.7666000000000626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="20">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" s="20">
+        <v>-2</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J71" s="21">
+        <v>59.4054</v>
+      </c>
+      <c r="K71" s="21">
+        <v>-2.4011</v>
+      </c>
+      <c r="L71" s="21">
+        <v>125.264</v>
+      </c>
+      <c r="M71" s="21">
+        <v>-65.229299999999995</v>
+      </c>
+      <c r="N71" s="21">
+        <v>1.7718</v>
+      </c>
+      <c r="O71" s="21">
+        <v>1499.2301</v>
+      </c>
+      <c r="P71" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q71" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R71" s="21">
+        <v>-184.33340000000001</v>
+      </c>
+      <c r="S71" s="21">
+        <v>6.2481</v>
+      </c>
+      <c r="T71" s="21">
+        <v>1542.4448</v>
+      </c>
+      <c r="U71" s="21">
+        <v>-75.968999999999994</v>
+      </c>
+      <c r="V71" s="21">
+        <v>1777.4059999999999</v>
+      </c>
+      <c r="W71" s="21">
+        <v>-164.68539999999999</v>
+      </c>
+      <c r="X71" s="21">
+        <v>5.6932</v>
+      </c>
+      <c r="Y71" s="21">
+        <v>-1357.0386000000001</v>
+      </c>
+      <c r="Z71" s="21">
+        <v>-2978.6044000000002</v>
+      </c>
+      <c r="AA71" s="21">
+        <v>1777.4059999999999</v>
+      </c>
+      <c r="AB71" s="21">
+        <v>-161.5333</v>
+      </c>
+      <c r="AC71" s="21">
+        <v>5.6932</v>
+      </c>
+      <c r="AD71" s="21">
+        <v>-84.534499999999994</v>
+      </c>
+      <c r="AE71" s="21">
+        <v>-146.1591</v>
+      </c>
+      <c r="AF71" s="21">
+        <v>125.264</v>
+      </c>
+      <c r="AG71" s="21">
+        <v>-65.411199999999994</v>
+      </c>
+      <c r="AH71" s="21">
+        <v>1.7718</v>
+      </c>
+      <c r="AI71" s="21">
+        <v>-1275.2788</v>
+      </c>
+      <c r="AJ71" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK71" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL71" s="21">
+        <v>-175.4034</v>
+      </c>
+      <c r="AM71" s="21">
+        <v>6.2481</v>
+      </c>
+      <c r="AN71" s="6">
+        <f>(Y71+U71)-((AD71+K71)+(AI71+P71))</f>
+        <v>-21.786800000000085</v>
+      </c>
+      <c r="AO71" s="4">
+        <f>T71-(O71+J71)</f>
+        <v>-16.190700000000106</v>
+      </c>
+      <c r="AP71" s="20">
+        <v>-2</v>
+      </c>
+      <c r="AQ71" s="4">
+        <f>AN71-AP71</f>
+        <v>-19.786800000000085</v>
+      </c>
+      <c r="AR71" s="4">
+        <f>AQ71^2</f>
+        <v>391.51745424000336</v>
+      </c>
+      <c r="AS71" s="4">
+        <f>AO71-AP71</f>
+        <v>-14.190700000000106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="20">
+        <v>-7.77</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" s="20">
+        <v>-2.11</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72" s="21">
+        <v>-36.874400000000001</v>
+      </c>
+      <c r="K72" s="21">
+        <v>-1.0304</v>
+      </c>
+      <c r="L72" s="21">
+        <v>157.89949999999999</v>
+      </c>
+      <c r="M72" s="21">
+        <v>-195.3613</v>
+      </c>
+      <c r="N72" s="21">
+        <v>1.6176999999999999</v>
+      </c>
+      <c r="O72" s="21">
+        <v>1499.0875000000001</v>
+      </c>
+      <c r="P72" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q72" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R72" s="21">
+        <v>-184.52209999999999</v>
+      </c>
+      <c r="S72" s="21">
+        <v>6.2942</v>
+      </c>
+      <c r="T72" s="21">
+        <v>1449.6802</v>
+      </c>
+      <c r="U72" s="21">
+        <v>-70.651399999999995</v>
+      </c>
+      <c r="V72" s="21">
+        <v>1743.1451999999999</v>
+      </c>
+      <c r="W72" s="21">
+        <v>-228.79079999999999</v>
+      </c>
+      <c r="X72" s="21">
+        <v>5.9771999999999998</v>
+      </c>
+      <c r="Y72" s="21">
+        <v>-1353.6577</v>
+      </c>
+      <c r="Z72" s="21">
+        <v>-2877.8645999999999</v>
+      </c>
+      <c r="AA72" s="21">
+        <v>1743.1451999999999</v>
+      </c>
+      <c r="AB72" s="21">
+        <v>-224.91550000000001</v>
+      </c>
+      <c r="AC72" s="21">
+        <v>5.9771999999999998</v>
+      </c>
+      <c r="AD72" s="21">
+        <v>-86.239000000000004</v>
+      </c>
+      <c r="AE72" s="21">
+        <v>-45.4193</v>
+      </c>
+      <c r="AF72" s="21">
+        <v>157.89949999999999</v>
+      </c>
+      <c r="AG72" s="21">
+        <v>-200.33690000000001</v>
+      </c>
+      <c r="AH72" s="21">
+        <v>1.6176999999999999</v>
+      </c>
+      <c r="AI72" s="21">
+        <v>-1275.1772000000001</v>
+      </c>
+      <c r="AJ72" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK72" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL72" s="21">
+        <v>-175.34790000000001</v>
+      </c>
+      <c r="AM72" s="21">
+        <v>6.2942</v>
+      </c>
+      <c r="AN72" s="6">
+        <f>(Y72+U72)-((AD72+K72)+(AI72+P72))</f>
+        <v>-12.856099999999969</v>
+      </c>
+      <c r="AO72" s="4">
+        <f>T72-(O72+J72)</f>
+        <v>-12.532900000000154</v>
+      </c>
+      <c r="AP72" s="20">
+        <v>-2.11</v>
+      </c>
+      <c r="AQ72" s="4">
+        <f>AN72-AP72</f>
+        <v>-10.74609999999997</v>
+      </c>
+      <c r="AR72" s="4">
+        <f>AQ72^2</f>
+        <v>115.47866520999935</v>
+      </c>
+      <c r="AS72" s="4">
+        <f>AO72-AP72</f>
+        <v>-10.422900000000155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="20">
+        <v>-9.86</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73" s="20">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" s="21">
+        <v>-33.621299999999998</v>
+      </c>
+      <c r="K73" s="21">
+        <v>5.7706999999999997</v>
+      </c>
+      <c r="L73" s="21">
+        <v>15.8391</v>
+      </c>
+      <c r="M73" s="21">
+        <v>-58.754800000000003</v>
+      </c>
+      <c r="N73" s="21">
+        <v>3.5236999999999998</v>
+      </c>
+      <c r="O73" s="21">
+        <v>1498.63</v>
+      </c>
+      <c r="P73" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q73" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R73" s="21">
+        <v>-184.90209999999999</v>
+      </c>
+      <c r="S73" s="21">
+        <v>6.2167000000000003</v>
+      </c>
+      <c r="T73" s="21">
+        <v>1468.4376999999999</v>
+      </c>
+      <c r="U73" s="21">
+        <v>-64.049599999999998</v>
+      </c>
+      <c r="V73" s="21">
+        <v>1685.2380000000001</v>
+      </c>
+      <c r="W73" s="21">
+        <v>-159.16730000000001</v>
+      </c>
+      <c r="X73" s="21">
+        <v>6.4165999999999999</v>
+      </c>
+      <c r="Y73" s="21">
+        <v>-1245.8959</v>
+      </c>
+      <c r="Z73" s="21">
+        <v>-2783.1927999999998</v>
+      </c>
+      <c r="AA73" s="21">
+        <v>1685.2380000000001</v>
+      </c>
+      <c r="AB73" s="21">
+        <v>-154.35769999999999</v>
+      </c>
+      <c r="AC73" s="21">
+        <v>6.4165999999999999</v>
+      </c>
+      <c r="AD73" s="21">
+        <v>9.2574000000000005</v>
+      </c>
+      <c r="AE73" s="21">
+        <v>49.252499999999998</v>
+      </c>
+      <c r="AF73" s="21">
+        <v>15.8391</v>
+      </c>
+      <c r="AG73" s="21">
+        <v>-59.357900000000001</v>
+      </c>
+      <c r="AH73" s="21">
+        <v>3.5236999999999998</v>
+      </c>
+      <c r="AI73" s="21">
+        <v>-1276.1637000000001</v>
+      </c>
+      <c r="AJ73" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK73" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL73" s="21">
+        <v>-176.2569</v>
+      </c>
+      <c r="AM73" s="21">
+        <v>6.2167000000000003</v>
+      </c>
+      <c r="AN73" s="6">
+        <f>(Y73+U73)-((AD73+K73)+(AI73+P73))</f>
+        <v>0.19650000000001455</v>
+      </c>
+      <c r="AO73" s="4">
+        <f>T73-(O73+J73)</f>
+        <v>3.4289999999998599</v>
+      </c>
+      <c r="AP73" s="20">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AQ73" s="4">
+        <f>AN73-AP73</f>
+        <v>9.3965000000000138</v>
+      </c>
+      <c r="AR73" s="4">
+        <f>AQ73^2</f>
+        <v>88.294212250000257</v>
+      </c>
+      <c r="AS73" s="4">
+        <f>AO73-AP73</f>
+        <v>12.628999999999859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="20">
+        <v>-7.05</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H74" s="20">
+        <v>-4.8</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP74" s="20">
+        <v>-4.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17517,7 +19078,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17686,7 +19247,7 @@
       </c>
       <c r="K1" s="12">
         <f>MAX(data!A:A)</f>
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17702,11 +19263,11 @@
       <c r="D2" s="3">
         <v>-2.17</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -17746,12 +19307,12 @@
         <v>41</v>
       </c>
       <c r="K4" s="7">
-        <f>SQRT(SUMSQ(data!AQ2:AQ63)/COUNTA(data!AQ2:AQ63))</f>
-        <v>8.252987492700889</v>
+        <f>SQRT(SUMSQ(data!AQ2:AQ73)/COUNTA(data!AQ2:AQ73))</f>
+        <v>9.1646535389293931</v>
       </c>
       <c r="L4" s="8">
-        <f>RSQ(data!AP2:AP63,data!AN2:AN63)</f>
-        <v>0.22300478779441962</v>
+        <f>RSQ(data!AP2:AP73,data!AN2:AN73)</f>
+        <v>0.13147789759397407</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.3">
@@ -17771,12 +19332,12 @@
         <v>42</v>
       </c>
       <c r="K5" s="8">
-        <f>SQRT(SUMSQ(data!AS2:AS63)/COUNTA(data!AS2:AS63))</f>
-        <v>7.336635915027915</v>
+        <f>SQRT(SUMSQ(data!AS2:AS74)/COUNTA(data!AS2:AS74))</f>
+        <v>7.7449655078763566</v>
       </c>
       <c r="L5" s="8">
-        <f>RSQ(data!AP2:AP63,data!AO2:AO63)</f>
-        <v>0.13954509865252446</v>
+        <f>RSQ(data!AP2:AP73,data!AO2:AO73)</f>
+        <v>7.7164407723847819E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -17820,10 +19381,10 @@
       <c r="D8" s="3">
         <v>-3.4</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -18621,4 +20182,2764 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21E48D4-8C06-1944-963E-5C3B55D6DEDD}">
+  <dimension ref="A1:AS20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:45" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="20">
+        <v>-6.69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="20">
+        <v>-4.2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="21">
+        <v>-53.1066</v>
+      </c>
+      <c r="K2" s="21">
+        <v>1.6624000000000001</v>
+      </c>
+      <c r="L2" s="21">
+        <v>6.2775999999999996</v>
+      </c>
+      <c r="M2" s="21">
+        <v>-64.021199999999993</v>
+      </c>
+      <c r="N2" s="21">
+        <v>2.9746000000000001</v>
+      </c>
+      <c r="O2" s="21">
+        <v>1498.8848</v>
+      </c>
+      <c r="P2" s="21">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R2" s="21">
+        <v>-184.58090000000001</v>
+      </c>
+      <c r="S2" s="21">
+        <v>6.1504000000000003</v>
+      </c>
+      <c r="T2" s="21">
+        <v>3051.9893999999999</v>
+      </c>
+      <c r="U2" s="21">
+        <v>1550.8879999999999</v>
+      </c>
+      <c r="V2" s="21">
+        <v>1670.9842000000001</v>
+      </c>
+      <c r="W2" s="21">
+        <v>-176.0102</v>
+      </c>
+      <c r="X2" s="21">
+        <v>6.1273999999999997</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>-1247.8347000000001</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>-2753.4521</v>
+      </c>
+      <c r="AA2" s="21">
+        <v>1670.9842000000001</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>-171.49420000000001</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>6.1273999999999997</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>22.904</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>78.993200000000002</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>6.2775999999999996</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>-65.341399999999993</v>
+      </c>
+      <c r="AH2" s="21">
+        <v>2.9746000000000001</v>
+      </c>
+      <c r="AI2" s="21">
+        <v>-1275.5607</v>
+      </c>
+      <c r="AJ2" s="21">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK2" s="21">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL2" s="21">
+        <v>-175.58760000000001</v>
+      </c>
+      <c r="AM2" s="21">
+        <v>6.1504000000000003</v>
+      </c>
+      <c r="AN2" s="6">
+        <f>(Y2+U2)-((AD2+K2)+(AI2+P2))</f>
+        <v>1603.0539999999999</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>T2-(O2+J2)</f>
+        <v>1606.2112</v>
+      </c>
+      <c r="AP2" s="20">
+        <v>-4.2</v>
+      </c>
+      <c r="AQ2" s="4">
+        <f>AN2-AP2</f>
+        <v>1607.2539999999999</v>
+      </c>
+      <c r="AR2" s="4">
+        <f>AQ2^2</f>
+        <v>2583265.4205159997</v>
+      </c>
+      <c r="AS2" s="4">
+        <f>AO2-AP2</f>
+        <v>1610.4112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="27">
+        <v>-7.65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="27">
+        <v>-5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="4">
+        <v>252.5077</v>
+      </c>
+      <c r="K3" s="4">
+        <v>197.00540000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>104.6164</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-52.121200000000002</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3.0070999999999999</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1499.346</v>
+      </c>
+      <c r="P3" s="4">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R3" s="4">
+        <v>-184.1858</v>
+      </c>
+      <c r="S3" s="4">
+        <v>6.2164999999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1287336.3791</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1285726.8714999999</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1764.4629</v>
+      </c>
+      <c r="W3" s="4">
+        <v>-160.79949999999999</v>
+      </c>
+      <c r="X3" s="4">
+        <v>5.8441999999999998</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>-1318.8357000000001</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>-2931.8748000000001</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1764.4629</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>-157.268</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>5.8441999999999998</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>-43.483199999999997</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>-99.429599999999994</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>104.6164</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>-51.677100000000003</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>3.0070999999999999</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>-1275.3966</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>-175.4896</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>6.2164999999999999</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>1285578.9165999999</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>1285584.5253999999</v>
+      </c>
+      <c r="AP3" s="27">
+        <v>-5</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>1285583.9165999999</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>1652726006620.5955</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>1285589.5253999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="27">
+        <v>-7.66</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="27">
+        <v>-6.5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-55.099600000000002</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1.9265000000000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>3.6661999999999999</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-59.456099999999999</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2.6168</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1498.6983</v>
+      </c>
+      <c r="P4" s="4">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R4" s="4">
+        <v>-184.86019999999999</v>
+      </c>
+      <c r="S4" s="4">
+        <v>6.2431999999999999</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1485.056</v>
+      </c>
+      <c r="U4" s="4">
+        <v>-37.697800000000001</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1662.9135000000001</v>
+      </c>
+      <c r="W4" s="4">
+        <v>-145.9273</v>
+      </c>
+      <c r="X4" s="4">
+        <v>5.7675999999999998</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>-1246.4254000000001</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>-2771.1626999999999</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1662.9135000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>-143.94380000000001</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>5.7675999999999998</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>7.0328999999999997</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>61.282499999999999</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>3.6661999999999999</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>-60.532699999999998</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>2.6168</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>-1275.761</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>-175.88069999999999</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>6.2431999999999999</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>35.537800000000061</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>41.457300000000032</v>
+      </c>
+      <c r="AP4" s="27">
+        <v>-6.5</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>42.037800000000061</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1767.1766288400052</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>47.957300000000032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="27">
+        <v>-6.45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="27">
+        <v>-2.5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-88.296099999999996</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.2052</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-35.104700000000001</v>
+      </c>
+      <c r="M5" s="4">
+        <v>-59.280999999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2.8843999999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1498.8235999999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R5" s="4">
+        <v>-184.702</v>
+      </c>
+      <c r="S5" s="4">
+        <v>6.2103000000000002</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1840.2225000000001</v>
+      </c>
+      <c r="U5" s="4">
+        <v>351.3125</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1637.9863</v>
+      </c>
+      <c r="W5" s="4">
+        <v>-154.9384</v>
+      </c>
+      <c r="X5" s="4">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>-1244.7371000000001</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>-2739.5951</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>1637.9863</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>-148.99029999999999</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1.8368</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>92.850200000000001</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>-35.104700000000001</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>-58.793100000000003</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>2.8843999999999999</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>-1275.1356000000001</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>-175.22239999999999</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>6.2103000000000002</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>425.67540000000008</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>429.69500000000016</v>
+      </c>
+      <c r="AP5" s="27">
+        <v>-2.5</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>428.17540000000008</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>183334.17316516006</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>432.19500000000016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="27">
+        <v>-7.8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="27">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="4">
+        <v>82.852800000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>29.371400000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>309.464</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-260.3433</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4.3608000000000002</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1498.5382</v>
+      </c>
+      <c r="P6" s="4">
+        <v>-49.006399999999999</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="R6" s="4">
+        <v>-185.01929999999999</v>
+      </c>
+      <c r="S6" s="4">
+        <v>6.2420999999999998</v>
+      </c>
+      <c r="T6" s="4">
+        <v>199875337.69440001</v>
+      </c>
+      <c r="U6" s="4">
+        <v>199873752.9454</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1852.4793</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-274.303</v>
+      </c>
+      <c r="X6" s="4">
+        <v>6.5727000000000002</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>-1247.5123000000001</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>-2834.9881</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>1852.4793</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>-271.57619999999997</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>6.5727000000000002</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>46.659500000000001</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>-2.5428000000000002</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>309.464</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>-264.6225</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>4.3608000000000002</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>-1275.8894</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>-2832.4452999999999</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>1726.3217999999999</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>-176.00800000000001</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>6.2420999999999998</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>199873754.29799998</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>199873756.30340001</v>
+      </c>
+      <c r="AP6" s="27">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>199873764.09799999</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3.9949521574702952E+16</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>199873766.10340002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="27">
+        <v>-5.68</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="27">
+        <v>-4.8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-60.753500000000003</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6.6814</v>
+      </c>
+      <c r="L7" s="4">
+        <v>8.9215999999999998</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-77.9559</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.5993999999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>-898.98630000000003</v>
+      </c>
+      <c r="P7" s="4">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R7" s="4">
+        <v>-1403.7592</v>
+      </c>
+      <c r="S7" s="4">
+        <v>8.3613</v>
+      </c>
+      <c r="T7" s="4">
+        <v>-929.74800000000005</v>
+      </c>
+      <c r="U7" s="4">
+        <v>-13.8628</v>
+      </c>
+      <c r="V7" s="4">
+        <v>796.64819999999997</v>
+      </c>
+      <c r="W7" s="4">
+        <v>-1720.6108999999999</v>
+      </c>
+      <c r="X7" s="4">
+        <v>8.0775000000000006</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>-878.27940000000001</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>54.008499999999998</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>796.64819999999997</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>-1737.0135</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>8.0775000000000006</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>-81.339699999999993</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>-11.39</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>8.9215999999999998</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>-80.470699999999994</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1.5993999999999999</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>-806.40390000000002</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>-1415.5094999999999</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>8.3613</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>27.854199999999992</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>29.991800000000012</v>
+      </c>
+      <c r="AP7" s="27">
+        <v>-4.8</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>32.654199999999989</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>1066.2967776399992</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>34.791800000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="27">
+        <v>-5.5</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-97.786100000000005</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-0.1578</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-20.4055</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-78.849900000000005</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.6271</v>
+      </c>
+      <c r="O8" s="4">
+        <v>-899.04200000000003</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R8" s="4">
+        <v>-1403.8436999999999</v>
+      </c>
+      <c r="S8" s="4">
+        <v>8.39</v>
+      </c>
+      <c r="T8" s="4">
+        <v>-993.29639999999995</v>
+      </c>
+      <c r="U8" s="4">
+        <v>-44.545900000000003</v>
+      </c>
+      <c r="V8" s="4">
+        <v>754.83849999999995</v>
+      </c>
+      <c r="W8" s="4">
+        <v>-1711.7474</v>
+      </c>
+      <c r="X8" s="4">
+        <v>8.1585000000000001</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>-871.93589999999995</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>93.233500000000006</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>754.83849999999995</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>-1728.1664000000001</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>8.1585000000000001</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>-72.007400000000004</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>27.835100000000001</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>-20.4055</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>-81.064099999999996</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1.6271</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>-806.60509999999999</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>-1415.7393</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>8.39</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>1.2227000000001453</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>3.5317000000001144</v>
+      </c>
+      <c r="AP8" s="27">
+        <v>-5.5</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>6.7227000000001453</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>45.194695290001953</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>9.0317000000001144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="27">
+        <v>-8.3800000000000008</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="27">
+        <v>-12.1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-106.5476</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-31.199100000000001</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-78.0077</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="O9" s="4">
+        <v>-899.3098</v>
+      </c>
+      <c r="P9" s="4">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R9" s="4">
+        <v>-1404.0423000000001</v>
+      </c>
+      <c r="S9" s="4">
+        <v>8.3209</v>
+      </c>
+      <c r="T9" s="4">
+        <v>-1003.1659</v>
+      </c>
+      <c r="U9" s="4">
+        <v>-41.995899999999999</v>
+      </c>
+      <c r="V9" s="4">
+        <v>735.98320000000001</v>
+      </c>
+      <c r="W9" s="4">
+        <v>-1705.2511999999999</v>
+      </c>
+      <c r="X9" s="4">
+        <v>8.0980000000000008</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>-859.59119999999996</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>117.0483</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>735.98320000000001</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>-1720.7207000000001</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>8.0980000000000008</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>-57.979300000000002</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>51.649900000000002</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>-31.199100000000001</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>-80.3001</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>-805.82060000000001</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>-1414.8857</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>8.3209</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>0.35780000000011114</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>2.6915000000000191</v>
+      </c>
+      <c r="AP9" s="27">
+        <v>-12.1</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>12.457800000000111</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>155.19678084000276</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>14.791500000000019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="27">
+        <v>-5.18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="27">
+        <v>-7.5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="4">
+        <v>-71.817400000000006</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.6124999999999998</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2.7593000000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-78.701499999999996</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.5123</v>
+      </c>
+      <c r="O10" s="4">
+        <v>-899.06240000000003</v>
+      </c>
+      <c r="P10" s="4">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R10" s="4">
+        <v>-1403.8244</v>
+      </c>
+      <c r="S10" s="4">
+        <v>8.3503000000000007</v>
+      </c>
+      <c r="T10" s="4">
+        <v>-962.85530000000006</v>
+      </c>
+      <c r="U10" s="4">
+        <v>-54.1113</v>
+      </c>
+      <c r="V10" s="4">
+        <v>797.8211</v>
+      </c>
+      <c r="W10" s="4">
+        <v>-1714.6011000000001</v>
+      </c>
+      <c r="X10" s="4">
+        <v>8.0359999999999996</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>-860.40200000000004</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>65.238500000000002</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>797.8211</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>-1731.4974999999999</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>8.0359999999999996</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>-77.0548</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>2.7593000000000001</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>-81.166399999999996</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1.5123</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>-806.06970000000001</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>-1415.1641999999999</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>8.3503000000000007</v>
+      </c>
+      <c r="AN10" s="6">
+        <v>4.9329000000000178</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>8.0244999999999891</v>
+      </c>
+      <c r="AP10" s="27">
+        <v>-7.5</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>12.432900000000018</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>154.57700241000043</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>15.524499999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="27">
+        <v>-7.11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="27">
+        <v>-6.9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-54.317599999999999</v>
+      </c>
+      <c r="K11" s="4">
+        <v>6.7895000000000003</v>
+      </c>
+      <c r="L11" s="4">
+        <v>14.7692</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-77.8874</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-899.15290000000005</v>
+      </c>
+      <c r="P11" s="4">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R11" s="4">
+        <v>-1403.9133999999999</v>
+      </c>
+      <c r="S11" s="4">
+        <v>8.3488000000000007</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-948.97239999999999</v>
+      </c>
+      <c r="U11" s="4">
+        <v>-36.735399999999998</v>
+      </c>
+      <c r="V11" s="4">
+        <v>788.2115</v>
+      </c>
+      <c r="W11" s="4">
+        <v>-1708.4983999999999</v>
+      </c>
+      <c r="X11" s="4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>-879.28110000000004</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>48.610999999999997</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>788.2115</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>-1724.1536000000001</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>-79.860799999999998</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>-16.787400000000002</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>14.7692</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>-79.8536</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>-806.22270000000003</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>-1415.3158000000001</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>8.3488000000000007</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>2.2116999999999507</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>4.4981000000000222</v>
+      </c>
+      <c r="AP11" s="27">
+        <v>-6.9</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>9.1116999999999511</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>83.023076889999103</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>11.398100000000023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="27">
+        <v>-4.59</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="27">
+        <v>-5.3</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-78.488799999999998</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.5696000000000001</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-2.6886000000000001</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-78.913200000000003</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.5434000000000001</v>
+      </c>
+      <c r="O12" s="4">
+        <v>-899.08119999999997</v>
+      </c>
+      <c r="P12" s="4">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R12" s="4">
+        <v>-1403.8119999999999</v>
+      </c>
+      <c r="S12" s="4">
+        <v>8.3191000000000006</v>
+      </c>
+      <c r="T12" s="4">
+        <v>-942.7482</v>
+      </c>
+      <c r="U12" s="4">
+        <v>-22.5777</v>
+      </c>
+      <c r="V12" s="4">
+        <v>792.33569999999997</v>
+      </c>
+      <c r="W12" s="4">
+        <v>-1720.5492999999999</v>
+      </c>
+      <c r="X12" s="4">
+        <v>8.0431000000000008</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>-858.04830000000004</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>78.682199999999995</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>792.33569999999997</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>-1737.1094000000001</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>8.0431000000000008</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>-68.506200000000007</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>13.283799999999999</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>-2.6886000000000001</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>-80.644800000000004</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>1.5434000000000001</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>-805.86109999999996</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>-1414.9245000000001</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>8.3191000000000006</v>
+      </c>
+      <c r="AN12" s="6">
+        <v>31.105899999999906</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>34.821799999999939</v>
+      </c>
+      <c r="AP12" s="27">
+        <v>-5.3</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>36.405899999999903</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>1325.3895548099929</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>40.121799999999936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="27">
+        <v>-6.22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="27">
+        <v>-7.4</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-86.917500000000004</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-11.8317</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-77.412800000000004</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.6007</v>
+      </c>
+      <c r="O13" s="4">
+        <v>-899.10479999999995</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-38.934199999999997</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="R13" s="4">
+        <v>-1403.8518999999999</v>
+      </c>
+      <c r="S13" s="4">
+        <v>8.3353999999999999</v>
+      </c>
+      <c r="T13" s="4">
+        <v>-942.70979999999997</v>
+      </c>
+      <c r="U13" s="4">
+        <v>-21.561900000000001</v>
+      </c>
+      <c r="V13" s="4">
+        <v>785.37670000000003</v>
+      </c>
+      <c r="W13" s="4">
+        <v>-1714.5253</v>
+      </c>
+      <c r="X13" s="4">
+        <v>8.0006000000000004</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>-841.91790000000003</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>95.845699999999994</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>785.37670000000003</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>-1731.1409000000001</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>8.0006000000000004</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>-59.471499999999999</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>30.447299999999998</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>-11.8317</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>-79.687799999999996</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>1.6007</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>-805.71579999999994</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>65.398399999999995</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>535.34590000000003</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>-1414.7954</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>8.3353999999999999</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>39.915399999999863</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>43.3125</v>
+      </c>
+      <c r="AP13" s="27">
+        <v>-7.4</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>47.315399999999862</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>2238.7470771599869</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>50.712499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>72</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="27">
+        <v>-6.06</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="27">
+        <v>-7.8</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-62.901299999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.0250999999999999</v>
+      </c>
+      <c r="L14" s="4">
+        <v>12.431699999999999</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-77.938999999999993</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.5809</v>
+      </c>
+      <c r="O14" s="4">
+        <v>-941.23910000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R14" s="4">
+        <v>-1336.5664999999999</v>
+      </c>
+      <c r="S14" s="4">
+        <v>8.7131000000000007</v>
+      </c>
+      <c r="T14" s="4">
+        <v>85.908699999999996</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1023.1527</v>
+      </c>
+      <c r="V14" s="4">
+        <v>694.18</v>
+      </c>
+      <c r="W14" s="4">
+        <v>-1639.828</v>
+      </c>
+      <c r="X14" s="4">
+        <v>8.4039999999999999</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>-860.14099999999996</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>95.445599999999999</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>694.18</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>-1658.1706999999999</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>8.4039999999999999</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>-80.769400000000005</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>-14.4177</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>12.431699999999999</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>-80.3643</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>1.5809</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>-799.72550000000001</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>109.8633</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>-1350.5266999999999</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>8.7131000000000007</v>
+      </c>
+      <c r="AN14" s="6">
+        <v>1088.0921000000001</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>1090.0491</v>
+      </c>
+      <c r="AP14" s="27">
+        <v>-7.8</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>1095.8921</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>1200979.4948424101</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>1097.8490999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="27">
+        <v>-6.81</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="27">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-105.2991</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-33.158799999999999</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-76.252600000000001</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1.8532</v>
+      </c>
+      <c r="O15" s="4">
+        <v>-941.19240000000002</v>
+      </c>
+      <c r="P15" s="4">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R15" s="4">
+        <v>-1336.5302999999999</v>
+      </c>
+      <c r="S15" s="4">
+        <v>8.7235999999999994</v>
+      </c>
+      <c r="T15" s="4">
+        <v>-894.70870000000002</v>
+      </c>
+      <c r="U15" s="4">
+        <v>98.769499999999994</v>
+      </c>
+      <c r="V15" s="4">
+        <v>630.70100000000002</v>
+      </c>
+      <c r="W15" s="4">
+        <v>-1632.578</v>
+      </c>
+      <c r="X15" s="4">
+        <v>8.3987999999999996</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>-849.61509999999998</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>162.1439</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>630.70100000000002</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>-1650.8588</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>8.3987999999999996</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>-57.317999999999998</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>52.2806</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>-33.158799999999999</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>-78.293000000000006</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>1.8532</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>-799.33540000000005</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>109.8633</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>-1350.1470999999999</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>8.7235999999999994</v>
+      </c>
+      <c r="AN15" s="6">
+        <v>149.15940000000001</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>151.78280000000007</v>
+      </c>
+      <c r="AP15" s="27">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>158.45940000000002</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>25109.381448360004</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>161.08280000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="27">
+        <v>-5.6</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="27">
+        <v>-8.9</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-74.094999999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2.4937999999999998</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-0.2374</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-77.873199999999997</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.5218</v>
+      </c>
+      <c r="O16" s="4">
+        <v>-941.10170000000005</v>
+      </c>
+      <c r="P16" s="4">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R16" s="4">
+        <v>-1336.3947000000001</v>
+      </c>
+      <c r="S16" s="4">
+        <v>8.6786999999999992</v>
+      </c>
+      <c r="T16" s="4">
+        <v>-905.62890000000004</v>
+      </c>
+      <c r="U16" s="4">
+        <v>47.747</v>
+      </c>
+      <c r="V16" s="4">
+        <v>677.11389999999994</v>
+      </c>
+      <c r="W16" s="4">
+        <v>-1638.8606</v>
+      </c>
+      <c r="X16" s="4">
+        <v>8.3709000000000007</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>-862.81500000000005</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>109.88249999999999</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>677.11389999999994</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>-1658.1822</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>8.3709000000000007</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>-78.6297</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>-0.2374</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>-79.933199999999999</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>1.5218</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>-799.87549999999999</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>109.8633</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>-1350.6424</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>8.6786999999999992</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>106.55399999999986</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>109.56780000000003</v>
+      </c>
+      <c r="AP16" s="27">
+        <v>-8.9</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>115.45399999999987</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>13329.626115999969</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>118.46780000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="27">
+        <v>-7.79</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="27">
+        <v>-8.9</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-59.887700000000002</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6.6058000000000003</v>
+      </c>
+      <c r="L17" s="4">
+        <v>10.0373</v>
+      </c>
+      <c r="M17" s="4">
+        <v>-78.589399999999998</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2.0587</v>
+      </c>
+      <c r="O17" s="4">
+        <v>-941.28030000000001</v>
+      </c>
+      <c r="P17" s="4">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R17" s="4">
+        <v>-1336.6297999999999</v>
+      </c>
+      <c r="S17" s="4">
+        <v>8.7352000000000007</v>
+      </c>
+      <c r="T17" s="4">
+        <v>-991.54970000000003</v>
+      </c>
+      <c r="U17" s="4">
+        <v>-36.143900000000002</v>
+      </c>
+      <c r="V17" s="4">
+        <v>659.66920000000005</v>
+      </c>
+      <c r="W17" s="4">
+        <v>-1623.5607</v>
+      </c>
+      <c r="X17" s="4">
+        <v>8.4856999999999996</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>-878.39859999999999</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>95.814300000000003</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>659.66920000000005</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>-1642.3677</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>8.4856999999999996</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>-82.2346</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>-14.048999999999999</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>10.0373</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>-80.281499999999994</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>2.0587</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>-799.95640000000003</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>109.8633</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>-1350.7798</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>8.7352000000000007</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>6.6532999999999447</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>9.6182999999999765</v>
+      </c>
+      <c r="AP17" s="27">
+        <v>-8.9</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>15.553299999999945</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>241.90514088999828</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>18.518299999999975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="27">
+        <v>-4.16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="27">
+        <v>-8</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-80.443299999999994</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.0892999999999999</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-6.3426</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-76.7179</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1.528</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-941.06920000000002</v>
+      </c>
+      <c r="P18" s="4">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R18" s="4">
+        <v>-1336.4006999999999</v>
+      </c>
+      <c r="S18" s="4">
+        <v>8.7172999999999998</v>
+      </c>
+      <c r="T18" s="4">
+        <v>-999.4248</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-41.245699999999999</v>
+      </c>
+      <c r="V18" s="4">
+        <v>671.91769999999997</v>
+      </c>
+      <c r="W18" s="4">
+        <v>-1638.4938</v>
+      </c>
+      <c r="X18" s="4">
+        <v>8.3971</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>-855.20079999999996</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>122.828</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>671.91769999999997</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>-1658.3435999999999</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>8.3971</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>-71.013199999999998</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>12.964700000000001</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>-6.3426</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>-79.163300000000007</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>1.528</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>-800.59960000000001</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>109.8634</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>-1351.405</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>8.7172999999999998</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>19.687599999999975</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>22.087700000000041</v>
+      </c>
+      <c r="AP18" s="27">
+        <v>-8</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>27.687599999999975</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>766.60319375999859</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>30.087700000000041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>78</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="20">
+        <v>-5.4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="20">
+        <v>-6.2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="21">
+        <v>-66.003900000000002</v>
+      </c>
+      <c r="K19" s="21">
+        <v>9.9192</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1.1837</v>
+      </c>
+      <c r="M19" s="21">
+        <v>-78.645700000000005</v>
+      </c>
+      <c r="N19" s="21">
+        <v>1.5388999999999999</v>
+      </c>
+      <c r="O19" s="21">
+        <v>-941.17</v>
+      </c>
+      <c r="P19" s="21">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R19" s="21">
+        <v>-1336.4685999999999</v>
+      </c>
+      <c r="S19" s="21">
+        <v>8.6843000000000004</v>
+      </c>
+      <c r="T19" s="21">
+        <v>-982.02089999999998</v>
+      </c>
+      <c r="U19" s="21">
+        <v>-30.999700000000001</v>
+      </c>
+      <c r="V19" s="21">
+        <v>681.27850000000001</v>
+      </c>
+      <c r="W19" s="21">
+        <v>-1640.6679999999999</v>
+      </c>
+      <c r="X19" s="21">
+        <v>8.3682999999999996</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>-860.4796</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>108.5031</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>681.27850000000001</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>-1658.6295</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>8.3682999999999996</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>-79.846000000000004</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>-1.3602000000000001</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>1.1837</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>-81.208399999999997</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>1.5388999999999999</v>
+      </c>
+      <c r="AI19" s="21">
+        <v>-799.46690000000001</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>109.8633</v>
+      </c>
+      <c r="AK19" s="21">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL19" s="21">
+        <v>-1350.2393999999999</v>
+      </c>
+      <c r="AM19" s="21">
+        <v>8.6843000000000004</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>23.524999999999977</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>25.15300000000002</v>
+      </c>
+      <c r="AP19" s="20">
+        <v>-6.2</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>29.724999999999977</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>883.57562499999858</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>31.353000000000019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="20">
+        <v>-4.13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="20">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="21">
+        <v>-88.673000000000002</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1.0948</v>
+      </c>
+      <c r="L20" s="21">
+        <v>-16.192799999999998</v>
+      </c>
+      <c r="M20" s="21">
+        <v>-75.185599999999994</v>
+      </c>
+      <c r="N20" s="21">
+        <v>1.6106</v>
+      </c>
+      <c r="O20" s="21">
+        <v>-941.25289999999995</v>
+      </c>
+      <c r="P20" s="21">
+        <v>-45.610599999999998</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="R20" s="21">
+        <v>-1336.5812000000001</v>
+      </c>
+      <c r="S20" s="21">
+        <v>8.7140000000000004</v>
+      </c>
+      <c r="T20" s="21">
+        <v>-997.2011</v>
+      </c>
+      <c r="U20" s="21">
+        <v>-34.768799999999999</v>
+      </c>
+      <c r="V20" s="21">
+        <v>666.43380000000002</v>
+      </c>
+      <c r="W20" s="21">
+        <v>-1637.2541000000001</v>
+      </c>
+      <c r="X20" s="21">
+        <v>8.3879999999999999</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>-839.79510000000005</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>140.9675</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>666.43380000000002</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>-1655.5844</v>
+      </c>
+      <c r="AC20" s="21">
+        <v>8.3879999999999999</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>-60.725000000000001</v>
+      </c>
+      <c r="AE20" s="21">
+        <v>31.104099999999999</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>-16.192799999999998</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>-77.246899999999997</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>1.6106</v>
+      </c>
+      <c r="AI20" s="21">
+        <v>-799.21320000000003</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>109.8633</v>
+      </c>
+      <c r="AK20" s="21">
+        <v>432.22480000000002</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>-1350.0154</v>
+      </c>
+      <c r="AM20" s="21">
+        <v>8.7140000000000004</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>29.890099999999848</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>32.724799999999959</v>
+      </c>
+      <c r="AP20" s="20">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>38.190099999999845</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>1458.4837380099882</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>41.024799999999956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/host-guest-dataset_clean.xlsx
+++ b/Results/host-guest-dataset_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/misspotato/Documents/GitHub/Binding-Free-Energy-Prediction-Host-Guest-System/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB84405-D2A8-FA45-94F4-CC043FD8DCC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40BE6E-F0F1-7B48-B49C-816D417F6348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="-21100" windowWidth="35260" windowHeight="20280" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
+    <workbookView xWindow="880" yWindow="740" windowWidth="23660" windowHeight="15020" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="128">
   <si>
     <t>dataset group name</t>
   </si>
@@ -404,25 +404,16 @@
     <t>CB8-G11</t>
   </si>
   <si>
-    <t>CB8-G12a</t>
-  </si>
-  <si>
-    <t>CB8-G12b</t>
-  </si>
-  <si>
     <t>OA</t>
   </si>
   <si>
     <t>TEMOA</t>
   </si>
   <si>
-    <t>guest-12a</t>
+    <t>SAMPL6</t>
   </si>
   <si>
-    <t>guest-12b</t>
-  </si>
-  <si>
-    <t>SAMPL6</t>
+    <t>CB8-G12</t>
   </si>
 </sst>
 </file>
@@ -702,6 +693,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -717,7 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -7833,7 +7824,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="29" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0">
@@ -8616,10 +8607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD74DF-FB71-A641-B99D-0471020535CD}">
-  <dimension ref="A1:AS74"/>
+  <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8931,26 +8922,26 @@
         <v>5.1691000000000003</v>
       </c>
       <c r="AN2" s="6">
-        <f>(Y2+U2)-((AD2+K2)+(AI2+P2))</f>
+        <f t="shared" ref="AN2:AN33" si="0">(Y2+U2)-((AD2+K2)+(AI2+P2))</f>
         <v>-1.995000000000033</v>
       </c>
       <c r="AO2" s="4">
-        <f>T2-(O2+J2)</f>
+        <f t="shared" ref="AO2:AO33" si="1">T2-(O2+J2)</f>
         <v>-0.8407999999999447</v>
       </c>
       <c r="AP2" s="6">
         <v>-2.17</v>
       </c>
       <c r="AQ2" s="4">
-        <f>AN2-AP2</f>
+        <f t="shared" ref="AQ2:AQ33" si="2">AN2-AP2</f>
         <v>0.17499999999996696</v>
       </c>
       <c r="AR2" s="4">
-        <f>AQ2^2</f>
+        <f t="shared" ref="AR2:AR33" si="3">AQ2^2</f>
         <v>3.0624999999988436E-2</v>
       </c>
       <c r="AS2" s="4">
-        <f>AO2-AP2</f>
+        <f t="shared" ref="AS2:AS33" si="4">AO2-AP2</f>
         <v>1.3292000000000552</v>
       </c>
     </row>
@@ -9073,26 +9064,26 @@
         <v>5.0726000000000004</v>
       </c>
       <c r="AN3" s="6">
-        <f>(Y3+U3)-((AD3+K3)+(AI3+P3))</f>
+        <f t="shared" si="0"/>
         <v>-11.262399999999985</v>
       </c>
       <c r="AO3" s="4">
-        <f>T3-(O3+J3)</f>
+        <f t="shared" si="1"/>
         <v>-8.4809000000001333</v>
       </c>
       <c r="AP3" s="6">
         <v>-4.1900000000000004</v>
       </c>
       <c r="AQ3" s="4">
-        <f>AN3-AP3</f>
+        <f t="shared" si="2"/>
         <v>-7.0723999999999849</v>
       </c>
       <c r="AR3" s="4">
-        <f>AQ3^2</f>
+        <f t="shared" si="3"/>
         <v>50.018841759999788</v>
       </c>
       <c r="AS3" s="4">
-        <f>AO3-AP3</f>
+        <f t="shared" si="4"/>
         <v>-4.2909000000001329</v>
       </c>
     </row>
@@ -9215,26 +9206,26 @@
         <v>5.1352000000000002</v>
       </c>
       <c r="AN4" s="6">
-        <f>(Y4+U4)-((AD4+K4)+(AI4+P4))</f>
+        <f t="shared" si="0"/>
         <v>-15.407399999999996</v>
       </c>
       <c r="AO4" s="4">
-        <f>T4-(O4+J4)</f>
+        <f t="shared" si="1"/>
         <v>-13.823400000000106</v>
       </c>
       <c r="AP4" s="6">
         <v>-5.46</v>
       </c>
       <c r="AQ4" s="4">
-        <f>AN4-AP4</f>
+        <f t="shared" si="2"/>
         <v>-9.9473999999999947</v>
       </c>
       <c r="AR4" s="4">
-        <f>AQ4^2</f>
+        <f t="shared" si="3"/>
         <v>98.950766759999894</v>
       </c>
       <c r="AS4" s="4">
-        <f>AO4-AP4</f>
+        <f t="shared" si="4"/>
         <v>-8.3634000000001052</v>
       </c>
     </row>
@@ -9357,26 +9348,26 @@
         <v>5.0849000000000002</v>
       </c>
       <c r="AN5" s="6">
-        <f>(Y5+U5)-((AD5+K5)+(AI5+P5))</f>
+        <f t="shared" si="0"/>
         <v>-10.558600000000013</v>
       </c>
       <c r="AO5" s="4">
-        <f>T5-(O5+J5)</f>
+        <f t="shared" si="1"/>
         <v>-11.331900000000019</v>
       </c>
       <c r="AP5" s="6">
         <v>-2.74</v>
       </c>
       <c r="AQ5" s="4">
-        <f>AN5-AP5</f>
+        <f t="shared" si="2"/>
         <v>-7.8186000000000124</v>
       </c>
       <c r="AR5" s="4">
-        <f>AQ5^2</f>
+        <f t="shared" si="3"/>
         <v>61.130505960000193</v>
       </c>
       <c r="AS5" s="4">
-        <f>AO5-AP5</f>
+        <f t="shared" si="4"/>
         <v>-8.5919000000000185</v>
       </c>
     </row>
@@ -9499,26 +9490,26 @@
         <v>5.0880999999999998</v>
       </c>
       <c r="AN6" s="6">
-        <f>(Y6+U6)-((AD6+K6)+(AI6+P6))</f>
+        <f t="shared" si="0"/>
         <v>-14.551699999999983</v>
       </c>
       <c r="AO6" s="4">
-        <f>T6-(O6+J6)</f>
+        <f t="shared" si="1"/>
         <v>-14.048500000000104</v>
       </c>
       <c r="AP6" s="6">
         <v>-2.99</v>
       </c>
       <c r="AQ6" s="4">
-        <f>AN6-AP6</f>
+        <f t="shared" si="2"/>
         <v>-11.561699999999982</v>
       </c>
       <c r="AR6" s="4">
-        <f>AQ6^2</f>
+        <f t="shared" si="3"/>
         <v>133.67290688999958</v>
       </c>
       <c r="AS6" s="4">
-        <f>AO6-AP6</f>
+        <f t="shared" si="4"/>
         <v>-11.058500000000103</v>
       </c>
     </row>
@@ -9641,26 +9632,26 @@
         <v>5.1791999999999998</v>
       </c>
       <c r="AN7" s="6">
-        <f>(Y7+U7)-((AD7+K7)+(AI7+P7))</f>
+        <f t="shared" si="0"/>
         <v>-5.8525999999999954</v>
       </c>
       <c r="AO7" s="4">
-        <f>T7-(O7+J7)</f>
+        <f t="shared" si="1"/>
         <v>-7.6596000000000686</v>
       </c>
       <c r="AP7" s="6">
         <v>-2.5299999999999998</v>
       </c>
       <c r="AQ7" s="4">
-        <f>AN7-AP7</f>
+        <f t="shared" si="2"/>
         <v>-3.3225999999999956</v>
       </c>
       <c r="AR7" s="4">
-        <f>AQ7^2</f>
+        <f t="shared" si="3"/>
         <v>11.03967075999997</v>
       </c>
       <c r="AS7" s="4">
-        <f>AO7-AP7</f>
+        <f t="shared" si="4"/>
         <v>-5.1296000000000692</v>
       </c>
     </row>
@@ -9783,26 +9774,26 @@
         <v>5.0312000000000001</v>
       </c>
       <c r="AN8" s="6">
-        <f>(Y8+U8)-((AD8+K8)+(AI8+P8))</f>
+        <f t="shared" si="0"/>
         <v>-11.86330000000001</v>
       </c>
       <c r="AO8" s="4">
-        <f>T8-(O8+J8)</f>
+        <f t="shared" si="1"/>
         <v>-11.024099999999976</v>
       </c>
       <c r="AP8" s="6">
         <v>-3.4</v>
       </c>
       <c r="AQ8" s="4">
-        <f>AN8-AP8</f>
+        <f t="shared" si="2"/>
         <v>-8.4633000000000091</v>
       </c>
       <c r="AR8" s="4">
-        <f>AQ8^2</f>
+        <f t="shared" si="3"/>
         <v>71.627446890000158</v>
       </c>
       <c r="AS8" s="4">
-        <f>AO8-AP8</f>
+        <f t="shared" si="4"/>
         <v>-7.6240999999999755</v>
       </c>
     </row>
@@ -9925,26 +9916,26 @@
         <v>5.1211000000000002</v>
       </c>
       <c r="AN9" s="6">
-        <f>(Y9+U9)-((AD9+K9)+(AI9+P9))</f>
+        <f t="shared" si="0"/>
         <v>-15.818100000000015</v>
       </c>
       <c r="AO9" s="4">
-        <f>T9-(O9+J9)</f>
+        <f t="shared" si="1"/>
         <v>-14.552499999999895</v>
       </c>
       <c r="AP9" s="6">
         <v>-4.8899999999999997</v>
       </c>
       <c r="AQ9" s="4">
-        <f>AN9-AP9</f>
+        <f t="shared" si="2"/>
         <v>-10.928100000000015</v>
       </c>
       <c r="AR9" s="4">
-        <f>AQ9^2</f>
+        <f t="shared" si="3"/>
         <v>119.42336961000032</v>
       </c>
       <c r="AS9" s="4">
-        <f>AO9-AP9</f>
+        <f t="shared" si="4"/>
         <v>-9.6624999999998948</v>
       </c>
     </row>
@@ -10067,26 +10058,26 @@
         <v>5.2165999999999997</v>
       </c>
       <c r="AN10" s="6">
-        <f>(Y10+U10)-((AD10+K10)+(AI10+P10))</f>
+        <f t="shared" si="0"/>
         <v>-2.7850999999999999</v>
       </c>
       <c r="AO10" s="4">
-        <f>T10-(O10+J10)</f>
+        <f t="shared" si="1"/>
         <v>-1.3498999999999342</v>
       </c>
       <c r="AP10" s="6">
         <v>-2.57</v>
       </c>
       <c r="AQ10" s="4">
-        <f>AN10-AP10</f>
+        <f t="shared" si="2"/>
         <v>-0.21510000000000007</v>
       </c>
       <c r="AR10" s="4">
-        <f>AQ10^2</f>
+        <f t="shared" si="3"/>
         <v>4.6268010000000033E-2</v>
       </c>
       <c r="AS10" s="4">
-        <f>AO10-AP10</f>
+        <f t="shared" si="4"/>
         <v>1.2201000000000657</v>
       </c>
     </row>
@@ -10209,26 +10200,26 @@
         <v>5.0477999999999996</v>
       </c>
       <c r="AN11" s="6">
-        <f>(Y11+U11)-((AD11+K11)+(AI11+P11))</f>
+        <f t="shared" si="0"/>
         <v>-4.0921999999999912</v>
       </c>
       <c r="AO11" s="4">
-        <f>T11-(O11+J11)</f>
+        <f t="shared" si="1"/>
         <v>-1.9280999999999722</v>
       </c>
       <c r="AP11" s="6">
         <v>-2.68</v>
       </c>
       <c r="AQ11" s="4">
-        <f>AN11-AP11</f>
+        <f t="shared" si="2"/>
         <v>-1.412199999999991</v>
       </c>
       <c r="AR11" s="4">
-        <f>AQ11^2</f>
+        <f t="shared" si="3"/>
         <v>1.9943088399999747</v>
       </c>
       <c r="AS11" s="4">
-        <f>AO11-AP11</f>
+        <f t="shared" si="4"/>
         <v>0.75190000000002799</v>
       </c>
     </row>
@@ -10351,26 +10342,26 @@
         <v>5.1074000000000002</v>
       </c>
       <c r="AN12" s="6">
-        <f>(Y12+U12)-((AD12+K12)+(AI12+P12))</f>
+        <f t="shared" si="0"/>
         <v>-6.8614999999999782</v>
       </c>
       <c r="AO12" s="4">
-        <f>T12-(O12+J12)</f>
+        <f t="shared" si="1"/>
         <v>-5.0641999999999143</v>
       </c>
       <c r="AP12" s="6">
         <v>-3.28</v>
       </c>
       <c r="AQ12" s="4">
-        <f>AN12-AP12</f>
+        <f t="shared" si="2"/>
         <v>-3.5814999999999784</v>
       </c>
       <c r="AR12" s="4">
-        <f>AQ12^2</f>
+        <f t="shared" si="3"/>
         <v>12.827142249999845</v>
       </c>
       <c r="AS12" s="4">
-        <f>AO12-AP12</f>
+        <f t="shared" si="4"/>
         <v>-1.7841999999999145</v>
       </c>
     </row>
@@ -10493,26 +10484,26 @@
         <v>4.9828000000000001</v>
       </c>
       <c r="AN13" s="6">
-        <f>(Y13+U13)-((AD13+K13)+(AI13+P13))</f>
+        <f t="shared" si="0"/>
         <v>-13.490899999999982</v>
       </c>
       <c r="AO13" s="4">
-        <f>T13-(O13+J13)</f>
+        <f t="shared" si="1"/>
         <v>-11.937400000000025</v>
       </c>
       <c r="AP13" s="6">
         <v>-4.2</v>
       </c>
       <c r="AQ13" s="4">
-        <f>AN13-AP13</f>
+        <f t="shared" si="2"/>
         <v>-9.2908999999999828</v>
       </c>
       <c r="AR13" s="4">
-        <f>AQ13^2</f>
+        <f t="shared" si="3"/>
         <v>86.320822809999683</v>
       </c>
       <c r="AS13" s="4">
-        <f>AO13-AP13</f>
+        <f t="shared" si="4"/>
         <v>-7.7374000000000249</v>
       </c>
     </row>
@@ -10635,26 +10626,26 @@
         <v>5.0833000000000004</v>
       </c>
       <c r="AN14" s="6">
-        <f>(Y14+U14)-((AD14+K14)+(AI14+P14))</f>
+        <f t="shared" si="0"/>
         <v>-11.969399999999979</v>
       </c>
       <c r="AO14" s="4">
-        <f>T14-(O14+J14)</f>
+        <f t="shared" si="1"/>
         <v>-9.0878000000000156</v>
       </c>
       <c r="AP14" s="6">
         <v>-4.28</v>
       </c>
       <c r="AQ14" s="4">
-        <f>AN14-AP14</f>
+        <f t="shared" si="2"/>
         <v>-7.6893999999999787</v>
       </c>
       <c r="AR14" s="4">
-        <f>AQ14^2</f>
+        <f t="shared" si="3"/>
         <v>59.126872359999673</v>
       </c>
       <c r="AS14" s="4">
-        <f>AO14-AP14</f>
+        <f t="shared" si="4"/>
         <v>-4.8078000000000154</v>
       </c>
     </row>
@@ -10777,26 +10768,26 @@
         <v>5.1109</v>
       </c>
       <c r="AN15" s="6">
-        <f>(Y15+U15)-((AD15+K15)+(AI15+P15))</f>
+        <f t="shared" si="0"/>
         <v>-15.066500000000019</v>
       </c>
       <c r="AO15" s="4">
-        <f>T15-(O15+J15)</f>
+        <f t="shared" si="1"/>
         <v>-13.397100000000023</v>
       </c>
       <c r="AP15" s="6">
         <v>-4.66</v>
       </c>
       <c r="AQ15" s="4">
-        <f>AN15-AP15</f>
+        <f t="shared" si="2"/>
         <v>-10.406500000000019</v>
       </c>
       <c r="AR15" s="4">
-        <f>AQ15^2</f>
+        <f t="shared" si="3"/>
         <v>108.2952422500004</v>
       </c>
       <c r="AS15" s="4">
-        <f>AO15-AP15</f>
+        <f t="shared" si="4"/>
         <v>-8.737100000000023</v>
       </c>
     </row>
@@ -10919,26 +10910,26 @@
         <v>5.0945</v>
       </c>
       <c r="AN16" s="6">
-        <f>(Y16+U16)-((AD16+K16)+(AI16+P16))</f>
+        <f t="shared" si="0"/>
         <v>-13.312900000000013</v>
       </c>
       <c r="AO16" s="4">
-        <f>T16-(O16+J16)</f>
+        <f t="shared" si="1"/>
         <v>-9.6586000000000922</v>
       </c>
       <c r="AP16" s="6">
         <v>-4.74</v>
       </c>
       <c r="AQ16" s="4">
-        <f>AN16-AP16</f>
+        <f t="shared" si="2"/>
         <v>-8.5729000000000131</v>
       </c>
       <c r="AR16" s="4">
-        <f>AQ16^2</f>
+        <f t="shared" si="3"/>
         <v>73.494614410000224</v>
       </c>
       <c r="AS16" s="4">
-        <f>AO16-AP16</f>
+        <f t="shared" si="4"/>
         <v>-4.918600000000092</v>
       </c>
     </row>
@@ -11061,26 +11052,26 @@
         <v>5.0720000000000001</v>
       </c>
       <c r="AN17" s="6">
-        <f>(Y17+U17)-((AD17+K17)+(AI17+P17))</f>
+        <f t="shared" si="0"/>
         <v>-8.1576000000000022</v>
       </c>
       <c r="AO17" s="4">
-        <f>T17-(O17+J17)</f>
+        <f t="shared" si="1"/>
         <v>-9.3663999999999987</v>
       </c>
       <c r="AP17" s="6">
         <v>-2.75</v>
       </c>
       <c r="AQ17" s="4">
-        <f>AN17-AP17</f>
+        <f t="shared" si="2"/>
         <v>-5.4076000000000022</v>
       </c>
       <c r="AR17" s="4">
-        <f>AQ17^2</f>
+        <f t="shared" si="3"/>
         <v>29.242137760000023</v>
       </c>
       <c r="AS17" s="4">
-        <f>AO17-AP17</f>
+        <f t="shared" si="4"/>
         <v>-6.6163999999999987</v>
       </c>
     </row>
@@ -11203,26 +11194,26 @@
         <v>5.0761000000000003</v>
       </c>
       <c r="AN18" s="6">
-        <f>(Y18+U18)-((AD18+K18)+(AI18+P18))</f>
+        <f t="shared" si="0"/>
         <v>-11.483900000000006</v>
       </c>
       <c r="AO18" s="4">
-        <f>T18-(O18+J18)</f>
+        <f t="shared" si="1"/>
         <v>-11.82409999999993</v>
       </c>
       <c r="AP18" s="6">
         <v>-0.93</v>
       </c>
       <c r="AQ18" s="4">
-        <f>AN18-AP18</f>
+        <f t="shared" si="2"/>
         <v>-10.553900000000006</v>
       </c>
       <c r="AR18" s="4">
-        <f>AQ18^2</f>
+        <f t="shared" si="3"/>
         <v>111.38480521000012</v>
       </c>
       <c r="AS18" s="4">
-        <f>AO18-AP18</f>
+        <f t="shared" si="4"/>
         <v>-10.894099999999931</v>
       </c>
     </row>
@@ -11345,26 +11336,26 @@
         <v>5.0350999999999999</v>
       </c>
       <c r="AN19" s="6">
-        <f>(Y19+U19)-((AD19+K19)+(AI19+P19))</f>
+        <f t="shared" si="0"/>
         <v>-8.443300000000022</v>
       </c>
       <c r="AO19" s="4">
-        <f>T19-(O19+J19)</f>
+        <f t="shared" si="1"/>
         <v>-7.6430000000000291</v>
       </c>
       <c r="AP19" s="6">
         <v>-2.75</v>
       </c>
       <c r="AQ19" s="4">
-        <f>AN19-AP19</f>
+        <f t="shared" si="2"/>
         <v>-5.693300000000022</v>
       </c>
       <c r="AR19" s="4">
-        <f>AQ19^2</f>
+        <f t="shared" si="3"/>
         <v>32.413664890000248</v>
       </c>
       <c r="AS19" s="4">
-        <f>AO19-AP19</f>
+        <f t="shared" si="4"/>
         <v>-4.8930000000000291</v>
       </c>
     </row>
@@ -11487,26 +11478,26 @@
         <v>5.1493000000000002</v>
       </c>
       <c r="AN20" s="6">
-        <f>(Y20+U20)-((AD20+K20)+(AI20+P20))</f>
+        <f t="shared" si="0"/>
         <v>-6.858900000000034</v>
       </c>
       <c r="AO20" s="4">
-        <f>T20-(O20+J20)</f>
+        <f t="shared" si="1"/>
         <v>-6.4922000000000253</v>
       </c>
       <c r="AP20" s="6">
         <v>-4.12</v>
       </c>
       <c r="AQ20" s="4">
-        <f>AN20-AP20</f>
+        <f t="shared" si="2"/>
         <v>-2.7389000000000339</v>
       </c>
       <c r="AR20" s="4">
-        <f>AQ20^2</f>
+        <f t="shared" si="3"/>
         <v>7.5015732100001857</v>
       </c>
       <c r="AS20" s="4">
-        <f>AO20-AP20</f>
+        <f t="shared" si="4"/>
         <v>-2.3722000000000252</v>
       </c>
     </row>
@@ -11629,26 +11620,26 @@
         <v>5.0885999999999996</v>
       </c>
       <c r="AN21" s="6">
-        <f>(Y21+U21)-((AD21+K21)+(AI21+P21))</f>
+        <f t="shared" si="0"/>
         <v>-8.0904000000000167</v>
       </c>
       <c r="AO21" s="4">
-        <f>T21-(O21+J21)</f>
+        <f t="shared" si="1"/>
         <v>-8.1770000000000209</v>
       </c>
       <c r="AP21" s="6">
         <v>-3.36</v>
       </c>
       <c r="AQ21" s="4">
-        <f>AN21-AP21</f>
+        <f t="shared" si="2"/>
         <v>-4.7304000000000173</v>
       </c>
       <c r="AR21" s="4">
-        <f>AQ21^2</f>
+        <f t="shared" si="3"/>
         <v>22.376684160000163</v>
       </c>
       <c r="AS21" s="4">
-        <f>AO21-AP21</f>
+        <f t="shared" si="4"/>
         <v>-4.8170000000000215</v>
       </c>
     </row>
@@ -11771,26 +11762,26 @@
         <v>5.0010000000000003</v>
       </c>
       <c r="AN22" s="6">
-        <f>(Y22+U22)-((AD22+K22)+(AI22+P22))</f>
+        <f t="shared" si="0"/>
         <v>-14.715100000000007</v>
       </c>
       <c r="AO22" s="4">
-        <f>T22-(O22+J22)</f>
+        <f t="shared" si="1"/>
         <v>-12.937800000000038</v>
       </c>
       <c r="AP22" s="6">
         <v>-4.1900000000000004</v>
       </c>
       <c r="AQ22" s="4">
-        <f>AN22-AP22</f>
+        <f t="shared" si="2"/>
         <v>-10.525100000000005</v>
       </c>
       <c r="AR22" s="4">
-        <f>AQ22^2</f>
+        <f t="shared" si="3"/>
         <v>110.77773001000011</v>
       </c>
       <c r="AS22" s="4">
-        <f>AO22-AP22</f>
+        <f t="shared" si="4"/>
         <v>-8.7478000000000371</v>
       </c>
     </row>
@@ -11913,26 +11904,26 @@
         <v>5.0411999999999999</v>
       </c>
       <c r="AN23" s="6">
-        <f>(Y23+U23)-((AD23+K23)+(AI23+P23))</f>
+        <f t="shared" si="0"/>
         <v>-15.368400000000008</v>
       </c>
       <c r="AO23" s="4">
-        <f>T23-(O23+J23)</f>
+        <f t="shared" si="1"/>
         <v>-13.404199999999946</v>
       </c>
       <c r="AP23" s="6">
         <v>-4.4800000000000004</v>
       </c>
       <c r="AQ23" s="4">
-        <f>AN23-AP23</f>
+        <f t="shared" si="2"/>
         <v>-10.888400000000008</v>
       </c>
       <c r="AR23" s="4">
-        <f>AQ23^2</f>
+        <f t="shared" si="3"/>
         <v>118.55725456000017</v>
       </c>
       <c r="AS23" s="4">
-        <f>AO23-AP23</f>
+        <f t="shared" si="4"/>
         <v>-8.9241999999999457</v>
       </c>
     </row>
@@ -12055,26 +12046,26 @@
         <v>5.9501999999999997</v>
       </c>
       <c r="AN24" s="6">
-        <f>(Y24+U24)-((AD24+K24)+(AI24+P24))</f>
+        <f t="shared" si="0"/>
         <v>-5.9102000000000317</v>
       </c>
       <c r="AO24" s="4">
-        <f>T24-(O24+J24)</f>
+        <f t="shared" si="1"/>
         <v>-4.3869000000000824</v>
       </c>
       <c r="AP24" s="6">
         <v>0.6</v>
       </c>
       <c r="AQ24" s="4">
-        <f>AN24-AP24</f>
+        <f t="shared" si="2"/>
         <v>-6.5102000000000313</v>
       </c>
       <c r="AR24" s="4">
-        <f>AQ24^2</f>
+        <f t="shared" si="3"/>
         <v>42.382704040000405</v>
       </c>
       <c r="AS24" s="4">
-        <f>AO24-AP24</f>
+        <f t="shared" si="4"/>
         <v>-4.986900000000082</v>
       </c>
     </row>
@@ -12197,26 +12188,26 @@
         <v>5.9038000000000004</v>
       </c>
       <c r="AN25" s="6">
-        <f>(Y25+U25)-((AD25+K25)+(AI25+P25))</f>
+        <f t="shared" si="0"/>
         <v>-10.786999999999978</v>
       </c>
       <c r="AO25" s="4">
-        <f>T25-(O25+J25)</f>
+        <f t="shared" si="1"/>
         <v>-9.0574999999998909</v>
       </c>
       <c r="AP25" s="6">
         <v>-0.48</v>
       </c>
       <c r="AQ25" s="4">
-        <f>AN25-AP25</f>
+        <f t="shared" si="2"/>
         <v>-10.306999999999977</v>
       </c>
       <c r="AR25" s="4">
-        <f>AQ25^2</f>
+        <f t="shared" si="3"/>
         <v>106.23424899999954</v>
       </c>
       <c r="AS25" s="4">
-        <f>AO25-AP25</f>
+        <f t="shared" si="4"/>
         <v>-8.5774999999998904</v>
       </c>
     </row>
@@ -12339,26 +12330,26 @@
         <v>5.8501000000000003</v>
       </c>
       <c r="AN26" s="6">
-        <f>(Y26+U26)-((AD26+K26)+(AI26+P26))</f>
+        <f t="shared" si="0"/>
         <v>-9.8182999999999936</v>
       </c>
       <c r="AO26" s="4">
-        <f>T26-(O26+J26)</f>
+        <f t="shared" si="1"/>
         <v>-9.8949999999999818</v>
       </c>
       <c r="AP26" s="6">
         <v>-1.0900000000000001</v>
       </c>
       <c r="AQ26" s="4">
-        <f>AN26-AP26</f>
+        <f t="shared" si="2"/>
         <v>-8.7282999999999937</v>
       </c>
       <c r="AR26" s="4">
-        <f>AQ26^2</f>
+        <f t="shared" si="3"/>
         <v>76.183220889999888</v>
       </c>
       <c r="AS26" s="4">
-        <f>AO26-AP26</f>
+        <f t="shared" si="4"/>
         <v>-8.804999999999982</v>
       </c>
     </row>
@@ -12481,26 +12472,26 @@
         <v>5.8967999999999998</v>
       </c>
       <c r="AN27" s="6">
-        <f>(Y27+U27)-((AD27+K27)+(AI27+P27))</f>
+        <f t="shared" si="0"/>
         <v>-14.925299999999993</v>
       </c>
       <c r="AO27" s="4">
-        <f>T27-(O27+J27)</f>
+        <f t="shared" si="1"/>
         <v>-14.030700000000024</v>
       </c>
       <c r="AP27" s="6">
         <v>-2.17</v>
       </c>
       <c r="AQ27" s="4">
-        <f>AN27-AP27</f>
+        <f t="shared" si="2"/>
         <v>-12.755299999999993</v>
       </c>
       <c r="AR27" s="4">
-        <f>AQ27^2</f>
+        <f t="shared" si="3"/>
         <v>162.69767808999981</v>
       </c>
       <c r="AS27" s="4">
-        <f>AO27-AP27</f>
+        <f t="shared" si="4"/>
         <v>-11.860700000000024</v>
       </c>
     </row>
@@ -12623,26 +12614,26 @@
         <v>5.9642999999999997</v>
       </c>
       <c r="AN28" s="6">
-        <f>(Y28+U28)-((AD28+K28)+(AI28+P28))</f>
+        <f t="shared" si="0"/>
         <v>-13.955399999999997</v>
       </c>
       <c r="AO28" s="4">
-        <f>T28-(O28+J28)</f>
+        <f t="shared" si="1"/>
         <v>-13.839200000000005</v>
       </c>
       <c r="AP28" s="6">
         <v>-2.96</v>
       </c>
       <c r="AQ28" s="4">
-        <f>AN28-AP28</f>
+        <f t="shared" si="2"/>
         <v>-10.995399999999997</v>
       </c>
       <c r="AR28" s="4">
-        <f>AQ28^2</f>
+        <f t="shared" si="3"/>
         <v>120.89882115999993</v>
       </c>
       <c r="AS28" s="4">
-        <f>AO28-AP28</f>
+        <f t="shared" si="4"/>
         <v>-10.879200000000004</v>
       </c>
     </row>
@@ -12765,26 +12756,26 @@
         <v>5.9349999999999996</v>
       </c>
       <c r="AN29" s="6">
-        <f>(Y29+U29)-((AD29+K29)+(AI29+P29))</f>
+        <f t="shared" si="0"/>
         <v>-5.0058999999999685</v>
       </c>
       <c r="AO29" s="4">
-        <f>T29-(O29+J29)</f>
+        <f t="shared" si="1"/>
         <v>-5.6736999999999398</v>
       </c>
       <c r="AP29" s="6">
         <v>1.89</v>
       </c>
       <c r="AQ29" s="4">
-        <f>AN29-AP29</f>
+        <f t="shared" si="2"/>
         <v>-6.8958999999999682</v>
       </c>
       <c r="AR29" s="4">
-        <f>AQ29^2</f>
+        <f t="shared" si="3"/>
         <v>47.55343680999956</v>
       </c>
       <c r="AS29" s="4">
-        <f>AO29-AP29</f>
+        <f t="shared" si="4"/>
         <v>-7.5636999999999395</v>
       </c>
     </row>
@@ -12907,26 +12898,26 @@
         <v>5.8433000000000002</v>
       </c>
       <c r="AN30" s="6">
-        <f>(Y30+U30)-((AD30+K30)+(AI30+P30))</f>
+        <f t="shared" si="0"/>
         <v>-11.146199999999993</v>
       </c>
       <c r="AO30" s="4">
-        <f>T30-(O30+J30)</f>
+        <f t="shared" si="1"/>
         <v>-11.035399999999981</v>
       </c>
       <c r="AP30" s="6">
         <v>0.42</v>
       </c>
       <c r="AQ30" s="4">
-        <f>AN30-AP30</f>
+        <f t="shared" si="2"/>
         <v>-11.566199999999993</v>
       </c>
       <c r="AR30" s="4">
-        <f>AQ30^2</f>
+        <f t="shared" si="3"/>
         <v>133.77698243999984</v>
       </c>
       <c r="AS30" s="4">
-        <f>AO30-AP30</f>
+        <f t="shared" si="4"/>
         <v>-11.455399999999981</v>
       </c>
     </row>
@@ -13049,26 +13040,26 @@
         <v>5.8573000000000004</v>
       </c>
       <c r="AN31" s="6">
-        <f>(Y31+U31)-((AD31+K31)+(AI31+P31))</f>
+        <f t="shared" si="0"/>
         <v>-6.3048999999999751</v>
       </c>
       <c r="AO31" s="4">
-        <f>T31-(O31+J31)</f>
+        <f t="shared" si="1"/>
         <v>-6.9106999999999061</v>
       </c>
       <c r="AP31" s="6">
         <v>-2.5099999999999998</v>
       </c>
       <c r="AQ31" s="4">
-        <f>AN31-AP31</f>
+        <f t="shared" si="2"/>
         <v>-3.7948999999999753</v>
       </c>
       <c r="AR31" s="4">
-        <f>AQ31^2</f>
+        <f t="shared" si="3"/>
         <v>14.401266009999812</v>
       </c>
       <c r="AS31" s="4">
-        <f>AO31-AP31</f>
+        <f t="shared" si="4"/>
         <v>-4.4006999999999064</v>
       </c>
     </row>
@@ -13191,26 +13182,26 @@
         <v>5.9405000000000001</v>
       </c>
       <c r="AN32" s="6">
-        <f>(Y32+U32)-((AD32+K32)+(AI32+P32))</f>
+        <f t="shared" si="0"/>
         <v>-8.4523000000000366</v>
       </c>
       <c r="AO32" s="4">
-        <f>T32-(O32+J32)</f>
+        <f t="shared" si="1"/>
         <v>-10.615699999999947</v>
       </c>
       <c r="AP32" s="6">
         <v>-1.79</v>
       </c>
       <c r="AQ32" s="4">
-        <f>AN32-AP32</f>
+        <f t="shared" si="2"/>
         <v>-6.6623000000000365</v>
       </c>
       <c r="AR32" s="4">
-        <f>AQ32^2</f>
+        <f t="shared" si="3"/>
         <v>44.386241290000484</v>
       </c>
       <c r="AS32" s="4">
-        <f>AO32-AP32</f>
+        <f t="shared" si="4"/>
         <v>-8.8256999999999479</v>
       </c>
     </row>
@@ -13333,26 +13324,26 @@
         <v>5.9297000000000004</v>
       </c>
       <c r="AN33" s="6">
-        <f>(Y33+U33)-((AD33+K33)+(AI33+P33))</f>
+        <f t="shared" si="0"/>
         <v>-11.783499999999975</v>
       </c>
       <c r="AO33" s="4">
-        <f>T33-(O33+J33)</f>
+        <f t="shared" si="1"/>
         <v>-11.717699999999923</v>
       </c>
       <c r="AP33" s="6">
         <v>-2.89</v>
       </c>
       <c r="AQ33" s="4">
-        <f>AN33-AP33</f>
+        <f t="shared" si="2"/>
         <v>-8.8934999999999746</v>
       </c>
       <c r="AR33" s="4">
-        <f>AQ33^2</f>
+        <f t="shared" si="3"/>
         <v>79.094342249999542</v>
       </c>
       <c r="AS33" s="4">
-        <f>AO33-AP33</f>
+        <f t="shared" si="4"/>
         <v>-8.8276999999999219</v>
       </c>
     </row>
@@ -13475,26 +13466,26 @@
         <v>5.9691999999999998</v>
       </c>
       <c r="AN34" s="6">
-        <f>(Y34+U34)-((AD34+K34)+(AI34+P34))</f>
+        <f t="shared" ref="AN34:AN65" si="5">(Y34+U34)-((AD34+K34)+(AI34+P34))</f>
         <v>-8.0108999999999924</v>
       </c>
       <c r="AO34" s="4">
-        <f>T34-(O34+J34)</f>
+        <f t="shared" ref="AO34:AO65" si="6">T34-(O34+J34)</f>
         <v>-8.0243000000000393</v>
       </c>
       <c r="AP34" s="6">
         <v>-1.96</v>
       </c>
       <c r="AQ34" s="4">
-        <f>AN34-AP34</f>
+        <f t="shared" ref="AQ34:AQ65" si="7">AN34-AP34</f>
         <v>-6.0508999999999924</v>
       </c>
       <c r="AR34" s="4">
-        <f>AQ34^2</f>
+        <f t="shared" ref="AR34:AR65" si="8">AQ34^2</f>
         <v>36.613390809999906</v>
       </c>
       <c r="AS34" s="4">
-        <f>AO34-AP34</f>
+        <f t="shared" ref="AS34:AS65" si="9">AO34-AP34</f>
         <v>-6.0643000000000393</v>
       </c>
     </row>
@@ -13617,26 +13608,26 @@
         <v>5.8060999999999998</v>
       </c>
       <c r="AN35" s="6">
-        <f>(Y35+U35)-((AD35+K35)+(AI35+P35))</f>
+        <f t="shared" si="5"/>
         <v>-16.223900000000015</v>
       </c>
       <c r="AO35" s="4">
-        <f>T35-(O35+J35)</f>
+        <f t="shared" si="6"/>
         <v>-13.621700000000033</v>
       </c>
       <c r="AP35" s="6">
         <v>-2.82</v>
       </c>
       <c r="AQ35" s="4">
-        <f>AN35-AP35</f>
+        <f t="shared" si="7"/>
         <v>-13.403900000000014</v>
       </c>
       <c r="AR35" s="4">
-        <f>AQ35^2</f>
+        <f t="shared" si="8"/>
         <v>179.66453521000039</v>
       </c>
       <c r="AS35" s="4">
-        <f>AO35-AP35</f>
+        <f t="shared" si="9"/>
         <v>-10.801700000000032</v>
       </c>
     </row>
@@ -13759,26 +13750,26 @@
         <v>5.9852999999999996</v>
       </c>
       <c r="AN36" s="6">
-        <f>(Y36+U36)-((AD36+K36)+(AI36+P36))</f>
+        <f t="shared" si="5"/>
         <v>-6.2876000000000261</v>
       </c>
       <c r="AO36" s="4">
-        <f>T36-(O36+J36)</f>
+        <f t="shared" si="6"/>
         <v>-4.9225000000000136</v>
       </c>
       <c r="AP36" s="6">
         <v>0.47</v>
       </c>
       <c r="AQ36" s="4">
-        <f>AN36-AP36</f>
+        <f t="shared" si="7"/>
         <v>-6.7576000000000258</v>
       </c>
       <c r="AR36" s="4">
-        <f>AQ36^2</f>
+        <f t="shared" si="8"/>
         <v>45.665157760000348</v>
       </c>
       <c r="AS36" s="4">
-        <f>AO36-AP36</f>
+        <f t="shared" si="9"/>
         <v>-5.3925000000000134</v>
       </c>
     </row>
@@ -13901,26 +13892,26 @@
         <v>5.9335000000000004</v>
       </c>
       <c r="AN37" s="6">
-        <f>(Y37+U37)-((AD37+K37)+(AI37+P37))</f>
+        <f t="shared" si="5"/>
         <v>-4.8564999999999827</v>
       </c>
       <c r="AO37" s="4">
-        <f>T37-(O37+J37)</f>
+        <f t="shared" si="6"/>
         <v>-5.9461999999999762</v>
       </c>
       <c r="AP37" s="6">
         <v>0.88</v>
       </c>
       <c r="AQ37" s="4">
-        <f>AN37-AP37</f>
+        <f t="shared" si="7"/>
         <v>-5.7364999999999826</v>
       </c>
       <c r="AR37" s="4">
-        <f>AQ37^2</f>
+        <f t="shared" si="8"/>
         <v>32.9074322499998</v>
       </c>
       <c r="AS37" s="4">
-        <f>AO37-AP37</f>
+        <f t="shared" si="9"/>
         <v>-6.8261999999999761</v>
       </c>
     </row>
@@ -14043,26 +14034,26 @@
         <v>5.9482999999999997</v>
       </c>
       <c r="AN38" s="6">
-        <f>(Y38+U38)-((AD38+K38)+(AI38+P38))</f>
+        <f t="shared" si="5"/>
         <v>-13.800299999999993</v>
       </c>
       <c r="AO38" s="4">
-        <f>T38-(O38+J38)</f>
+        <f t="shared" si="6"/>
         <v>-12.992799999999988</v>
       </c>
       <c r="AP38" s="6">
         <v>-2.29</v>
       </c>
       <c r="AQ38" s="4">
-        <f>AN38-AP38</f>
+        <f t="shared" si="7"/>
         <v>-11.510299999999994</v>
       </c>
       <c r="AR38" s="4">
-        <f>AQ38^2</f>
+        <f t="shared" si="8"/>
         <v>132.48700608999985</v>
       </c>
       <c r="AS38" s="4">
-        <f>AO38-AP38</f>
+        <f t="shared" si="9"/>
         <v>-10.702799999999989</v>
       </c>
     </row>
@@ -14185,26 +14176,26 @@
         <v>5.8827999999999996</v>
       </c>
       <c r="AN39" s="6">
-        <f>(Y39+U39)-((AD39+K39)+(AI39+P39))</f>
+        <f t="shared" si="5"/>
         <v>-12.635399999999976</v>
       </c>
       <c r="AO39" s="4">
-        <f>T39-(O39+J39)</f>
+        <f t="shared" si="6"/>
         <v>-10.842399999999998</v>
       </c>
       <c r="AP39" s="6">
         <v>-2.27</v>
       </c>
       <c r="AQ39" s="4">
-        <f>AN39-AP39</f>
+        <f t="shared" si="7"/>
         <v>-10.365399999999976</v>
       </c>
       <c r="AR39" s="4">
-        <f>AQ39^2</f>
+        <f t="shared" si="8"/>
         <v>107.44151715999951</v>
       </c>
       <c r="AS39" s="4">
-        <f>AO39-AP39</f>
+        <f t="shared" si="9"/>
         <v>-8.5723999999999982</v>
       </c>
     </row>
@@ -14327,26 +14318,26 @@
         <v>5.9619999999999997</v>
       </c>
       <c r="AN40" s="6">
-        <f>(Y40+U40)-((AD40+K40)+(AI40+P40))</f>
+        <f t="shared" si="5"/>
         <v>-18.18210000000002</v>
       </c>
       <c r="AO40" s="4">
-        <f>T40-(O40+J40)</f>
+        <f t="shared" si="6"/>
         <v>-17.39260000000013</v>
       </c>
       <c r="AP40" s="6">
         <v>-3.92</v>
       </c>
       <c r="AQ40" s="4">
-        <f>AN40-AP40</f>
+        <f t="shared" si="7"/>
         <v>-14.26210000000002</v>
       </c>
       <c r="AR40" s="4">
-        <f>AQ40^2</f>
+        <f t="shared" si="8"/>
         <v>203.40749641000056</v>
       </c>
       <c r="AS40" s="4">
-        <f>AO40-AP40</f>
+        <f t="shared" si="9"/>
         <v>-13.47260000000013</v>
       </c>
     </row>
@@ -14469,26 +14460,26 @@
         <v>5.9329000000000001</v>
       </c>
       <c r="AN41" s="6">
-        <f>(Y41+U41)-((AD41+K41)+(AI41+P41))</f>
+        <f t="shared" si="5"/>
         <v>-6.9247000000000014</v>
       </c>
       <c r="AO41" s="4">
-        <f>T41-(O41+J41)</f>
+        <f t="shared" si="6"/>
         <v>-7.1435999999999922</v>
       </c>
       <c r="AP41" s="6">
         <v>1.31</v>
       </c>
       <c r="AQ41" s="4">
-        <f>AN41-AP41</f>
+        <f t="shared" si="7"/>
         <v>-8.2347000000000019</v>
       </c>
       <c r="AR41" s="4">
-        <f>AQ41^2</f>
+        <f t="shared" si="8"/>
         <v>67.810284090000025</v>
       </c>
       <c r="AS41" s="4">
-        <f>AO41-AP41</f>
+        <f t="shared" si="9"/>
         <v>-8.4535999999999927</v>
       </c>
     </row>
@@ -14611,26 +14602,26 @@
         <v>5.8441000000000001</v>
       </c>
       <c r="AN42" s="6">
-        <f>(Y42+U42)-((AD42+K42)+(AI42+P42))</f>
+        <f t="shared" si="5"/>
         <v>-10.939300000000003</v>
       </c>
       <c r="AO42" s="4">
-        <f>T42-(O42+J42)</f>
+        <f t="shared" si="6"/>
         <v>-10.276299999999992</v>
       </c>
       <c r="AP42" s="6">
         <v>-2.75</v>
       </c>
       <c r="AQ42" s="4">
-        <f>AN42-AP42</f>
+        <f t="shared" si="7"/>
         <v>-8.1893000000000029</v>
       </c>
       <c r="AR42" s="4">
-        <f>AQ42^2</f>
+        <f t="shared" si="8"/>
         <v>67.064634490000046</v>
       </c>
       <c r="AS42" s="4">
-        <f>AO42-AP42</f>
+        <f t="shared" si="9"/>
         <v>-7.526299999999992</v>
       </c>
     </row>
@@ -14753,26 +14744,26 @@
         <v>5.9009</v>
       </c>
       <c r="AN43" s="6">
-        <f>(Y43+U43)-((AD43+K43)+(AI43+P43))</f>
+        <f t="shared" si="5"/>
         <v>-8.7254000000000076</v>
       </c>
       <c r="AO43" s="4">
-        <f>T43-(O43+J43)</f>
+        <f t="shared" si="6"/>
         <v>-9.0150999999999613</v>
       </c>
       <c r="AP43" s="6">
         <v>-2.93</v>
       </c>
       <c r="AQ43" s="4">
-        <f>AN43-AP43</f>
+        <f t="shared" si="7"/>
         <v>-5.7954000000000079</v>
       </c>
       <c r="AR43" s="4">
-        <f>AQ43^2</f>
+        <f t="shared" si="8"/>
         <v>33.586661160000091</v>
       </c>
       <c r="AS43" s="4">
-        <f>AO43-AP43</f>
+        <f t="shared" si="9"/>
         <v>-6.0850999999999615</v>
       </c>
     </row>
@@ -14895,26 +14886,26 @@
         <v>5.883</v>
       </c>
       <c r="AN44" s="6">
-        <f>(Y44+U44)-((AD44+K44)+(AI44+P44))</f>
+        <f t="shared" si="5"/>
         <v>-14.957400000000007</v>
       </c>
       <c r="AO44" s="4">
-        <f>T44-(O44+J44)</f>
+        <f t="shared" si="6"/>
         <v>-13.537900000000036</v>
       </c>
       <c r="AP44" s="6">
         <v>-2.25</v>
       </c>
       <c r="AQ44" s="4">
-        <f>AN44-AP44</f>
+        <f t="shared" si="7"/>
         <v>-12.707400000000007</v>
       </c>
       <c r="AR44" s="4">
-        <f>AQ44^2</f>
+        <f t="shared" si="8"/>
         <v>161.47801476000018</v>
       </c>
       <c r="AS44" s="4">
-        <f>AO44-AP44</f>
+        <f t="shared" si="9"/>
         <v>-11.287900000000036</v>
       </c>
     </row>
@@ -15037,26 +15028,26 @@
         <v>8.5547000000000004</v>
       </c>
       <c r="AN45" s="6">
-        <f>(Y45+U45)-((AD45+K45)+(AI45+P45))</f>
+        <f t="shared" si="5"/>
         <v>-12.082199999999943</v>
       </c>
       <c r="AO45" s="4">
-        <f>T45-(O45+J45)</f>
+        <f t="shared" si="6"/>
         <v>-10.400399999999991</v>
       </c>
       <c r="AP45" s="6">
         <v>-9.9610000000000003</v>
       </c>
       <c r="AQ45" s="4">
-        <f>AN45-AP45</f>
+        <f t="shared" si="7"/>
         <v>-2.1211999999999431</v>
       </c>
       <c r="AR45" s="4">
-        <f>AQ45^2</f>
+        <f t="shared" si="8"/>
         <v>4.4994894399997589</v>
       </c>
       <c r="AS45" s="4">
-        <f>AO45-AP45</f>
+        <f t="shared" si="9"/>
         <v>-0.43939999999999024</v>
       </c>
     </row>
@@ -15179,26 +15170,26 @@
         <v>8.5681999999999992</v>
       </c>
       <c r="AN46" s="6">
-        <f>(Y46+U46)-((AD46+K46)+(AI46+P46))</f>
+        <f t="shared" si="5"/>
         <v>-14.964399999999955</v>
       </c>
       <c r="AO46" s="4">
-        <f>T46-(O46+J46)</f>
+        <f t="shared" si="6"/>
         <v>-12.048399999999901</v>
       </c>
       <c r="AP46" s="6">
         <v>-9.1</v>
       </c>
       <c r="AQ46" s="4">
-        <f>AN46-AP46</f>
+        <f t="shared" si="7"/>
         <v>-5.8643999999999554</v>
       </c>
       <c r="AR46" s="4">
-        <f>AQ46^2</f>
+        <f t="shared" si="8"/>
         <v>34.391187359999478</v>
       </c>
       <c r="AS46" s="4">
-        <f>AO46-AP46</f>
+        <f t="shared" si="9"/>
         <v>-2.9483999999999018</v>
       </c>
     </row>
@@ -15321,26 +15312,26 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="AN47" s="6">
-        <f>(Y47+U47)-((AD47+K47)+(AI47+P47))</f>
+        <f t="shared" si="5"/>
         <v>-9.9968000000000075</v>
       </c>
       <c r="AO47" s="4">
-        <f>T47-(O47+J47)</f>
+        <f t="shared" si="6"/>
         <v>-8.206000000000131</v>
       </c>
       <c r="AP47" s="6">
         <v>-7.6</v>
       </c>
       <c r="AQ47" s="4">
-        <f>AN47-AP47</f>
+        <f t="shared" si="7"/>
         <v>-2.3968000000000078</v>
       </c>
       <c r="AR47" s="4">
-        <f>AQ47^2</f>
+        <f t="shared" si="8"/>
         <v>5.7446502400000377</v>
       </c>
       <c r="AS47" s="4">
-        <f>AO47-AP47</f>
+        <f t="shared" si="9"/>
         <v>-0.60600000000013132</v>
       </c>
     </row>
@@ -15463,26 +15454,26 @@
         <v>8.6836000000000002</v>
       </c>
       <c r="AN48" s="6">
-        <f>(Y48+U48)-((AD48+K48)+(AI48+P48))</f>
+        <f t="shared" si="5"/>
         <v>-20.852200000000039</v>
       </c>
       <c r="AO48" s="4">
-        <f>T48-(O48+J48)</f>
+        <f t="shared" si="6"/>
         <v>-17.612799999999879</v>
       </c>
       <c r="AP48" s="6">
         <v>-6.62</v>
       </c>
       <c r="AQ48" s="4">
-        <f>AN48-AP48</f>
+        <f t="shared" si="7"/>
         <v>-14.232200000000038</v>
       </c>
       <c r="AR48" s="4">
-        <f>AQ48^2</f>
+        <f t="shared" si="8"/>
         <v>202.55551684000108</v>
       </c>
       <c r="AS48" s="4">
-        <f>AO48-AP48</f>
+        <f t="shared" si="9"/>
         <v>-10.992799999999878</v>
       </c>
     </row>
@@ -15605,26 +15596,26 @@
         <v>8.4765999999999995</v>
       </c>
       <c r="AN49" s="6">
-        <f>(Y49+U49)-((AD49+K49)+(AI49+P49))</f>
+        <f t="shared" si="5"/>
         <v>-13.271799999999985</v>
       </c>
       <c r="AO49" s="4">
-        <f>T49-(O49+J49)</f>
+        <f t="shared" si="6"/>
         <v>-11.71040000000005</v>
       </c>
       <c r="AP49" s="6">
         <v>-7.71</v>
       </c>
       <c r="AQ49" s="4">
-        <f>AN49-AP49</f>
+        <f t="shared" si="7"/>
         <v>-5.5617999999999848</v>
       </c>
       <c r="AR49" s="4">
-        <f>AQ49^2</f>
+        <f t="shared" si="8"/>
         <v>30.933619239999832</v>
       </c>
       <c r="AS49" s="4">
-        <f>AO49-AP49</f>
+        <f t="shared" si="9"/>
         <v>-4.0004000000000497</v>
       </c>
     </row>
@@ -15747,26 +15738,26 @@
         <v>8.4456000000000007</v>
       </c>
       <c r="AN50" s="6">
-        <f>(Y50+U50)-((AD50+K50)+(AI50+P50))</f>
+        <f t="shared" si="5"/>
         <v>-12.946899999999914</v>
       </c>
       <c r="AO50" s="4">
-        <f>T50-(O50+J50)</f>
+        <f t="shared" si="6"/>
         <v>-11.727399999999989</v>
       </c>
       <c r="AP50" s="6">
         <v>-5.67</v>
       </c>
       <c r="AQ50" s="4">
-        <f>AN50-AP50</f>
+        <f t="shared" si="7"/>
         <v>-7.2768999999999142</v>
       </c>
       <c r="AR50" s="4">
-        <f>AQ50^2</f>
+        <f t="shared" si="8"/>
         <v>52.953273609998753</v>
       </c>
       <c r="AS50" s="4">
-        <f>AO50-AP50</f>
+        <f t="shared" si="9"/>
         <v>-6.0573999999999888</v>
       </c>
     </row>
@@ -15889,26 +15880,26 @@
         <v>8.5954999999999995</v>
       </c>
       <c r="AN51" s="6">
-        <f>(Y51+U51)-((AD51+K51)+(AI51+P51))</f>
+        <f t="shared" si="5"/>
         <v>-9.4666999999999462</v>
       </c>
       <c r="AO51" s="4">
-        <f>T51-(O51+J51)</f>
+        <f t="shared" si="6"/>
         <v>-7.1363999999999805</v>
       </c>
       <c r="AP51" s="6">
         <v>-4.45</v>
       </c>
       <c r="AQ51" s="4">
-        <f>AN51-AP51</f>
+        <f t="shared" si="7"/>
         <v>-5.016699999999946</v>
       </c>
       <c r="AR51" s="4">
-        <f>AQ51^2</f>
+        <f t="shared" si="8"/>
         <v>25.167278889999459</v>
       </c>
       <c r="AS51" s="4">
-        <f>AO51-AP51</f>
+        <f t="shared" si="9"/>
         <v>-2.6863999999999804</v>
       </c>
     </row>
@@ -16031,26 +16022,26 @@
         <v>8.5130999999999997</v>
       </c>
       <c r="AN52" s="6">
-        <f>(Y52+U52)-((AD52+K52)+(AI52+P52))</f>
+        <f t="shared" si="5"/>
         <v>-16.228399999999965</v>
       </c>
       <c r="AO52" s="4">
-        <f>T52-(O52+J52)</f>
+        <f t="shared" si="6"/>
         <v>-15.700900000000047</v>
       </c>
       <c r="AP52" s="6">
         <v>-14.78</v>
       </c>
       <c r="AQ52" s="4">
-        <f>AN52-AP52</f>
+        <f t="shared" si="7"/>
         <v>-1.4483999999999657</v>
       </c>
       <c r="AR52" s="4">
-        <f>AQ52^2</f>
+        <f t="shared" si="8"/>
         <v>2.0978625599999008</v>
       </c>
       <c r="AS52" s="4">
-        <f>AO52-AP52</f>
+        <f t="shared" si="9"/>
         <v>-0.92090000000004757</v>
       </c>
     </row>
@@ -16173,26 +16164,26 @@
         <v>8.4751999999999992</v>
       </c>
       <c r="AN53" s="6">
-        <f>(Y53+U53)-((AD53+K53)+(AI53+P53))</f>
+        <f t="shared" si="5"/>
         <v>-17.908900000000017</v>
       </c>
       <c r="AO53" s="4">
-        <f>T53-(O53+J53)</f>
+        <f t="shared" si="6"/>
         <v>-15.748200000000111</v>
       </c>
       <c r="AP53" s="6">
         <v>-5.91</v>
       </c>
       <c r="AQ53" s="4">
-        <f>AN53-AP53</f>
+        <f t="shared" si="7"/>
         <v>-11.998900000000017</v>
       </c>
       <c r="AR53" s="4">
-        <f>AQ53^2</f>
+        <f t="shared" si="8"/>
         <v>143.9736012100004</v>
       </c>
       <c r="AS53" s="4">
-        <f>AO53-AP53</f>
+        <f t="shared" si="9"/>
         <v>-9.8382000000001106</v>
       </c>
     </row>
@@ -16315,26 +16306,26 @@
         <v>8.5703999999999994</v>
       </c>
       <c r="AN54" s="6">
-        <f>(Y54+U54)-((AD54+K54)+(AI54+P54))</f>
+        <f t="shared" si="5"/>
         <v>-19.87360000000001</v>
       </c>
       <c r="AO54" s="4">
-        <f>T54-(O54+J54)</f>
+        <f t="shared" si="6"/>
         <v>-17.373299999999972</v>
       </c>
       <c r="AP54" s="6">
         <v>-9.9600000000000009</v>
       </c>
       <c r="AQ54" s="4">
-        <f>AN54-AP54</f>
+        <f t="shared" si="7"/>
         <v>-9.9136000000000095</v>
       </c>
       <c r="AR54" s="4">
-        <f>AQ54^2</f>
+        <f t="shared" si="8"/>
         <v>98.279464960000183</v>
       </c>
       <c r="AS54" s="4">
-        <f>AO54-AP54</f>
+        <f t="shared" si="9"/>
         <v>-7.4132999999999711</v>
       </c>
     </row>
@@ -16457,26 +16448,26 @@
         <v>8.3657000000000004</v>
       </c>
       <c r="AN55" s="6">
-        <f>(Y55+U55)-((AD55+K55)+(AI55+P55))</f>
+        <f t="shared" si="5"/>
         <v>-10.017799999999966</v>
       </c>
       <c r="AO55" s="4">
-        <f>T55-(O55+J55)</f>
+        <f t="shared" si="6"/>
         <v>-9.1763000000000829</v>
       </c>
       <c r="AP55" s="4">
         <v>-7.69</v>
       </c>
       <c r="AQ55" s="4">
-        <f>AN55-AP55</f>
+        <f t="shared" si="7"/>
         <v>-2.3277999999999652</v>
       </c>
       <c r="AR55" s="4">
-        <f>AQ55^2</f>
+        <f t="shared" si="8"/>
         <v>5.4186528399998384</v>
       </c>
       <c r="AS55" s="4">
-        <f>AO55-AP55</f>
+        <f t="shared" si="9"/>
         <v>-1.4863000000000826</v>
       </c>
     </row>
@@ -16599,26 +16590,26 @@
         <v>8.3838000000000008</v>
       </c>
       <c r="AN56" s="6">
-        <f>(Y56+U56)-((AD56+K56)+(AI56+P56))</f>
+        <f t="shared" si="5"/>
         <v>-9.221599999999853</v>
       </c>
       <c r="AO56" s="4">
-        <f>T56-(O56+J56)</f>
+        <f t="shared" si="6"/>
         <v>-7.4032000000000835</v>
       </c>
       <c r="AP56" s="4">
         <v>-4.3899999999999997</v>
       </c>
       <c r="AQ56" s="4">
-        <f>AN56-AP56</f>
+        <f t="shared" si="7"/>
         <v>-4.8315999999998533</v>
       </c>
       <c r="AR56" s="4">
-        <f>AQ56^2</f>
+        <f t="shared" si="8"/>
         <v>23.344358559998582</v>
       </c>
       <c r="AS56" s="4">
-        <f>AO56-AP56</f>
+        <f t="shared" si="9"/>
         <v>-3.0132000000000838</v>
       </c>
     </row>
@@ -16741,26 +16732,26 @@
         <v>8.3998000000000008</v>
       </c>
       <c r="AN57" s="6">
-        <f>(Y57+U57)-((AD57+K57)+(AI57+P57))</f>
+        <f t="shared" si="5"/>
         <v>-21.213699999999903</v>
       </c>
       <c r="AO57" s="4">
-        <f>T57-(O57+J57)</f>
+        <f t="shared" si="6"/>
         <v>-17.778600000000097</v>
       </c>
       <c r="AP57" s="4">
         <v>-5.93</v>
       </c>
       <c r="AQ57" s="4">
-        <f>AN57-AP57</f>
+        <f t="shared" si="7"/>
         <v>-15.283699999999904</v>
       </c>
       <c r="AR57" s="4">
-        <f>AQ57^2</f>
+        <f t="shared" si="8"/>
         <v>233.59148568999706</v>
       </c>
       <c r="AS57" s="4">
-        <f>AO57-AP57</f>
+        <f t="shared" si="9"/>
         <v>-11.848600000000097</v>
       </c>
     </row>
@@ -16883,26 +16874,26 @@
         <v>8.3952000000000009</v>
       </c>
       <c r="AN58" s="6">
-        <f>(Y58+U58)-((AD58+K58)+(AI58+P58))</f>
+        <f t="shared" si="5"/>
         <v>-20.824500000000057</v>
       </c>
       <c r="AO58" s="4">
-        <f>T58-(O58+J58)</f>
+        <f t="shared" si="6"/>
         <v>-18.650399999999991</v>
       </c>
       <c r="AP58" s="4">
         <v>-14.8</v>
       </c>
       <c r="AQ58" s="4">
-        <f>AN58-AP58</f>
+        <f t="shared" si="7"/>
         <v>-6.0245000000000566</v>
       </c>
       <c r="AR58" s="4">
-        <f>AQ58^2</f>
+        <f t="shared" si="8"/>
         <v>36.294600250000684</v>
       </c>
       <c r="AS58" s="4">
-        <f>AO58-AP58</f>
+        <f t="shared" si="9"/>
         <v>-3.8503999999999898</v>
       </c>
     </row>
@@ -17025,26 +17016,26 @@
         <v>8.3994999999999997</v>
       </c>
       <c r="AN59" s="6">
-        <f>(Y59+U59)-((AD59+K59)+(AI59+P59))</f>
+        <f t="shared" si="5"/>
         <v>-18.569799999999987</v>
       </c>
       <c r="AO59" s="4">
-        <f>T59-(O59+J59)</f>
+        <f t="shared" si="6"/>
         <v>-15.46449999999993</v>
       </c>
       <c r="AP59" s="4">
         <v>-9.9</v>
       </c>
       <c r="AQ59" s="4">
-        <f>AN59-AP59</f>
+        <f t="shared" si="7"/>
         <v>-8.6697999999999862</v>
       </c>
       <c r="AR59" s="4">
-        <f>AQ59^2</f>
+        <f t="shared" si="8"/>
         <v>75.165432039999757</v>
       </c>
       <c r="AS59" s="4">
-        <f>AO59-AP59</f>
+        <f t="shared" si="9"/>
         <v>-5.5644999999999296</v>
       </c>
     </row>
@@ -17167,26 +17158,26 @@
         <v>8.3998000000000008</v>
       </c>
       <c r="AN60" s="6">
-        <f>(Y60+U60)-((AD60+K60)+(AI60+P60))</f>
+        <f t="shared" si="5"/>
         <v>-6.6464999999999463</v>
       </c>
       <c r="AO60" s="4">
-        <f>T60-(O60+J60)</f>
+        <f t="shared" si="6"/>
         <v>-5.9977999999999838</v>
       </c>
       <c r="AP60" s="4">
         <v>-5.67</v>
       </c>
       <c r="AQ60" s="4">
-        <f>AN60-AP60</f>
+        <f t="shared" si="7"/>
         <v>-0.97649999999994641</v>
       </c>
       <c r="AR60" s="4">
-        <f>AQ60^2</f>
+        <f t="shared" si="8"/>
         <v>0.9535522499998953</v>
       </c>
       <c r="AS60" s="4">
-        <f>AO60-AP60</f>
+        <f t="shared" si="9"/>
         <v>-0.32779999999998388</v>
       </c>
     </row>
@@ -17309,26 +17300,26 @@
         <v>8.6559000000000008</v>
       </c>
       <c r="AN61" s="6">
-        <f>(Y61+U61)-((AD61+K61)+(AI61+P61))</f>
+        <f t="shared" si="5"/>
         <v>-9.0234000000000378</v>
       </c>
       <c r="AO61" s="4">
-        <f>T61-(O61+J61)</f>
+        <f t="shared" si="6"/>
         <v>-7.5770999999999731</v>
       </c>
       <c r="AP61" s="4">
         <v>-9.9600000000000009</v>
       </c>
       <c r="AQ61" s="4">
-        <f>AN61-AP61</f>
+        <f t="shared" si="7"/>
         <v>0.93659999999996302</v>
       </c>
       <c r="AR61" s="4">
-        <f>AQ61^2</f>
+        <f t="shared" si="8"/>
         <v>0.87721955999993073</v>
       </c>
       <c r="AS61" s="4">
-        <f>AO61-AP61</f>
+        <f t="shared" si="9"/>
         <v>2.3829000000000278</v>
       </c>
     </row>
@@ -17451,26 +17442,26 @@
         <v>8.6312999999999995</v>
       </c>
       <c r="AN62" s="6">
-        <f>(Y62+U62)-((AD62+K62)+(AI62+P62))</f>
+        <f t="shared" si="5"/>
         <v>-2.3246000000000322</v>
       </c>
       <c r="AO62" s="4">
-        <f>T62-(O62+J62)</f>
+        <f t="shared" si="6"/>
         <v>-4.5299999999997453E-2</v>
       </c>
       <c r="AP62" s="4">
         <v>-7.56</v>
       </c>
       <c r="AQ62" s="4">
-        <f>AN62-AP62</f>
+        <f t="shared" si="7"/>
         <v>5.2353999999999674</v>
       </c>
       <c r="AR62" s="4">
-        <f>AQ62^2</f>
+        <f t="shared" si="8"/>
         <v>27.409413159999659</v>
       </c>
       <c r="AS62" s="4">
-        <f>AO62-AP62</f>
+        <f t="shared" si="9"/>
         <v>7.5147000000000022</v>
       </c>
     </row>
@@ -17593,26 +17584,26 @@
         <v>8.6821000000000002</v>
       </c>
       <c r="AN63" s="6">
-        <f>(Y63+U63)-((AD63+K63)+(AI63+P63))</f>
+        <f t="shared" si="5"/>
         <v>-7.2354000000000269</v>
       </c>
       <c r="AO63" s="4">
-        <f>T63-(O63+J63)</f>
+        <f t="shared" si="6"/>
         <v>-4.4827999999999975</v>
       </c>
       <c r="AP63" s="4">
         <v>-9.0500000000000007</v>
       </c>
       <c r="AQ63" s="4">
-        <f>AN63-AP63</f>
+        <f t="shared" si="7"/>
         <v>1.8145999999999738</v>
       </c>
       <c r="AR63" s="4">
-        <f>AQ63^2</f>
+        <f t="shared" si="8"/>
         <v>3.2927731599999048</v>
       </c>
       <c r="AS63" s="4">
-        <f>AO63-AP63</f>
+        <f t="shared" si="9"/>
         <v>4.5672000000000033</v>
       </c>
     </row>
@@ -17621,13 +17612,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -17735,26 +17726,26 @@
         <v>8.3316999999999997</v>
       </c>
       <c r="AN64" s="6">
-        <f>(Y64+U64)-((AD64+K64)+(AI64+P64))</f>
+        <f t="shared" si="5"/>
         <v>-3.5323999999999387</v>
       </c>
       <c r="AO64" s="4">
-        <f>T64-(O64+J64)</f>
+        <f t="shared" si="6"/>
         <v>-1.1894999999999527</v>
       </c>
       <c r="AP64" s="20">
         <v>-5.3</v>
       </c>
       <c r="AQ64" s="4">
-        <f>AN64-AP64</f>
+        <f t="shared" si="7"/>
         <v>1.7676000000000611</v>
       </c>
       <c r="AR64" s="4">
-        <f>AQ64^2</f>
+        <f t="shared" si="8"/>
         <v>3.1244097600002161</v>
       </c>
       <c r="AS64" s="4">
-        <f>AO64-AP64</f>
+        <f t="shared" si="9"/>
         <v>4.1105000000000471</v>
       </c>
     </row>
@@ -17763,13 +17754,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>8</v>
@@ -17877,26 +17868,26 @@
         <v>8.7114999999999991</v>
       </c>
       <c r="AN65" s="6">
-        <f>(Y65+U65)-((AD65+K65)+(AI65+P65))</f>
+        <f t="shared" si="5"/>
         <v>-9.4620000000001028</v>
       </c>
       <c r="AO65" s="4">
-        <f>T65-(O65+J65)</f>
+        <f t="shared" si="6"/>
         <v>-7.3237000000001444</v>
       </c>
       <c r="AP65" s="20">
         <v>-8.1999999999999993</v>
       </c>
       <c r="AQ65" s="4">
-        <f>AN65-AP65</f>
+        <f t="shared" si="7"/>
         <v>-1.2620000000001035</v>
       </c>
       <c r="AR65" s="4">
-        <f>AQ65^2</f>
+        <f t="shared" si="8"/>
         <v>1.5926440000002613</v>
       </c>
       <c r="AS65" s="4">
-        <f>AO65-AP65</f>
+        <f t="shared" si="9"/>
         <v>0.87629999999985486</v>
       </c>
     </row>
@@ -17905,9 +17896,9 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>117</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -17916,13 +17907,13 @@
       <c r="E66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="27">
+      <c r="F66" s="22">
         <v>-8.18</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="22">
         <v>-3.2</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -18019,26 +18010,26 @@
         <v>6.2079000000000004</v>
       </c>
       <c r="AN66" s="6">
-        <f>(Y66+U66)-((AD66+K66)+(AI66+P66))</f>
+        <f t="shared" ref="AN66:AN73" si="10">(Y66+U66)-((AD66+K66)+(AI66+P66))</f>
         <v>-23.958100000000059</v>
       </c>
       <c r="AO66" s="4">
-        <f>T66-(O66+J66)</f>
+        <f t="shared" ref="AO66:AO73" si="11">T66-(O66+J66)</f>
         <v>-18.562199999999848</v>
       </c>
-      <c r="AP66" s="27">
+      <c r="AP66" s="22">
         <v>-3.2</v>
       </c>
       <c r="AQ66" s="4">
-        <f>AN66-AP66</f>
+        <f t="shared" ref="AQ66:AQ97" si="12">AN66-AP66</f>
         <v>-20.758100000000059</v>
       </c>
       <c r="AR66" s="4">
-        <f>AQ66^2</f>
+        <f t="shared" ref="AR66:AR97" si="13">AQ66^2</f>
         <v>430.89871561000245</v>
       </c>
       <c r="AS66" s="4">
-        <f>AO66-AP66</f>
+        <f t="shared" ref="AS66:AS74" si="14">AO66-AP66</f>
         <v>-15.362199999999849</v>
       </c>
     </row>
@@ -18047,7 +18038,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>118</v>
@@ -18161,26 +18152,26 @@
         <v>6.2785000000000002</v>
       </c>
       <c r="AN67" s="6">
-        <f>(Y67+U67)-((AD67+K67)+(AI67+P67))</f>
+        <f t="shared" si="10"/>
         <v>-15.222499999999854</v>
       </c>
       <c r="AO67" s="4">
-        <f>T67-(O67+J67)</f>
+        <f t="shared" si="11"/>
         <v>-9.9966999999999189</v>
       </c>
       <c r="AP67" s="20">
         <v>-5.7</v>
       </c>
       <c r="AQ67" s="4">
-        <f>AN67-AP67</f>
+        <f t="shared" si="12"/>
         <v>-9.5224999999998552</v>
       </c>
       <c r="AR67" s="4">
-        <f>AQ67^2</f>
+        <f t="shared" si="13"/>
         <v>90.678006249997239</v>
       </c>
       <c r="AS67" s="4">
-        <f>AO67-AP67</f>
+        <f t="shared" si="14"/>
         <v>-4.2966999999999187</v>
       </c>
     </row>
@@ -18189,7 +18180,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>119</v>
@@ -18303,26 +18294,26 @@
         <v>6.2877000000000001</v>
       </c>
       <c r="AN68" s="6">
-        <f>(Y68+U68)-((AD68+K68)+(AI68+P68))</f>
+        <f t="shared" si="10"/>
         <v>-24.127099999999928</v>
       </c>
       <c r="AO68" s="4">
-        <f>T68-(O68+J68)</f>
+        <f t="shared" si="11"/>
         <v>-19.316299999999956</v>
       </c>
       <c r="AP68" s="20">
         <v>-6.5</v>
       </c>
       <c r="AQ68" s="4">
-        <f>AN68-AP68</f>
+        <f t="shared" si="12"/>
         <v>-17.627099999999928</v>
       </c>
       <c r="AR68" s="4">
-        <f>AQ68^2</f>
+        <f t="shared" si="13"/>
         <v>310.71465440999742</v>
       </c>
       <c r="AS68" s="4">
-        <f>AO68-AP68</f>
+        <f t="shared" si="14"/>
         <v>-12.816299999999956</v>
       </c>
     </row>
@@ -18331,7 +18322,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>120</v>
@@ -18445,26 +18436,26 @@
         <v>6.2084000000000001</v>
       </c>
       <c r="AN69" s="6">
-        <f>(Y69+U69)-((AD69+K69)+(AI69+P69))</f>
+        <f t="shared" si="10"/>
         <v>-23.934099999999944</v>
       </c>
       <c r="AO69" s="4">
-        <f>T69-(O69+J69)</f>
+        <f t="shared" si="11"/>
         <v>-19.875900000000001</v>
       </c>
       <c r="AP69" s="20">
         <v>-14.4</v>
       </c>
       <c r="AQ69" s="4">
-        <f>AN69-AP69</f>
+        <f t="shared" si="12"/>
         <v>-9.5340999999999436</v>
       </c>
       <c r="AR69" s="4">
-        <f>AQ69^2</f>
+        <f t="shared" si="13"/>
         <v>90.899062809998924</v>
       </c>
       <c r="AS69" s="4">
-        <f>AO69-AP69</f>
+        <f t="shared" si="14"/>
         <v>-5.4759000000000011</v>
       </c>
     </row>
@@ -18473,7 +18464,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>121</v>
@@ -18587,26 +18578,26 @@
         <v>6.2229999999999999</v>
       </c>
       <c r="AN70" s="6">
-        <f>(Y70+U70)-((AD70+K70)+(AI70+P70))</f>
+        <f t="shared" si="10"/>
         <v>-21.955500000000029</v>
       </c>
       <c r="AO70" s="4">
-        <f>T70-(O70+J70)</f>
+        <f t="shared" si="11"/>
         <v>-11.366600000000062</v>
       </c>
       <c r="AP70" s="20">
         <v>-4.5999999999999996</v>
       </c>
       <c r="AQ70" s="4">
-        <f>AN70-AP70</f>
+        <f t="shared" si="12"/>
         <v>-17.355500000000028</v>
       </c>
       <c r="AR70" s="4">
-        <f>AQ70^2</f>
+        <f t="shared" si="13"/>
         <v>301.21338025000097</v>
       </c>
       <c r="AS70" s="4">
-        <f>AO70-AP70</f>
+        <f t="shared" si="14"/>
         <v>-6.7666000000000626</v>
       </c>
     </row>
@@ -18615,7 +18606,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>122</v>
@@ -18729,26 +18720,26 @@
         <v>6.2481</v>
       </c>
       <c r="AN71" s="6">
-        <f>(Y71+U71)-((AD71+K71)+(AI71+P71))</f>
+        <f t="shared" si="10"/>
         <v>-21.786800000000085</v>
       </c>
       <c r="AO71" s="4">
-        <f>T71-(O71+J71)</f>
+        <f t="shared" si="11"/>
         <v>-16.190700000000106</v>
       </c>
       <c r="AP71" s="20">
         <v>-2</v>
       </c>
       <c r="AQ71" s="4">
-        <f>AN71-AP71</f>
+        <f t="shared" si="12"/>
         <v>-19.786800000000085</v>
       </c>
       <c r="AR71" s="4">
-        <f>AQ71^2</f>
+        <f t="shared" si="13"/>
         <v>391.51745424000336</v>
       </c>
       <c r="AS71" s="4">
-        <f>AO71-AP71</f>
+        <f t="shared" si="14"/>
         <v>-14.190700000000106</v>
       </c>
     </row>
@@ -18757,7 +18748,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>123</v>
@@ -18871,26 +18862,26 @@
         <v>6.2942</v>
       </c>
       <c r="AN72" s="6">
-        <f>(Y72+U72)-((AD72+K72)+(AI72+P72))</f>
+        <f t="shared" si="10"/>
         <v>-12.856099999999969</v>
       </c>
       <c r="AO72" s="4">
-        <f>T72-(O72+J72)</f>
+        <f t="shared" si="11"/>
         <v>-12.532900000000154</v>
       </c>
       <c r="AP72" s="20">
         <v>-2.11</v>
       </c>
       <c r="AQ72" s="4">
-        <f>AN72-AP72</f>
+        <f t="shared" si="12"/>
         <v>-10.74609999999997</v>
       </c>
       <c r="AR72" s="4">
-        <f>AQ72^2</f>
+        <f t="shared" si="13"/>
         <v>115.47866520999935</v>
       </c>
       <c r="AS72" s="4">
-        <f>AO72-AP72</f>
+        <f t="shared" si="14"/>
         <v>-10.422900000000155</v>
       </c>
     </row>
@@ -18899,25 +18890,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="F73" s="20">
-        <v>-9.86</v>
+        <v>-7.05</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H73" s="20">
-        <v>-9.1999999999999993</v>
+        <v>-4.8</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>95</v>
@@ -19013,59 +19004,27 @@
         <v>6.2167000000000003</v>
       </c>
       <c r="AN73" s="6">
-        <f>(Y73+U73)-((AD73+K73)+(AI73+P73))</f>
+        <f t="shared" si="10"/>
         <v>0.19650000000001455</v>
       </c>
       <c r="AO73" s="4">
-        <f>T73-(O73+J73)</f>
+        <f t="shared" si="11"/>
         <v>3.4289999999998599</v>
       </c>
       <c r="AP73" s="20">
-        <v>-9.1999999999999993</v>
+        <v>-4.8</v>
       </c>
       <c r="AQ73" s="4">
-        <f>AN73-AP73</f>
-        <v>9.3965000000000138</v>
+        <f t="shared" si="12"/>
+        <v>4.9965000000000144</v>
       </c>
       <c r="AR73" s="4">
-        <f>AQ73^2</f>
-        <v>88.294212250000257</v>
+        <f t="shared" si="13"/>
+        <v>24.965012250000143</v>
       </c>
       <c r="AS73" s="4">
-        <f>AO73-AP73</f>
-        <v>12.628999999999859</v>
-      </c>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" s="20">
-        <v>-7.05</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H74" s="20">
-        <v>-4.8</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP74" s="20">
-        <v>-4.8</v>
+        <f t="shared" si="14"/>
+        <v>8.2289999999998606</v>
       </c>
     </row>
   </sheetData>
@@ -19247,7 +19206,7 @@
       </c>
       <c r="K1" s="12">
         <f>MAX(data!A:A)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -19263,11 +19222,11 @@
       <c r="D2" s="3">
         <v>-2.17</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -19308,11 +19267,11 @@
       </c>
       <c r="K4" s="7">
         <f>SQRT(SUMSQ(data!AQ2:AQ73)/COUNTA(data!AQ2:AQ73))</f>
-        <v>9.1646535389293931</v>
+        <v>9.1165400381059474</v>
       </c>
       <c r="L4" s="8">
         <f>RSQ(data!AP2:AP73,data!AN2:AN73)</f>
-        <v>0.13147789759397407</v>
+        <v>0.16443424102892057</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.3">
@@ -19333,11 +19292,11 @@
       </c>
       <c r="K5" s="8">
         <f>SQRT(SUMSQ(data!AS2:AS74)/COUNTA(data!AS2:AS74))</f>
-        <v>7.7449655078763566</v>
+        <v>7.6622343453224477</v>
       </c>
       <c r="L5" s="8">
         <f>RSQ(data!AP2:AP73,data!AO2:AO73)</f>
-        <v>7.7164407723847819E-2</v>
+        <v>0.10981444457787423</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -19381,10 +19340,10 @@
       <c r="D8" s="3">
         <v>-3.4</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -20189,10 +20148,16 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="41" max="41" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
@@ -20336,7 +20301,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>112</v>
@@ -20478,9 +20443,9 @@
         <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -20489,13 +20454,13 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="22">
         <v>-7.65</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="22">
         <v>-5</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -20597,7 +20562,7 @@
       <c r="AO3" s="4">
         <v>1285584.5253999999</v>
       </c>
-      <c r="AP3" s="27">
+      <c r="AP3" s="22">
         <v>-5</v>
       </c>
       <c r="AQ3" s="4">
@@ -20615,9 +20580,9 @@
         <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -20626,13 +20591,13 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="22">
         <v>-7.66</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="22">
         <v>-6.5</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -20734,7 +20699,7 @@
       <c r="AO4" s="4">
         <v>41.457300000000032</v>
       </c>
-      <c r="AP4" s="27">
+      <c r="AP4" s="22">
         <v>-6.5</v>
       </c>
       <c r="AQ4" s="4">
@@ -20752,9 +20717,9 @@
         <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -20763,13 +20728,13 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <v>-6.45</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="22">
         <v>-2.5</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -20871,7 +20836,7 @@
       <c r="AO5" s="4">
         <v>429.69500000000016</v>
       </c>
-      <c r="AP5" s="27">
+      <c r="AP5" s="22">
         <v>-2.5</v>
       </c>
       <c r="AQ5" s="4">
@@ -20889,9 +20854,9 @@
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -20900,13 +20865,13 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="22">
         <v>-7.8</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="22">
         <v>-9.8000000000000007</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -21008,7 +20973,7 @@
       <c r="AO6" s="4">
         <v>199873756.30340001</v>
       </c>
-      <c r="AP6" s="27">
+      <c r="AP6" s="22">
         <v>-9.8000000000000007</v>
       </c>
       <c r="AQ6" s="4">
@@ -21026,24 +20991,24 @@
         <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="22">
         <v>-5.68</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="22">
         <v>-4.8</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -21145,7 +21110,7 @@
       <c r="AO7" s="4">
         <v>29.991800000000012</v>
       </c>
-      <c r="AP7" s="27">
+      <c r="AP7" s="22">
         <v>-4.8</v>
       </c>
       <c r="AQ7" s="4">
@@ -21163,24 +21128,24 @@
         <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="22">
         <v>-4.6500000000000004</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="22">
         <v>-5.5</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -21282,7 +21247,7 @@
       <c r="AO8" s="4">
         <v>3.5317000000001144</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="22">
         <v>-5.5</v>
       </c>
       <c r="AQ8" s="4">
@@ -21300,24 +21265,24 @@
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <v>-8.3800000000000008</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="22">
         <v>-12.1</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -21419,7 +21384,7 @@
       <c r="AO9" s="4">
         <v>2.6915000000000191</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="AP9" s="22">
         <v>-12.1</v>
       </c>
       <c r="AQ9" s="4">
@@ -21437,24 +21402,24 @@
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="22">
         <v>-5.18</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="22">
         <v>-7.5</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -21556,7 +21521,7 @@
       <c r="AO10" s="4">
         <v>8.0244999999999891</v>
       </c>
-      <c r="AP10" s="27">
+      <c r="AP10" s="22">
         <v>-7.5</v>
       </c>
       <c r="AQ10" s="4">
@@ -21574,24 +21539,24 @@
         <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="22">
         <v>-7.11</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="22">
         <v>-6.9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -21693,7 +21658,7 @@
       <c r="AO11" s="4">
         <v>4.4981000000000222</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="22">
         <v>-6.9</v>
       </c>
       <c r="AQ11" s="4">
@@ -21711,24 +21676,24 @@
         <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="22">
         <v>-4.59</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="22">
         <v>-5.3</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -21830,7 +21795,7 @@
       <c r="AO12" s="4">
         <v>34.821799999999939</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="AP12" s="22">
         <v>-5.3</v>
       </c>
       <c r="AQ12" s="4">
@@ -21848,24 +21813,24 @@
         <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="22">
         <v>-6.22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="22">
         <v>-7.4</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -21967,7 +21932,7 @@
       <c r="AO13" s="4">
         <v>43.3125</v>
       </c>
-      <c r="AP13" s="27">
+      <c r="AP13" s="22">
         <v>-7.4</v>
       </c>
       <c r="AQ13" s="4">
@@ -21985,24 +21950,24 @@
         <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <v>-6.06</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="22">
         <v>-7.8</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -22104,7 +22069,7 @@
       <c r="AO14" s="4">
         <v>1090.0491</v>
       </c>
-      <c r="AP14" s="27">
+      <c r="AP14" s="22">
         <v>-7.8</v>
       </c>
       <c r="AQ14" s="4">
@@ -22122,24 +22087,24 @@
         <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="22">
         <v>-6.81</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="22">
         <v>-9.3000000000000007</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -22241,7 +22206,7 @@
       <c r="AO15" s="4">
         <v>151.78280000000007</v>
       </c>
-      <c r="AP15" s="27">
+      <c r="AP15" s="22">
         <v>-9.3000000000000007</v>
       </c>
       <c r="AQ15" s="4">
@@ -22259,24 +22224,24 @@
         <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="22">
         <v>-5.6</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="22">
         <v>-8.9</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -22378,7 +22343,7 @@
       <c r="AO16" s="4">
         <v>109.56780000000003</v>
       </c>
-      <c r="AP16" s="27">
+      <c r="AP16" s="22">
         <v>-8.9</v>
       </c>
       <c r="AQ16" s="4">
@@ -22396,24 +22361,24 @@
         <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="22">
         <v>-7.79</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="22">
         <v>-8.9</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -22515,7 +22480,7 @@
       <c r="AO17" s="4">
         <v>9.6182999999999765</v>
       </c>
-      <c r="AP17" s="27">
+      <c r="AP17" s="22">
         <v>-8.9</v>
       </c>
       <c r="AQ17" s="4">
@@ -22533,24 +22498,24 @@
         <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="22">
         <v>-4.16</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="22">
         <v>-8</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -22652,7 +22617,7 @@
       <c r="AO18" s="4">
         <v>22.087700000000041</v>
       </c>
-      <c r="AP18" s="27">
+      <c r="AP18" s="22">
         <v>-8</v>
       </c>
       <c r="AQ18" s="4">
@@ -22670,13 +22635,13 @@
         <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -22807,13 +22772,13 @@
         <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>

--- a/Results/host-guest-dataset_clean.xlsx
+++ b/Results/host-guest-dataset_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/misspotato/Documents/GitHub/Binding-Free-Energy-Prediction-Host-Guest-System/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40BE6E-F0F1-7B48-B49C-816D417F6348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08369725-E1DB-4644-BC4F-EB5B8E608343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="740" windowWidth="23660" windowHeight="15020" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
+    <workbookView xWindow="2560" yWindow="980" windowWidth="23660" windowHeight="15020" xr2:uid="{B5BBD327-6A3B-EE47-875C-25D1AD5D16D6}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="119">
   <si>
     <t>dataset group name</t>
   </si>
@@ -338,16 +338,10 @@
     <t>OA-G5</t>
   </si>
   <si>
-    <t>OA-G6</t>
-  </si>
-  <si>
     <t>OA-G7</t>
   </si>
   <si>
     <t>TEMOA-G0</t>
-  </si>
-  <si>
-    <t>TEMOA-G1</t>
   </si>
   <si>
     <t>TEMOA-G2</t>
@@ -383,27 +377,6 @@
     <t>CB8-G4</t>
   </si>
   <si>
-    <t>CB8-G5</t>
-  </si>
-  <si>
-    <t>CB8-G6</t>
-  </si>
-  <si>
-    <t>CB8-G7</t>
-  </si>
-  <si>
-    <t>CB8-G8</t>
-  </si>
-  <si>
-    <t>CB8-G9</t>
-  </si>
-  <si>
-    <t>CB8-G10</t>
-  </si>
-  <si>
-    <t>CB8-G11</t>
-  </si>
-  <si>
     <t>OA</t>
   </si>
   <si>
@@ -413,7 +386,7 @@
     <t>SAMPL6</t>
   </si>
   <si>
-    <t>CB8-G12</t>
+    <t>OAA</t>
   </si>
 </sst>
 </file>
@@ -7824,7 +7797,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041C620A-01CB-D248-AD5D-9E58A9EA1194}" name="PivotTable6" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0">
@@ -8609,8 +8582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD74DF-FB71-A641-B99D-0471020535CD}">
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17612,13 +17585,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -17754,13 +17727,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>8</v>
@@ -17896,10 +17869,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="22" t="s">
         <v>117</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>93</v>
@@ -18021,15 +17994,15 @@
         <v>-3.2</v>
       </c>
       <c r="AQ66" s="4">
-        <f t="shared" ref="AQ66:AQ97" si="12">AN66-AP66</f>
+        <f t="shared" ref="AQ66:AQ73" si="12">AN66-AP66</f>
         <v>-20.758100000000059</v>
       </c>
       <c r="AR66" s="4">
-        <f t="shared" ref="AR66:AR97" si="13">AQ66^2</f>
+        <f t="shared" ref="AR66:AR73" si="13">AQ66^2</f>
         <v>430.89871561000245</v>
       </c>
       <c r="AS66" s="4">
-        <f t="shared" ref="AS66:AS74" si="14">AO66-AP66</f>
+        <f t="shared" ref="AS66:AS73" si="14">AO66-AP66</f>
         <v>-15.362199999999849</v>
       </c>
     </row>
@@ -18038,10 +18011,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>93</v>
@@ -18180,10 +18153,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>93</v>
@@ -18322,10 +18295,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>93</v>
@@ -18464,10 +18437,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>93</v>
@@ -18606,10 +18579,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>93</v>
@@ -18748,10 +18721,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>93</v>
@@ -18890,10 +18863,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>93</v>
@@ -20301,10 +20274,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>93</v>
@@ -20443,10 +20416,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>93</v>
@@ -20580,10 +20553,10 @@
         <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>93</v>
@@ -20717,10 +20690,10 @@
         <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>93</v>
@@ -20854,10 +20827,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>93</v>
@@ -20991,13 +20964,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>94</v>
@@ -21128,13 +21101,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -21265,13 +21238,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -21402,13 +21375,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
@@ -21539,13 +21512,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
@@ -21676,13 +21649,13 @@
         <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -21813,13 +21786,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
@@ -21950,13 +21923,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>94</v>
@@ -22087,13 +22060,13 @@
         <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
@@ -22224,13 +22197,13 @@
         <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>10</v>
@@ -22361,13 +22334,13 @@
         <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
@@ -22498,13 +22471,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>12</v>
@@ -22635,13 +22608,13 @@
         <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -22772,13 +22745,13 @@
         <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
